--- a/database/industries/ghaza/ghesalem/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghesalem/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85FA3DA-49B2-4BB6-B570-8BF96A60D444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -297,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +491,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -502,7 +503,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -549,6 +550,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -584,6 +602,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,17 +770,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -800,7 +835,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,7 +892,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -914,7 +949,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -969,7 +1004,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1061,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1118,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1138,7 +1173,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1350,7 +1385,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1407,7 +1442,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1475,98 +1510,98 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>930</v>
       </c>
       <c r="Z11" s="11">
+        <v>877</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>946</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>821</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>928</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>1001</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>983</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>972</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>857</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>601</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>910</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>898</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>999</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>879</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>1041</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>904</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>1088</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>1078</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>1084</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>1051</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>956</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>556</v>
+      </c>
+      <c r="AU11" s="11">
         <v>930</v>
       </c>
-      <c r="AA11" s="11">
-        <v>877</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>946</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>821</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>928</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>1001</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>983</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>972</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>857</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>601</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>910</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>898</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>999</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>879</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>1041</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>904</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>1088</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>1078</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>1084</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>1051</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>956</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>556</v>
-      </c>
       <c r="AV11" s="11">
-        <v>930</v>
+        <v>1113</v>
       </c>
       <c r="AW11" s="11">
-        <v>1113</v>
+        <v>1169</v>
       </c>
       <c r="AX11" s="11">
-        <v>1169</v>
+        <v>1056</v>
       </c>
       <c r="AY11" s="11">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="BA11" s="11">
-        <v>1011</v>
+        <v>1130</v>
       </c>
       <c r="BB11" s="11">
-        <v>1130</v>
+        <v>1096</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1634,48 +1669,48 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>790</v>
       </c>
       <c r="Z12" s="13">
-        <v>790</v>
+        <v>557</v>
       </c>
       <c r="AA12" s="13">
-        <v>557</v>
+        <v>749</v>
       </c>
       <c r="AB12" s="13">
-        <v>749</v>
+        <v>321</v>
       </c>
       <c r="AC12" s="13">
-        <v>321</v>
+        <v>612</v>
       </c>
       <c r="AD12" s="13">
-        <v>612</v>
+        <v>839</v>
       </c>
       <c r="AE12" s="13">
-        <v>839</v>
+        <v>1112</v>
       </c>
       <c r="AF12" s="13">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="AG12" s="13">
-        <v>1121</v>
+        <v>814</v>
       </c>
       <c r="AH12" s="13">
-        <v>814</v>
+        <v>467</v>
       </c>
       <c r="AI12" s="13">
-        <v>467</v>
+        <v>823</v>
       </c>
       <c r="AJ12" s="13">
-        <v>823</v>
+        <v>629</v>
       </c>
       <c r="AK12" s="13">
-        <v>629</v>
-      </c>
-      <c r="AL12" s="13">
         <v>662</v>
       </c>
+      <c r="AL12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1725,7 +1760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1793,8 +1828,8 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>0</v>
       </c>
       <c r="Z13" s="11">
         <v>0</v>
@@ -1809,82 +1844,82 @@
         <v>0</v>
       </c>
       <c r="AD13" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE13" s="11">
+        <v>110</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>117</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>109</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>83</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>100</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>61</v>
+      </c>
+      <c r="AK13" s="11">
         <v>7</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AL13" s="11">
+        <v>87</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>130</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>103</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>46</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>47</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>74</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>90</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>43</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>122</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>202</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>73</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>84</v>
+      </c>
+      <c r="AZ13" s="11">
         <v>110</v>
       </c>
-      <c r="AG13" s="11">
-        <v>117</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>109</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>83</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>100</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>61</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>7</v>
-      </c>
-      <c r="AM13" s="11">
+      <c r="BA13" s="11">
+        <v>115</v>
+      </c>
+      <c r="BB13" s="11">
         <v>87</v>
       </c>
-      <c r="AN13" s="11">
-        <v>130</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>103</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>46</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>47</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>74</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>90</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>43</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>122</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>202</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>73</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>84</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>110</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>115</v>
-      </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1952,98 +1987,98 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>2150</v>
       </c>
       <c r="Z14" s="13">
-        <v>2150</v>
+        <v>1805</v>
       </c>
       <c r="AA14" s="13">
-        <v>1805</v>
+        <v>1566</v>
       </c>
       <c r="AB14" s="13">
-        <v>1566</v>
+        <v>544</v>
       </c>
       <c r="AC14" s="13">
-        <v>544</v>
+        <v>1210</v>
       </c>
       <c r="AD14" s="13">
-        <v>1210</v>
+        <v>2007</v>
       </c>
       <c r="AE14" s="13">
-        <v>2007</v>
+        <v>1870</v>
       </c>
       <c r="AF14" s="13">
-        <v>1870</v>
+        <v>1694</v>
       </c>
       <c r="AG14" s="13">
-        <v>1694</v>
+        <v>1474</v>
       </c>
       <c r="AH14" s="13">
-        <v>1474</v>
+        <v>1261</v>
       </c>
       <c r="AI14" s="13">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1249</v>
+        <v>1717</v>
       </c>
       <c r="AK14" s="13">
-        <v>1717</v>
+        <v>1804</v>
       </c>
       <c r="AL14" s="13">
-        <v>1804</v>
+        <v>1356</v>
       </c>
       <c r="AM14" s="13">
-        <v>1356</v>
+        <v>1757</v>
       </c>
       <c r="AN14" s="13">
-        <v>1757</v>
+        <v>1308</v>
       </c>
       <c r="AO14" s="13">
-        <v>1308</v>
+        <v>1651</v>
       </c>
       <c r="AP14" s="13">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="AQ14" s="13">
+        <v>2623</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>1931</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>1670</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>636</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>1692</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>1715</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>1742</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>1625</v>
+      </c>
+      <c r="AZ14" s="13">
         <v>1656</v>
       </c>
-      <c r="AR14" s="13">
-        <v>2623</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>1931</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>1670</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>636</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>1450</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>1692</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>1715</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>1742</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>1625</v>
-      </c>
       <c r="BA14" s="13">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="BB14" s="13">
-        <v>1652</v>
+        <v>1452</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2150,59 +2185,59 @@
       <c r="AK15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL15" s="11" t="s">
-        <v>58</v>
+      <c r="AL15" s="11">
+        <v>191</v>
       </c>
       <c r="AM15" s="11">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="AN15" s="11">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="AO15" s="11">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AP15" s="11">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="AQ15" s="11">
-        <v>361</v>
+        <v>168</v>
       </c>
       <c r="AR15" s="11">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="AS15" s="11">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="AT15" s="11">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="AU15" s="11">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AV15" s="11">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="AW15" s="11">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AX15" s="11">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="AY15" s="11">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AZ15" s="11">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="BA15" s="11">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="BB15" s="11">
-        <v>241</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2270,68 +2305,68 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>0</v>
       </c>
       <c r="Z16" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA16" s="13">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="13">
         <v>8</v>
       </c>
-      <c r="AB16" s="13">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>14</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>0</v>
-      </c>
       <c r="AE16" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="13">
         <v>8</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>2</v>
       </c>
       <c r="AG16" s="13">
         <v>8</v>
       </c>
       <c r="AH16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="13">
         <v>8</v>
       </c>
-      <c r="AI16" s="13">
-        <v>0</v>
-      </c>
       <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>13</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>14</v>
+      </c>
+      <c r="AO16" s="13">
         <v>8</v>
       </c>
-      <c r="AK16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>13</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="13">
+      <c r="AP16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="13">
         <v>6</v>
       </c>
-      <c r="AO16" s="13">
-        <v>14</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>8</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>0</v>
-      </c>
       <c r="AR16" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AS16" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="13">
         <v>0</v>
@@ -2340,28 +2375,28 @@
         <v>0</v>
       </c>
       <c r="AV16" s="13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AW16" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AY16" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BA16" s="13">
         <v>9</v>
       </c>
       <c r="BB16" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2468,59 +2503,59 @@
       <c r="AK17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL17" s="11" t="s">
-        <v>58</v>
+      <c r="AL17" s="11">
+        <v>478</v>
       </c>
       <c r="AM17" s="11">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="AN17" s="11">
-        <v>559</v>
+        <v>696</v>
       </c>
       <c r="AO17" s="11">
-        <v>696</v>
+        <v>813</v>
       </c>
       <c r="AP17" s="11">
-        <v>813</v>
+        <v>1225</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="11">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="AS17" s="11">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AT17" s="11">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="AU17" s="11">
-        <v>129</v>
+        <v>587</v>
       </c>
       <c r="AV17" s="11">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="AW17" s="11">
-        <v>693</v>
+        <v>496</v>
       </c>
       <c r="AX17" s="11">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="AY17" s="11">
+        <v>470</v>
+      </c>
+      <c r="AZ17" s="11">
+        <v>486</v>
+      </c>
+      <c r="BA17" s="11">
         <v>524</v>
       </c>
-      <c r="AZ17" s="11">
-        <v>470</v>
-      </c>
-      <c r="BA17" s="11">
-        <v>486</v>
-      </c>
       <c r="BB17" s="11">
-        <v>524</v>
+        <v>755</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2627,59 +2662,59 @@
       <c r="AK18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL18" s="13" t="s">
-        <v>58</v>
+      <c r="AL18" s="13">
+        <v>0</v>
       </c>
       <c r="AM18" s="13">
         <v>0</v>
       </c>
       <c r="AN18" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO18" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="13">
         <v>0</v>
       </c>
       <c r="AQ18" s="13">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AR18" s="13">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AS18" s="13">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AT18" s="13">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AU18" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AW18" s="13">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AX18" s="13">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AY18" s="13">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AZ18" s="13">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="BA18" s="13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB18" s="13">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2786,59 +2821,59 @@
       <c r="AK19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL19" s="11" t="s">
-        <v>58</v>
+      <c r="AL19" s="11">
+        <v>95</v>
       </c>
       <c r="AM19" s="11">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="AN19" s="11">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AO19" s="11">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AP19" s="11">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="11">
         <v>0</v>
       </c>
       <c r="AR19" s="11">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AS19" s="11">
+        <v>124</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>57</v>
+      </c>
+      <c r="AU19" s="11">
         <v>161</v>
       </c>
-      <c r="AT19" s="11">
+      <c r="AV19" s="11">
+        <v>136</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>96</v>
+      </c>
+      <c r="AX19" s="11">
         <v>124</v>
       </c>
-      <c r="AU19" s="11">
-        <v>57</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>161</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>136</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>96</v>
-      </c>
       <c r="AY19" s="11">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="AZ19" s="11">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="BA19" s="11">
+        <v>235</v>
+      </c>
+      <c r="BB19" s="11">
         <v>146</v>
       </c>
-      <c r="BB19" s="11">
-        <v>235</v>
-      </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>67</v>
       </c>
@@ -2905,97 +2940,97 @@
         <v>0</v>
       </c>
       <c r="Y20" s="15">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="Z20" s="15">
-        <v>3870</v>
+        <v>3247</v>
       </c>
       <c r="AA20" s="15">
-        <v>3247</v>
+        <v>3270</v>
       </c>
       <c r="AB20" s="15">
-        <v>3270</v>
+        <v>1700</v>
       </c>
       <c r="AC20" s="15">
-        <v>1700</v>
+        <v>2750</v>
       </c>
       <c r="AD20" s="15">
-        <v>2750</v>
+        <v>3862</v>
       </c>
       <c r="AE20" s="15">
-        <v>3862</v>
+        <v>4077</v>
       </c>
       <c r="AF20" s="15">
-        <v>4077</v>
+        <v>3912</v>
       </c>
       <c r="AG20" s="15">
-        <v>3912</v>
+        <v>3262</v>
       </c>
       <c r="AH20" s="15">
-        <v>3262</v>
+        <v>2412</v>
       </c>
       <c r="AI20" s="15">
-        <v>2412</v>
+        <v>3090</v>
       </c>
       <c r="AJ20" s="15">
-        <v>3090</v>
+        <v>3305</v>
       </c>
       <c r="AK20" s="15">
-        <v>3305</v>
+        <v>3485</v>
       </c>
       <c r="AL20" s="15">
-        <v>3485</v>
+        <v>3086</v>
       </c>
       <c r="AM20" s="15">
-        <v>3086</v>
+        <v>3834</v>
       </c>
       <c r="AN20" s="15">
-        <v>3834</v>
+        <v>3361</v>
       </c>
       <c r="AO20" s="15">
-        <v>3361</v>
+        <v>4120</v>
       </c>
       <c r="AP20" s="15">
-        <v>4120</v>
+        <v>4320</v>
       </c>
       <c r="AQ20" s="15">
-        <v>4320</v>
+        <v>3971</v>
       </c>
       <c r="AR20" s="15">
-        <v>3971</v>
+        <v>3892</v>
       </c>
       <c r="AS20" s="15">
-        <v>3892</v>
+        <v>3298</v>
       </c>
       <c r="AT20" s="15">
-        <v>3298</v>
+        <v>1444</v>
       </c>
       <c r="AU20" s="15">
-        <v>1444</v>
+        <v>3352</v>
       </c>
       <c r="AV20" s="15">
-        <v>3352</v>
+        <v>4144</v>
       </c>
       <c r="AW20" s="15">
-        <v>4144</v>
+        <v>3754</v>
       </c>
       <c r="AX20" s="15">
-        <v>3754</v>
+        <v>3686</v>
       </c>
       <c r="AY20" s="15">
-        <v>3686</v>
+        <v>3643</v>
       </c>
       <c r="AZ20" s="15">
-        <v>3643</v>
+        <v>3713</v>
       </c>
       <c r="BA20" s="15">
-        <v>3713</v>
+        <v>3968</v>
       </c>
       <c r="BB20" s="15">
-        <v>3968</v>
+        <v>3693</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>68</v>
       </c>
@@ -3052,7 +3087,7 @@
       <c r="BA21" s="17"/>
       <c r="BB21" s="17"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>69</v>
       </c>
@@ -3209,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>70</v>
       </c>
@@ -3266,7 +3301,7 @@
       <c r="BA23" s="17"/>
       <c r="BB23" s="17"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>71</v>
       </c>
@@ -3332,8 +3367,8 @@
       <c r="X24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="19" t="s">
-        <v>58</v>
+      <c r="Y24" s="19">
+        <v>0</v>
       </c>
       <c r="Z24" s="19">
         <v>0</v>
@@ -3423,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>72</v>
       </c>
@@ -3490,97 +3525,97 @@
         <v>0</v>
       </c>
       <c r="Y25" s="15">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="Z25" s="15">
-        <v>3870</v>
+        <v>3247</v>
       </c>
       <c r="AA25" s="15">
-        <v>3247</v>
+        <v>3270</v>
       </c>
       <c r="AB25" s="15">
-        <v>3270</v>
+        <v>1700</v>
       </c>
       <c r="AC25" s="15">
-        <v>1700</v>
+        <v>2750</v>
       </c>
       <c r="AD25" s="15">
-        <v>2750</v>
+        <v>3862</v>
       </c>
       <c r="AE25" s="15">
-        <v>3862</v>
+        <v>4077</v>
       </c>
       <c r="AF25" s="15">
-        <v>4077</v>
+        <v>3912</v>
       </c>
       <c r="AG25" s="15">
-        <v>3912</v>
+        <v>3262</v>
       </c>
       <c r="AH25" s="15">
-        <v>3262</v>
+        <v>2412</v>
       </c>
       <c r="AI25" s="15">
-        <v>2412</v>
+        <v>3090</v>
       </c>
       <c r="AJ25" s="15">
-        <v>3090</v>
+        <v>3305</v>
       </c>
       <c r="AK25" s="15">
-        <v>3305</v>
+        <v>3485</v>
       </c>
       <c r="AL25" s="15">
-        <v>3485</v>
+        <v>3086</v>
       </c>
       <c r="AM25" s="15">
-        <v>3086</v>
+        <v>3834</v>
       </c>
       <c r="AN25" s="15">
-        <v>3834</v>
+        <v>3361</v>
       </c>
       <c r="AO25" s="15">
-        <v>3361</v>
+        <v>4120</v>
       </c>
       <c r="AP25" s="15">
-        <v>4120</v>
+        <v>4320</v>
       </c>
       <c r="AQ25" s="15">
-        <v>4320</v>
+        <v>3971</v>
       </c>
       <c r="AR25" s="15">
-        <v>3971</v>
+        <v>3892</v>
       </c>
       <c r="AS25" s="15">
-        <v>3892</v>
+        <v>3298</v>
       </c>
       <c r="AT25" s="15">
-        <v>3298</v>
+        <v>1444</v>
       </c>
       <c r="AU25" s="15">
-        <v>1444</v>
+        <v>3352</v>
       </c>
       <c r="AV25" s="15">
-        <v>3352</v>
+        <v>4144</v>
       </c>
       <c r="AW25" s="15">
-        <v>4144</v>
+        <v>3754</v>
       </c>
       <c r="AX25" s="15">
-        <v>3754</v>
+        <v>3686</v>
       </c>
       <c r="AY25" s="15">
-        <v>3686</v>
+        <v>3643</v>
       </c>
       <c r="AZ25" s="15">
-        <v>3643</v>
+        <v>3713</v>
       </c>
       <c r="BA25" s="15">
-        <v>3713</v>
+        <v>3968</v>
       </c>
       <c r="BB25" s="15">
-        <v>3968</v>
+        <v>3693</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3635,7 +3670,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3690,7 +3725,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3745,7 +3780,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>73</v>
       </c>
@@ -3902,7 +3937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3957,7 +3992,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>74</v>
       </c>
@@ -4014,7 +4049,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
@@ -4082,98 +4117,98 @@
       <c r="X32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y32" s="11" t="s">
-        <v>58</v>
+      <c r="Y32" s="11">
+        <v>924</v>
       </c>
       <c r="Z32" s="11">
-        <v>924</v>
+        <v>872</v>
       </c>
       <c r="AA32" s="11">
-        <v>872</v>
+        <v>951</v>
       </c>
       <c r="AB32" s="11">
-        <v>951</v>
+        <v>805</v>
       </c>
       <c r="AC32" s="11">
-        <v>805</v>
+        <v>944</v>
       </c>
       <c r="AD32" s="11">
-        <v>944</v>
+        <v>991</v>
       </c>
       <c r="AE32" s="11">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="AF32" s="11">
+        <v>981</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>849</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>605</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>931</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>897</v>
+      </c>
+      <c r="AK32" s="11">
         <v>980</v>
       </c>
-      <c r="AG32" s="11">
-        <v>981</v>
-      </c>
-      <c r="AH32" s="11">
-        <v>849</v>
-      </c>
-      <c r="AI32" s="11">
-        <v>605</v>
-      </c>
-      <c r="AJ32" s="11">
-        <v>931</v>
-      </c>
-      <c r="AK32" s="11">
-        <v>897</v>
-      </c>
       <c r="AL32" s="11">
-        <v>980</v>
+        <v>854</v>
       </c>
       <c r="AM32" s="11">
-        <v>854</v>
+        <v>1051</v>
       </c>
       <c r="AN32" s="11">
-        <v>1051</v>
+        <v>893</v>
       </c>
       <c r="AO32" s="11">
-        <v>893</v>
+        <v>1101</v>
       </c>
       <c r="AP32" s="11">
-        <v>1101</v>
+        <v>1069</v>
       </c>
       <c r="AQ32" s="11">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="AR32" s="11">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="AS32" s="11">
-        <v>1056</v>
+        <v>956</v>
       </c>
       <c r="AT32" s="11">
-        <v>956</v>
+        <v>606</v>
       </c>
       <c r="AU32" s="11">
-        <v>606</v>
+        <v>887</v>
       </c>
       <c r="AV32" s="11">
-        <v>887</v>
+        <v>1106</v>
       </c>
       <c r="AW32" s="11">
-        <v>1106</v>
+        <v>1185</v>
       </c>
       <c r="AX32" s="11">
-        <v>1185</v>
+        <v>1060</v>
       </c>
       <c r="AY32" s="11">
-        <v>1060</v>
+        <v>1034</v>
       </c>
       <c r="AZ32" s="11">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="BA32" s="11">
-        <v>1023</v>
+        <v>1108</v>
       </c>
       <c r="BB32" s="11">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>59</v>
       </c>
@@ -4241,48 +4276,48 @@
       <c r="X33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="13" t="s">
-        <v>58</v>
+      <c r="Y33" s="13">
+        <v>775</v>
       </c>
       <c r="Z33" s="13">
-        <v>775</v>
+        <v>677</v>
       </c>
       <c r="AA33" s="13">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AB33" s="13">
-        <v>670</v>
+        <v>373</v>
       </c>
       <c r="AC33" s="13">
-        <v>373</v>
+        <v>583</v>
       </c>
       <c r="AD33" s="13">
-        <v>583</v>
+        <v>817</v>
       </c>
       <c r="AE33" s="13">
-        <v>817</v>
+        <v>1013</v>
       </c>
       <c r="AF33" s="13">
-        <v>1013</v>
+        <v>1038</v>
       </c>
       <c r="AG33" s="13">
-        <v>1038</v>
+        <v>943</v>
       </c>
       <c r="AH33" s="13">
-        <v>943</v>
+        <v>492</v>
       </c>
       <c r="AI33" s="13">
-        <v>492</v>
+        <v>770</v>
       </c>
       <c r="AJ33" s="13">
-        <v>770</v>
+        <v>658</v>
       </c>
       <c r="AK33" s="13">
-        <v>658</v>
-      </c>
-      <c r="AL33" s="13">
         <v>823</v>
       </c>
+      <c r="AL33" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM33" s="13" t="s">
         <v>58</v>
       </c>
@@ -4332,7 +4367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
@@ -4400,8 +4435,8 @@
       <c r="X34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="11" t="s">
-        <v>58</v>
+      <c r="Y34" s="11">
+        <v>0</v>
       </c>
       <c r="Z34" s="11">
         <v>0</v>
@@ -4416,82 +4451,82 @@
         <v>0</v>
       </c>
       <c r="AD34" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="11">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="AF34" s="11">
+        <v>98</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>112</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>76</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>97</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>80</v>
+      </c>
+      <c r="AK34" s="11">
+        <v>18</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>74</v>
+      </c>
+      <c r="AM34" s="11">
         <v>110</v>
       </c>
-      <c r="AG34" s="11">
+      <c r="AN34" s="11">
+        <v>77</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>62</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>43</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>39</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>76</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>86</v>
+      </c>
+      <c r="AT34" s="11">
+        <v>53</v>
+      </c>
+      <c r="AU34" s="11">
+        <v>107</v>
+      </c>
+      <c r="AV34" s="11">
+        <v>136</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>78</v>
+      </c>
+      <c r="AX34" s="11">
+        <v>53</v>
+      </c>
+      <c r="AY34" s="11">
+        <v>61</v>
+      </c>
+      <c r="AZ34" s="11">
+        <v>88</v>
+      </c>
+      <c r="BA34" s="11">
+        <v>115</v>
+      </c>
+      <c r="BB34" s="11">
         <v>98</v>
       </c>
-      <c r="AH34" s="11">
-        <v>112</v>
-      </c>
-      <c r="AI34" s="11">
-        <v>76</v>
-      </c>
-      <c r="AJ34" s="11">
-        <v>97</v>
-      </c>
-      <c r="AK34" s="11">
-        <v>80</v>
-      </c>
-      <c r="AL34" s="11">
-        <v>18</v>
-      </c>
-      <c r="AM34" s="11">
-        <v>74</v>
-      </c>
-      <c r="AN34" s="11">
-        <v>110</v>
-      </c>
-      <c r="AO34" s="11">
-        <v>77</v>
-      </c>
-      <c r="AP34" s="11">
-        <v>62</v>
-      </c>
-      <c r="AQ34" s="11">
-        <v>43</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>39</v>
-      </c>
-      <c r="AS34" s="11">
-        <v>76</v>
-      </c>
-      <c r="AT34" s="11">
-        <v>86</v>
-      </c>
-      <c r="AU34" s="11">
-        <v>53</v>
-      </c>
-      <c r="AV34" s="11">
-        <v>107</v>
-      </c>
-      <c r="AW34" s="11">
-        <v>136</v>
-      </c>
-      <c r="AX34" s="11">
-        <v>78</v>
-      </c>
-      <c r="AY34" s="11">
-        <v>53</v>
-      </c>
-      <c r="AZ34" s="11">
-        <v>61</v>
-      </c>
-      <c r="BA34" s="11">
-        <v>88</v>
-      </c>
-      <c r="BB34" s="11">
-        <v>115</v>
-      </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>61</v>
       </c>
@@ -4559,98 +4594,98 @@
       <c r="X35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="13" t="s">
-        <v>58</v>
+      <c r="Y35" s="13">
+        <v>2116</v>
       </c>
       <c r="Z35" s="13">
-        <v>2116</v>
+        <v>1744</v>
       </c>
       <c r="AA35" s="13">
-        <v>1744</v>
+        <v>1886</v>
       </c>
       <c r="AB35" s="13">
-        <v>1886</v>
+        <v>636</v>
       </c>
       <c r="AC35" s="13">
-        <v>636</v>
+        <v>1092</v>
       </c>
       <c r="AD35" s="13">
-        <v>1092</v>
+        <v>2026</v>
       </c>
       <c r="AE35" s="13">
-        <v>2026</v>
+        <v>1798</v>
       </c>
       <c r="AF35" s="13">
-        <v>1798</v>
+        <v>1573</v>
       </c>
       <c r="AG35" s="13">
-        <v>1573</v>
+        <v>1496</v>
       </c>
       <c r="AH35" s="13">
-        <v>1496</v>
+        <v>1263</v>
       </c>
       <c r="AI35" s="13">
-        <v>1263</v>
+        <v>1213</v>
       </c>
       <c r="AJ35" s="13">
-        <v>1213</v>
+        <v>1738</v>
       </c>
       <c r="AK35" s="13">
-        <v>1738</v>
+        <v>1655</v>
       </c>
       <c r="AL35" s="13">
-        <v>1655</v>
+        <v>1489</v>
       </c>
       <c r="AM35" s="13">
-        <v>1489</v>
+        <v>1927</v>
       </c>
       <c r="AN35" s="13">
-        <v>1927</v>
+        <v>1356</v>
       </c>
       <c r="AO35" s="13">
-        <v>1356</v>
+        <v>1451</v>
       </c>
       <c r="AP35" s="13">
-        <v>1451</v>
+        <v>2175</v>
       </c>
       <c r="AQ35" s="13">
-        <v>2175</v>
+        <v>2131</v>
       </c>
       <c r="AR35" s="13">
-        <v>2131</v>
+        <v>1911</v>
       </c>
       <c r="AS35" s="13">
-        <v>1911</v>
+        <v>1571</v>
       </c>
       <c r="AT35" s="13">
-        <v>1571</v>
+        <v>988</v>
       </c>
       <c r="AU35" s="13">
-        <v>988</v>
+        <v>1155</v>
       </c>
       <c r="AV35" s="13">
-        <v>1155</v>
+        <v>1749</v>
       </c>
       <c r="AW35" s="13">
-        <v>1749</v>
+        <v>1425</v>
       </c>
       <c r="AX35" s="13">
-        <v>1425</v>
+        <v>1692</v>
       </c>
       <c r="AY35" s="13">
-        <v>1692</v>
+        <v>1544</v>
       </c>
       <c r="AZ35" s="13">
-        <v>1544</v>
+        <v>1694</v>
       </c>
       <c r="BA35" s="13">
-        <v>1694</v>
+        <v>1581</v>
       </c>
       <c r="BB35" s="13">
-        <v>1581</v>
+        <v>1664</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>62</v>
       </c>
@@ -4757,59 +4792,59 @@
       <c r="AK36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL36" s="11" t="s">
-        <v>58</v>
+      <c r="AL36" s="11">
+        <v>110</v>
       </c>
       <c r="AM36" s="11">
+        <v>217</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>227</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>224</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>299</v>
+      </c>
+      <c r="AQ36" s="11">
+        <v>317</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>132</v>
+      </c>
+      <c r="AS36" s="11">
+        <v>170</v>
+      </c>
+      <c r="AT36" s="11">
+        <v>103</v>
+      </c>
+      <c r="AU36" s="11">
         <v>110</v>
       </c>
-      <c r="AN36" s="11">
-        <v>217</v>
-      </c>
-      <c r="AO36" s="11">
-        <v>227</v>
-      </c>
-      <c r="AP36" s="11">
-        <v>224</v>
-      </c>
-      <c r="AQ36" s="11">
-        <v>299</v>
-      </c>
-      <c r="AR36" s="11">
-        <v>317</v>
-      </c>
-      <c r="AS36" s="11">
-        <v>132</v>
-      </c>
-      <c r="AT36" s="11">
-        <v>170</v>
-      </c>
-      <c r="AU36" s="11">
-        <v>103</v>
-      </c>
       <c r="AV36" s="11">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="AW36" s="11">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AX36" s="11">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="AY36" s="11">
+        <v>161</v>
+      </c>
+      <c r="AZ36" s="11">
+        <v>208</v>
+      </c>
+      <c r="BA36" s="11">
         <v>216</v>
       </c>
-      <c r="AZ36" s="11">
-        <v>161</v>
-      </c>
-      <c r="BA36" s="11">
-        <v>208</v>
-      </c>
       <c r="BB36" s="11">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>63</v>
       </c>
@@ -4877,35 +4912,35 @@
       <c r="X37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="13" t="s">
-        <v>58</v>
+      <c r="Y37" s="13">
+        <v>5</v>
       </c>
       <c r="Z37" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA37" s="13">
         <v>8</v>
       </c>
       <c r="AB37" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC37" s="13">
         <v>7</v>
       </c>
       <c r="AD37" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE37" s="13">
         <v>5</v>
       </c>
       <c r="AF37" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG37" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH37" s="13">
         <v>4</v>
-      </c>
-      <c r="AH37" s="13">
-        <v>7</v>
       </c>
       <c r="AI37" s="13">
         <v>4</v>
@@ -4914,61 +4949,61 @@
         <v>4</v>
       </c>
       <c r="AK37" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>3</v>
+      </c>
+      <c r="AN37" s="13">
+        <v>10</v>
+      </c>
+      <c r="AO37" s="13">
+        <v>2</v>
+      </c>
+      <c r="AP37" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ37" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR37" s="13">
         <v>4</v>
       </c>
-      <c r="AL37" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM37" s="13">
+      <c r="AS37" s="13">
         <v>5</v>
       </c>
-      <c r="AN37" s="13">
-        <v>3</v>
-      </c>
-      <c r="AO37" s="13">
-        <v>10</v>
-      </c>
-      <c r="AP37" s="13">
+      <c r="AT37" s="13">
         <v>2</v>
-      </c>
-      <c r="AQ37" s="13">
-        <v>14</v>
-      </c>
-      <c r="AR37" s="13">
-        <v>5</v>
-      </c>
-      <c r="AS37" s="13">
-        <v>4</v>
-      </c>
-      <c r="AT37" s="13">
-        <v>5</v>
       </c>
       <c r="AU37" s="13">
         <v>2</v>
       </c>
       <c r="AV37" s="13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AW37" s="13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AX37" s="13">
         <v>5</v>
       </c>
       <c r="AY37" s="13">
+        <v>7</v>
+      </c>
+      <c r="AZ37" s="13">
         <v>5</v>
       </c>
-      <c r="AZ37" s="13">
-        <v>7</v>
-      </c>
       <c r="BA37" s="13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB37" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>64</v>
       </c>
@@ -5075,59 +5110,59 @@
       <c r="AK38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL38" s="11" t="s">
-        <v>58</v>
+      <c r="AL38" s="11">
+        <v>425</v>
       </c>
       <c r="AM38" s="11">
-        <v>425</v>
+        <v>585</v>
       </c>
       <c r="AN38" s="11">
-        <v>585</v>
+        <v>626</v>
       </c>
       <c r="AO38" s="11">
-        <v>626</v>
+        <v>867</v>
       </c>
       <c r="AP38" s="11">
-        <v>867</v>
+        <v>526</v>
       </c>
       <c r="AQ38" s="11">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="AR38" s="11">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="AS38" s="11">
-        <v>501</v>
+        <v>405</v>
       </c>
       <c r="AT38" s="11">
-        <v>405</v>
+        <v>197</v>
       </c>
       <c r="AU38" s="11">
-        <v>197</v>
+        <v>490</v>
       </c>
       <c r="AV38" s="11">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="AW38" s="11">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AX38" s="11">
+        <v>524</v>
+      </c>
+      <c r="AY38" s="11">
         <v>547</v>
       </c>
-      <c r="AY38" s="11">
-        <v>524</v>
-      </c>
       <c r="AZ38" s="11">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="BA38" s="11">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="BB38" s="11">
-        <v>514</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>65</v>
       </c>
@@ -5234,59 +5269,59 @@
       <c r="AK39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL39" s="13" t="s">
-        <v>58</v>
+      <c r="AL39" s="13">
+        <v>0</v>
       </c>
       <c r="AM39" s="13">
         <v>0</v>
       </c>
       <c r="AN39" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO39" s="13">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AP39" s="13">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AQ39" s="13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR39" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AS39" s="13">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AT39" s="13">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AU39" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="13">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AW39" s="13">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AX39" s="13">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AY39" s="13">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="AZ39" s="13">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="BA39" s="13">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="BB39" s="13">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>66</v>
       </c>
@@ -5393,59 +5428,59 @@
       <c r="AK40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL40" s="11" t="s">
-        <v>58</v>
+      <c r="AL40" s="11">
+        <v>94</v>
       </c>
       <c r="AM40" s="11">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AN40" s="11">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="AO40" s="11">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="AP40" s="11">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="AQ40" s="11">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="11">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AS40" s="11">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="AT40" s="11">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="AU40" s="11">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="AV40" s="11">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="AW40" s="11">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AX40" s="11">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="AY40" s="11">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="AZ40" s="11">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="BA40" s="11">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="BB40" s="11">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
@@ -5512,97 +5547,97 @@
         <v>0</v>
       </c>
       <c r="Y41" s="15">
-        <v>0</v>
+        <v>3820</v>
       </c>
       <c r="Z41" s="15">
-        <v>3820</v>
+        <v>3301</v>
       </c>
       <c r="AA41" s="15">
-        <v>3301</v>
+        <v>3515</v>
       </c>
       <c r="AB41" s="15">
-        <v>3515</v>
+        <v>1821</v>
       </c>
       <c r="AC41" s="15">
-        <v>1821</v>
+        <v>2626</v>
       </c>
       <c r="AD41" s="15">
-        <v>2626</v>
+        <v>3840</v>
       </c>
       <c r="AE41" s="15">
-        <v>3840</v>
+        <v>3906</v>
       </c>
       <c r="AF41" s="15">
-        <v>3906</v>
+        <v>3694</v>
       </c>
       <c r="AG41" s="15">
-        <v>3694</v>
+        <v>3407</v>
       </c>
       <c r="AH41" s="15">
-        <v>3407</v>
+        <v>2440</v>
       </c>
       <c r="AI41" s="15">
-        <v>2440</v>
+        <v>3015</v>
       </c>
       <c r="AJ41" s="15">
-        <v>3015</v>
+        <v>3377</v>
       </c>
       <c r="AK41" s="15">
-        <v>3377</v>
+        <v>3484</v>
       </c>
       <c r="AL41" s="15">
-        <v>3484</v>
+        <v>3051</v>
       </c>
       <c r="AM41" s="15">
-        <v>3051</v>
+        <v>4009</v>
       </c>
       <c r="AN41" s="15">
-        <v>4009</v>
+        <v>3306</v>
       </c>
       <c r="AO41" s="15">
-        <v>3306</v>
+        <v>3852</v>
       </c>
       <c r="AP41" s="15">
-        <v>3852</v>
+        <v>4217</v>
       </c>
       <c r="AQ41" s="15">
-        <v>4217</v>
+        <v>4129</v>
       </c>
       <c r="AR41" s="15">
-        <v>4129</v>
+        <v>3850</v>
       </c>
       <c r="AS41" s="15">
-        <v>3850</v>
+        <v>3339</v>
       </c>
       <c r="AT41" s="15">
-        <v>3339</v>
+        <v>2016</v>
       </c>
       <c r="AU41" s="15">
-        <v>2016</v>
+        <v>2906</v>
       </c>
       <c r="AV41" s="15">
-        <v>2906</v>
+        <v>3887</v>
       </c>
       <c r="AW41" s="15">
-        <v>3887</v>
+        <v>3518</v>
       </c>
       <c r="AX41" s="15">
-        <v>3518</v>
+        <v>3751</v>
       </c>
       <c r="AY41" s="15">
-        <v>3751</v>
+        <v>3568</v>
       </c>
       <c r="AZ41" s="15">
-        <v>3568</v>
+        <v>3727</v>
       </c>
       <c r="BA41" s="15">
-        <v>3727</v>
+        <v>3829</v>
       </c>
       <c r="BB41" s="15">
-        <v>3829</v>
+        <v>3858</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>76</v>
       </c>
@@ -5659,7 +5694,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>77</v>
       </c>
@@ -5816,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>70</v>
       </c>
@@ -5873,7 +5908,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>71</v>
       </c>
@@ -5939,8 +5974,8 @@
       <c r="X45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="19" t="s">
-        <v>58</v>
+      <c r="Y45" s="19">
+        <v>0</v>
       </c>
       <c r="Z45" s="19">
         <v>0</v>
@@ -6030,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>78</v>
       </c>
@@ -6087,7 +6122,7 @@
       <c r="BA46" s="17"/>
       <c r="BB46" s="17"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>79</v>
       </c>
@@ -6153,8 +6188,8 @@
       <c r="X47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="19" t="s">
-        <v>58</v>
+      <c r="Y47" s="19">
+        <v>0</v>
       </c>
       <c r="Z47" s="19">
         <v>0</v>
@@ -6244,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>72</v>
       </c>
@@ -6311,97 +6346,97 @@
         <v>0</v>
       </c>
       <c r="Y48" s="15">
-        <v>0</v>
+        <v>3820</v>
       </c>
       <c r="Z48" s="15">
-        <v>3820</v>
+        <v>3301</v>
       </c>
       <c r="AA48" s="15">
-        <v>3301</v>
+        <v>3515</v>
       </c>
       <c r="AB48" s="15">
-        <v>3515</v>
+        <v>1821</v>
       </c>
       <c r="AC48" s="15">
-        <v>1821</v>
+        <v>2626</v>
       </c>
       <c r="AD48" s="15">
-        <v>2626</v>
+        <v>3840</v>
       </c>
       <c r="AE48" s="15">
-        <v>3840</v>
+        <v>3906</v>
       </c>
       <c r="AF48" s="15">
-        <v>3906</v>
+        <v>3694</v>
       </c>
       <c r="AG48" s="15">
-        <v>3694</v>
+        <v>3407</v>
       </c>
       <c r="AH48" s="15">
-        <v>3407</v>
+        <v>2440</v>
       </c>
       <c r="AI48" s="15">
-        <v>2440</v>
+        <v>3015</v>
       </c>
       <c r="AJ48" s="15">
-        <v>3015</v>
+        <v>3377</v>
       </c>
       <c r="AK48" s="15">
-        <v>3377</v>
+        <v>3484</v>
       </c>
       <c r="AL48" s="15">
-        <v>3484</v>
+        <v>3051</v>
       </c>
       <c r="AM48" s="15">
-        <v>3051</v>
+        <v>4009</v>
       </c>
       <c r="AN48" s="15">
-        <v>4009</v>
+        <v>3306</v>
       </c>
       <c r="AO48" s="15">
-        <v>3306</v>
+        <v>3852</v>
       </c>
       <c r="AP48" s="15">
-        <v>3852</v>
+        <v>4217</v>
       </c>
       <c r="AQ48" s="15">
-        <v>4217</v>
+        <v>4129</v>
       </c>
       <c r="AR48" s="15">
-        <v>4129</v>
+        <v>3850</v>
       </c>
       <c r="AS48" s="15">
-        <v>3850</v>
+        <v>3339</v>
       </c>
       <c r="AT48" s="15">
-        <v>3339</v>
+        <v>2016</v>
       </c>
       <c r="AU48" s="15">
-        <v>2016</v>
+        <v>2906</v>
       </c>
       <c r="AV48" s="15">
-        <v>2906</v>
+        <v>3887</v>
       </c>
       <c r="AW48" s="15">
-        <v>3887</v>
+        <v>3518</v>
       </c>
       <c r="AX48" s="15">
-        <v>3518</v>
+        <v>3751</v>
       </c>
       <c r="AY48" s="15">
-        <v>3751</v>
+        <v>3568</v>
       </c>
       <c r="AZ48" s="15">
-        <v>3568</v>
+        <v>3727</v>
       </c>
       <c r="BA48" s="15">
-        <v>3727</v>
+        <v>3829</v>
       </c>
       <c r="BB48" s="15">
-        <v>3829</v>
+        <v>3858</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6456,7 +6491,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6511,7 +6546,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6566,7 +6601,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>80</v>
       </c>
@@ -6723,7 +6758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6778,7 +6813,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>81</v>
       </c>
@@ -6835,7 +6870,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
@@ -6903,98 +6938,98 @@
       <c r="X55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>58</v>
+      <c r="Y55" s="11">
+        <v>138525</v>
       </c>
       <c r="Z55" s="11">
-        <v>138525</v>
+        <v>141900</v>
       </c>
       <c r="AA55" s="11">
-        <v>141900</v>
+        <v>167352</v>
       </c>
       <c r="AB55" s="11">
-        <v>167352</v>
+        <v>156051</v>
       </c>
       <c r="AC55" s="11">
-        <v>156051</v>
+        <v>191849</v>
       </c>
       <c r="AD55" s="11">
-        <v>191849</v>
+        <v>209407</v>
       </c>
       <c r="AE55" s="11">
-        <v>209407</v>
+        <v>200454</v>
       </c>
       <c r="AF55" s="11">
-        <v>200454</v>
+        <v>203139</v>
       </c>
       <c r="AG55" s="11">
-        <v>203139</v>
+        <v>182769</v>
       </c>
       <c r="AH55" s="11">
-        <v>182769</v>
+        <v>130349</v>
       </c>
       <c r="AI55" s="11">
-        <v>130349</v>
+        <v>235296</v>
       </c>
       <c r="AJ55" s="11">
-        <v>235296</v>
+        <v>231762</v>
       </c>
       <c r="AK55" s="11">
-        <v>231762</v>
+        <v>253192</v>
       </c>
       <c r="AL55" s="11">
-        <v>253192</v>
+        <v>220751</v>
       </c>
       <c r="AM55" s="11">
-        <v>220751</v>
+        <v>276478</v>
       </c>
       <c r="AN55" s="11">
-        <v>276478</v>
+        <v>259657</v>
       </c>
       <c r="AO55" s="11">
-        <v>259657</v>
+        <v>319943</v>
       </c>
       <c r="AP55" s="11">
-        <v>319943</v>
+        <v>310834</v>
       </c>
       <c r="AQ55" s="11">
-        <v>310834</v>
+        <v>313195</v>
       </c>
       <c r="AR55" s="11">
-        <v>313195</v>
+        <v>312495</v>
       </c>
       <c r="AS55" s="11">
-        <v>312495</v>
+        <v>298965</v>
       </c>
       <c r="AT55" s="11">
-        <v>298965</v>
+        <v>194747</v>
       </c>
       <c r="AU55" s="11">
-        <v>194747</v>
+        <v>404676</v>
       </c>
       <c r="AV55" s="11">
-        <v>404676</v>
+        <v>574186</v>
       </c>
       <c r="AW55" s="11">
-        <v>574186</v>
+        <v>608420</v>
       </c>
       <c r="AX55" s="11">
-        <v>608420</v>
+        <v>574154</v>
       </c>
       <c r="AY55" s="11">
-        <v>574154</v>
+        <v>560042</v>
       </c>
       <c r="AZ55" s="11">
-        <v>560042</v>
+        <v>554593</v>
       </c>
       <c r="BA55" s="11">
-        <v>554593</v>
+        <v>638636</v>
       </c>
       <c r="BB55" s="11">
-        <v>638636</v>
+        <v>634988</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
@@ -7062,48 +7097,48 @@
       <c r="X56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="13" t="s">
-        <v>58</v>
+      <c r="Y56" s="13">
+        <v>97081</v>
       </c>
       <c r="Z56" s="13">
-        <v>97081</v>
+        <v>90620</v>
       </c>
       <c r="AA56" s="13">
-        <v>90620</v>
+        <v>89993</v>
       </c>
       <c r="AB56" s="13">
-        <v>89993</v>
+        <v>61560</v>
       </c>
       <c r="AC56" s="13">
-        <v>61560</v>
+        <v>87513</v>
       </c>
       <c r="AD56" s="13">
-        <v>87513</v>
+        <v>117605</v>
       </c>
       <c r="AE56" s="13">
-        <v>117605</v>
+        <v>156675</v>
       </c>
       <c r="AF56" s="13">
-        <v>156675</v>
+        <v>169282</v>
       </c>
       <c r="AG56" s="13">
-        <v>169282</v>
+        <v>162897</v>
       </c>
       <c r="AH56" s="13">
-        <v>162897</v>
+        <v>78322</v>
       </c>
       <c r="AI56" s="13">
-        <v>78322</v>
+        <v>137216</v>
       </c>
       <c r="AJ56" s="13">
-        <v>137216</v>
+        <v>114344</v>
       </c>
       <c r="AK56" s="13">
-        <v>114344</v>
-      </c>
-      <c r="AL56" s="13">
         <v>151115</v>
       </c>
+      <c r="AL56" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM56" s="13" t="s">
         <v>58</v>
       </c>
@@ -7153,7 +7188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
@@ -7221,8 +7256,8 @@
       <c r="X57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
+      <c r="Y57" s="11">
+        <v>0</v>
       </c>
       <c r="Z57" s="11">
         <v>0</v>
@@ -7237,82 +7272,82 @@
         <v>0</v>
       </c>
       <c r="AD57" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AE57" s="11">
-        <v>139</v>
+        <v>20274</v>
       </c>
       <c r="AF57" s="11">
-        <v>20274</v>
+        <v>18100</v>
       </c>
       <c r="AG57" s="11">
-        <v>18100</v>
+        <v>20666</v>
       </c>
       <c r="AH57" s="11">
-        <v>20666</v>
+        <v>15128</v>
       </c>
       <c r="AI57" s="11">
-        <v>15128</v>
+        <v>22281</v>
       </c>
       <c r="AJ57" s="11">
-        <v>22281</v>
+        <v>18496</v>
       </c>
       <c r="AK57" s="11">
-        <v>18496</v>
+        <v>4051</v>
       </c>
       <c r="AL57" s="11">
-        <v>4051</v>
+        <v>17165</v>
       </c>
       <c r="AM57" s="11">
-        <v>17165</v>
+        <v>26814</v>
       </c>
       <c r="AN57" s="11">
-        <v>26814</v>
+        <v>20510</v>
       </c>
       <c r="AO57" s="11">
-        <v>20510</v>
+        <v>16968</v>
       </c>
       <c r="AP57" s="11">
-        <v>16968</v>
+        <v>11843</v>
       </c>
       <c r="AQ57" s="11">
-        <v>11843</v>
+        <v>10903</v>
       </c>
       <c r="AR57" s="11">
-        <v>10903</v>
+        <v>20924</v>
       </c>
       <c r="AS57" s="11">
-        <v>20924</v>
+        <v>23872</v>
       </c>
       <c r="AT57" s="11">
-        <v>23872</v>
+        <v>14769</v>
       </c>
       <c r="AU57" s="11">
-        <v>14769</v>
+        <v>54069</v>
       </c>
       <c r="AV57" s="11">
-        <v>54069</v>
+        <v>87791</v>
       </c>
       <c r="AW57" s="11">
-        <v>87791</v>
+        <v>47966</v>
       </c>
       <c r="AX57" s="11">
-        <v>47966</v>
+        <v>32088</v>
       </c>
       <c r="AY57" s="11">
-        <v>32088</v>
+        <v>37089</v>
       </c>
       <c r="AZ57" s="11">
-        <v>37089</v>
+        <v>52713</v>
       </c>
       <c r="BA57" s="11">
-        <v>52713</v>
+        <v>69643</v>
       </c>
       <c r="BB57" s="11">
-        <v>69643</v>
+        <v>56822</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -7380,98 +7415,98 @@
       <c r="X58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="13" t="s">
-        <v>58</v>
+      <c r="Y58" s="13">
+        <v>38090</v>
       </c>
       <c r="Z58" s="13">
-        <v>38090</v>
+        <v>31395</v>
       </c>
       <c r="AA58" s="13">
-        <v>31395</v>
+        <v>33942</v>
       </c>
       <c r="AB58" s="13">
-        <v>33942</v>
+        <v>11450</v>
       </c>
       <c r="AC58" s="13">
-        <v>11450</v>
+        <v>19661</v>
       </c>
       <c r="AD58" s="13">
-        <v>19661</v>
+        <v>36458</v>
       </c>
       <c r="AE58" s="13">
-        <v>36458</v>
+        <v>32356</v>
       </c>
       <c r="AF58" s="13">
-        <v>32356</v>
+        <v>28306</v>
       </c>
       <c r="AG58" s="13">
-        <v>28306</v>
+        <v>26955</v>
       </c>
       <c r="AH58" s="13">
-        <v>26955</v>
+        <v>35358</v>
       </c>
       <c r="AI58" s="13">
-        <v>35358</v>
+        <v>33961</v>
       </c>
       <c r="AJ58" s="13">
-        <v>33961</v>
+        <v>48676</v>
       </c>
       <c r="AK58" s="13">
-        <v>48676</v>
+        <v>46343</v>
       </c>
       <c r="AL58" s="13">
-        <v>46343</v>
+        <v>41675</v>
       </c>
       <c r="AM58" s="13">
-        <v>41675</v>
+        <v>53974</v>
       </c>
       <c r="AN58" s="13">
-        <v>53974</v>
+        <v>37956</v>
       </c>
       <c r="AO58" s="13">
-        <v>37956</v>
+        <v>40639</v>
       </c>
       <c r="AP58" s="13">
-        <v>40639</v>
+        <v>60893</v>
       </c>
       <c r="AQ58" s="13">
-        <v>60893</v>
+        <v>59682</v>
       </c>
       <c r="AR58" s="13">
-        <v>59682</v>
+        <v>53504</v>
       </c>
       <c r="AS58" s="13">
-        <v>53504</v>
+        <v>43980</v>
       </c>
       <c r="AT58" s="13">
-        <v>43980</v>
+        <v>40528</v>
       </c>
       <c r="AU58" s="13">
-        <v>40528</v>
+        <v>47349</v>
       </c>
       <c r="AV58" s="13">
-        <v>47349</v>
+        <v>71695</v>
       </c>
       <c r="AW58" s="13">
-        <v>71695</v>
+        <v>58421</v>
       </c>
       <c r="AX58" s="13">
-        <v>58421</v>
+        <v>69390</v>
       </c>
       <c r="AY58" s="13">
-        <v>69390</v>
+        <v>63319</v>
       </c>
       <c r="AZ58" s="13">
-        <v>63319</v>
+        <v>69415</v>
       </c>
       <c r="BA58" s="13">
-        <v>69415</v>
+        <v>64830</v>
       </c>
       <c r="BB58" s="13">
-        <v>64830</v>
+        <v>68275</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>62</v>
       </c>
@@ -7578,59 +7613,59 @@
       <c r="AK59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL59" s="11" t="s">
-        <v>58</v>
+      <c r="AL59" s="11">
+        <v>17883</v>
       </c>
       <c r="AM59" s="11">
-        <v>17883</v>
+        <v>38099</v>
       </c>
       <c r="AN59" s="11">
-        <v>38099</v>
+        <v>41815</v>
       </c>
       <c r="AO59" s="11">
-        <v>41815</v>
+        <v>42108</v>
       </c>
       <c r="AP59" s="11">
-        <v>42108</v>
+        <v>54331</v>
       </c>
       <c r="AQ59" s="11">
-        <v>54331</v>
+        <v>56938</v>
       </c>
       <c r="AR59" s="11">
-        <v>56938</v>
+        <v>25921</v>
       </c>
       <c r="AS59" s="11">
-        <v>25921</v>
+        <v>31686</v>
       </c>
       <c r="AT59" s="11">
-        <v>31686</v>
+        <v>18819</v>
       </c>
       <c r="AU59" s="11">
-        <v>18819</v>
+        <v>38590</v>
       </c>
       <c r="AV59" s="11">
-        <v>38590</v>
+        <v>62732</v>
       </c>
       <c r="AW59" s="11">
-        <v>62732</v>
+        <v>61727</v>
       </c>
       <c r="AX59" s="11">
-        <v>61727</v>
+        <v>78589</v>
       </c>
       <c r="AY59" s="11">
-        <v>78589</v>
+        <v>62814</v>
       </c>
       <c r="AZ59" s="11">
-        <v>62814</v>
+        <v>83834</v>
       </c>
       <c r="BA59" s="11">
-        <v>83834</v>
+        <v>101177</v>
       </c>
       <c r="BB59" s="11">
-        <v>101177</v>
+        <v>67642</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>63</v>
       </c>
@@ -7698,98 +7733,98 @@
       <c r="X60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>58</v>
+      <c r="Y60" s="13">
+        <v>1117</v>
       </c>
       <c r="Z60" s="13">
-        <v>1117</v>
+        <v>1635</v>
       </c>
       <c r="AA60" s="13">
-        <v>1635</v>
+        <v>1975</v>
       </c>
       <c r="AB60" s="13">
-        <v>1975</v>
+        <v>2050</v>
       </c>
       <c r="AC60" s="13">
-        <v>2050</v>
+        <v>2293</v>
       </c>
       <c r="AD60" s="13">
-        <v>2293</v>
+        <v>2206</v>
       </c>
       <c r="AE60" s="13">
-        <v>2206</v>
+        <v>1972</v>
       </c>
       <c r="AF60" s="13">
-        <v>1972</v>
+        <v>1597</v>
       </c>
       <c r="AG60" s="13">
-        <v>1597</v>
+        <v>2083</v>
       </c>
       <c r="AH60" s="13">
-        <v>2083</v>
+        <v>1733</v>
       </c>
       <c r="AI60" s="13">
-        <v>1733</v>
+        <v>1483</v>
       </c>
       <c r="AJ60" s="13">
-        <v>1483</v>
+        <v>1923</v>
       </c>
       <c r="AK60" s="13">
-        <v>1923</v>
+        <v>3448</v>
       </c>
       <c r="AL60" s="13">
-        <v>3448</v>
+        <v>2309</v>
       </c>
       <c r="AM60" s="13">
-        <v>2309</v>
+        <v>1393</v>
       </c>
       <c r="AN60" s="13">
-        <v>1393</v>
+        <v>4780</v>
       </c>
       <c r="AO60" s="13">
-        <v>4780</v>
+        <v>896</v>
       </c>
       <c r="AP60" s="13">
-        <v>896</v>
+        <v>6242</v>
       </c>
       <c r="AQ60" s="13">
-        <v>6242</v>
+        <v>2402</v>
       </c>
       <c r="AR60" s="13">
-        <v>2402</v>
+        <v>2103</v>
       </c>
       <c r="AS60" s="13">
-        <v>2103</v>
+        <v>3108</v>
       </c>
       <c r="AT60" s="13">
-        <v>3108</v>
+        <v>925</v>
       </c>
       <c r="AU60" s="13">
-        <v>925</v>
+        <v>1365</v>
       </c>
       <c r="AV60" s="13">
-        <v>1365</v>
+        <v>9521</v>
       </c>
       <c r="AW60" s="13">
-        <v>9521</v>
+        <v>4365</v>
       </c>
       <c r="AX60" s="13">
-        <v>4365</v>
+        <v>3417</v>
       </c>
       <c r="AY60" s="13">
-        <v>3417</v>
+        <v>6162</v>
       </c>
       <c r="AZ60" s="13">
-        <v>6162</v>
+        <v>4307</v>
       </c>
       <c r="BA60" s="13">
-        <v>4307</v>
+        <v>7673</v>
       </c>
       <c r="BB60" s="13">
-        <v>7673</v>
+        <v>5186</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>64</v>
       </c>
@@ -7896,59 +7931,59 @@
       <c r="AK61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL61" s="11" t="s">
-        <v>58</v>
+      <c r="AL61" s="11">
+        <v>68294</v>
       </c>
       <c r="AM61" s="11">
-        <v>68294</v>
+        <v>107180</v>
       </c>
       <c r="AN61" s="11">
-        <v>107180</v>
+        <v>123666</v>
       </c>
       <c r="AO61" s="11">
-        <v>123666</v>
+        <v>176526</v>
       </c>
       <c r="AP61" s="11">
-        <v>176526</v>
+        <v>107499</v>
       </c>
       <c r="AQ61" s="11">
-        <v>107499</v>
+        <v>108387</v>
       </c>
       <c r="AR61" s="11">
-        <v>108387</v>
+        <v>101484</v>
       </c>
       <c r="AS61" s="11">
-        <v>101484</v>
+        <v>82411</v>
       </c>
       <c r="AT61" s="11">
-        <v>82411</v>
+        <v>41540</v>
       </c>
       <c r="AU61" s="11">
-        <v>41540</v>
+        <v>178731</v>
       </c>
       <c r="AV61" s="11">
-        <v>178731</v>
+        <v>249924</v>
       </c>
       <c r="AW61" s="11">
-        <v>249924</v>
+        <v>258443</v>
       </c>
       <c r="AX61" s="11">
-        <v>258443</v>
+        <v>241641</v>
       </c>
       <c r="AY61" s="11">
-        <v>241641</v>
+        <v>249318</v>
       </c>
       <c r="AZ61" s="11">
-        <v>249318</v>
+        <v>237838</v>
       </c>
       <c r="BA61" s="11">
-        <v>237838</v>
+        <v>282067</v>
       </c>
       <c r="BB61" s="11">
-        <v>282067</v>
+        <v>349906</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>65</v>
       </c>
@@ -8055,59 +8090,59 @@
       <c r="AK62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL62" s="13" t="s">
-        <v>58</v>
+      <c r="AL62" s="13">
+        <v>0</v>
       </c>
       <c r="AM62" s="13">
         <v>0</v>
       </c>
       <c r="AN62" s="13">
-        <v>0</v>
+        <v>5443</v>
       </c>
       <c r="AO62" s="13">
-        <v>5443</v>
+        <v>2</v>
       </c>
       <c r="AP62" s="13">
-        <v>2</v>
+        <v>4558</v>
       </c>
       <c r="AQ62" s="13">
-        <v>4558</v>
+        <v>3898</v>
       </c>
       <c r="AR62" s="13">
-        <v>3898</v>
+        <v>2074</v>
       </c>
       <c r="AS62" s="13">
-        <v>2074</v>
+        <v>5237</v>
       </c>
       <c r="AT62" s="13">
-        <v>5237</v>
+        <v>852</v>
       </c>
       <c r="AU62" s="13">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="13">
-        <v>0</v>
+        <v>37771</v>
       </c>
       <c r="AW62" s="13">
-        <v>37771</v>
+        <v>15440</v>
       </c>
       <c r="AX62" s="13">
-        <v>15440</v>
+        <v>20116</v>
       </c>
       <c r="AY62" s="13">
-        <v>20116</v>
+        <v>6325</v>
       </c>
       <c r="AZ62" s="13">
-        <v>6325</v>
+        <v>21737</v>
       </c>
       <c r="BA62" s="13">
-        <v>21737</v>
+        <v>19791</v>
       </c>
       <c r="BB62" s="13">
-        <v>19791</v>
+        <v>25144</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>66</v>
       </c>
@@ -8214,59 +8249,59 @@
       <c r="AK63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL63" s="11" t="s">
-        <v>58</v>
+      <c r="AL63" s="11">
+        <v>30428</v>
       </c>
       <c r="AM63" s="11">
-        <v>30428</v>
+        <v>46166</v>
       </c>
       <c r="AN63" s="11">
-        <v>46166</v>
+        <v>34878</v>
       </c>
       <c r="AO63" s="11">
-        <v>34878</v>
+        <v>60236</v>
       </c>
       <c r="AP63" s="11">
-        <v>60236</v>
+        <v>28516</v>
       </c>
       <c r="AQ63" s="11">
-        <v>28516</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="11">
-        <v>0</v>
+        <v>61938</v>
       </c>
       <c r="AS63" s="11">
-        <v>61938</v>
+        <v>49168</v>
       </c>
       <c r="AT63" s="11">
-        <v>49168</v>
+        <v>27433</v>
       </c>
       <c r="AU63" s="11">
-        <v>27433</v>
+        <v>88454</v>
       </c>
       <c r="AV63" s="11">
-        <v>88454</v>
+        <v>74263</v>
       </c>
       <c r="AW63" s="11">
-        <v>74263</v>
+        <v>68176</v>
       </c>
       <c r="AX63" s="11">
-        <v>68176</v>
+        <v>98954</v>
       </c>
       <c r="AY63" s="11">
-        <v>98954</v>
+        <v>128413</v>
       </c>
       <c r="AZ63" s="11">
-        <v>128413</v>
+        <v>90327</v>
       </c>
       <c r="BA63" s="11">
-        <v>90327</v>
+        <v>164530</v>
       </c>
       <c r="BB63" s="11">
-        <v>164530</v>
+        <v>100921</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>75</v>
       </c>
@@ -8333,97 +8368,97 @@
         <v>0</v>
       </c>
       <c r="Y64" s="15">
-        <v>0</v>
+        <v>274813</v>
       </c>
       <c r="Z64" s="15">
-        <v>274813</v>
+        <v>265550</v>
       </c>
       <c r="AA64" s="15">
-        <v>265550</v>
+        <v>293262</v>
       </c>
       <c r="AB64" s="15">
-        <v>293262</v>
+        <v>231111</v>
       </c>
       <c r="AC64" s="15">
-        <v>231111</v>
+        <v>301316</v>
       </c>
       <c r="AD64" s="15">
-        <v>301316</v>
+        <v>365815</v>
       </c>
       <c r="AE64" s="15">
-        <v>365815</v>
+        <v>411731</v>
       </c>
       <c r="AF64" s="15">
-        <v>411731</v>
+        <v>420424</v>
       </c>
       <c r="AG64" s="15">
-        <v>420424</v>
+        <v>395370</v>
       </c>
       <c r="AH64" s="15">
-        <v>395370</v>
+        <v>260890</v>
       </c>
       <c r="AI64" s="15">
-        <v>260890</v>
+        <v>430237</v>
       </c>
       <c r="AJ64" s="15">
-        <v>430237</v>
+        <v>415201</v>
       </c>
       <c r="AK64" s="15">
-        <v>415201</v>
+        <v>458149</v>
       </c>
       <c r="AL64" s="15">
-        <v>458149</v>
+        <v>398505</v>
       </c>
       <c r="AM64" s="15">
-        <v>398505</v>
+        <v>550104</v>
       </c>
       <c r="AN64" s="15">
-        <v>550104</v>
+        <v>528705</v>
       </c>
       <c r="AO64" s="15">
-        <v>528705</v>
+        <v>657318</v>
       </c>
       <c r="AP64" s="15">
-        <v>657318</v>
+        <v>584716</v>
       </c>
       <c r="AQ64" s="15">
-        <v>584716</v>
+        <v>555405</v>
       </c>
       <c r="AR64" s="15">
-        <v>555405</v>
+        <v>580443</v>
       </c>
       <c r="AS64" s="15">
-        <v>580443</v>
+        <v>538427</v>
       </c>
       <c r="AT64" s="15">
-        <v>538427</v>
+        <v>339613</v>
       </c>
       <c r="AU64" s="15">
-        <v>339613</v>
+        <v>813234</v>
       </c>
       <c r="AV64" s="15">
-        <v>813234</v>
+        <v>1167883</v>
       </c>
       <c r="AW64" s="15">
-        <v>1167883</v>
+        <v>1122958</v>
       </c>
       <c r="AX64" s="15">
-        <v>1122958</v>
+        <v>1118349</v>
       </c>
       <c r="AY64" s="15">
-        <v>1118349</v>
+        <v>1113482</v>
       </c>
       <c r="AZ64" s="15">
-        <v>1113482</v>
+        <v>1114764</v>
       </c>
       <c r="BA64" s="15">
-        <v>1114764</v>
+        <v>1348347</v>
       </c>
       <c r="BB64" s="15">
-        <v>1348347</v>
+        <v>1308884</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="16" t="s">
         <v>83</v>
       </c>
@@ -8480,7 +8515,7 @@
       <c r="BA65" s="17"/>
       <c r="BB65" s="17"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="18" t="s">
         <v>77</v>
       </c>
@@ -8637,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="16" t="s">
         <v>84</v>
       </c>
@@ -8694,7 +8729,7 @@
       <c r="BA67" s="17"/>
       <c r="BB67" s="17"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="18" t="s">
         <v>71</v>
       </c>
@@ -8762,8 +8797,8 @@
       <c r="X68" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="19" t="s">
-        <v>58</v>
+      <c r="Y68" s="19">
+        <v>0</v>
       </c>
       <c r="Z68" s="19">
         <v>0</v>
@@ -8853,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="16" t="s">
         <v>85</v>
       </c>
@@ -8910,7 +8945,7 @@
       <c r="BA69" s="17"/>
       <c r="BB69" s="17"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="18" t="s">
         <v>79</v>
       </c>
@@ -8978,8 +9013,8 @@
       <c r="X70" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="19" t="s">
-        <v>58</v>
+      <c r="Y70" s="19">
+        <v>0</v>
       </c>
       <c r="Z70" s="19">
         <v>0</v>
@@ -9069,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>86</v>
       </c>
@@ -9126,7 +9161,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>87</v>
       </c>
@@ -9194,8 +9229,8 @@
       <c r="X72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y72" s="11" t="s">
-        <v>58</v>
+      <c r="Y72" s="11">
+        <v>0</v>
       </c>
       <c r="Z72" s="11">
         <v>0</v>
@@ -9285,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>72</v>
       </c>
@@ -9352,97 +9387,97 @@
         <v>0</v>
       </c>
       <c r="Y73" s="15">
-        <v>0</v>
+        <v>274813</v>
       </c>
       <c r="Z73" s="15">
-        <v>274813</v>
+        <v>265550</v>
       </c>
       <c r="AA73" s="15">
-        <v>265550</v>
+        <v>293262</v>
       </c>
       <c r="AB73" s="15">
-        <v>293262</v>
+        <v>231111</v>
       </c>
       <c r="AC73" s="15">
-        <v>231111</v>
+        <v>301316</v>
       </c>
       <c r="AD73" s="15">
-        <v>301316</v>
+        <v>365815</v>
       </c>
       <c r="AE73" s="15">
-        <v>365815</v>
+        <v>411731</v>
       </c>
       <c r="AF73" s="15">
-        <v>411731</v>
+        <v>420424</v>
       </c>
       <c r="AG73" s="15">
-        <v>420424</v>
+        <v>395370</v>
       </c>
       <c r="AH73" s="15">
-        <v>395370</v>
+        <v>260890</v>
       </c>
       <c r="AI73" s="15">
-        <v>260890</v>
+        <v>430237</v>
       </c>
       <c r="AJ73" s="15">
-        <v>430237</v>
+        <v>415201</v>
       </c>
       <c r="AK73" s="15">
-        <v>415201</v>
+        <v>458149</v>
       </c>
       <c r="AL73" s="15">
-        <v>458149</v>
+        <v>398505</v>
       </c>
       <c r="AM73" s="15">
-        <v>398505</v>
+        <v>550104</v>
       </c>
       <c r="AN73" s="15">
-        <v>550104</v>
+        <v>528705</v>
       </c>
       <c r="AO73" s="15">
-        <v>528705</v>
+        <v>657318</v>
       </c>
       <c r="AP73" s="15">
-        <v>657318</v>
+        <v>584716</v>
       </c>
       <c r="AQ73" s="15">
-        <v>584716</v>
+        <v>555405</v>
       </c>
       <c r="AR73" s="15">
-        <v>555405</v>
+        <v>580443</v>
       </c>
       <c r="AS73" s="15">
-        <v>580443</v>
+        <v>538427</v>
       </c>
       <c r="AT73" s="15">
-        <v>538427</v>
+        <v>339613</v>
       </c>
       <c r="AU73" s="15">
-        <v>339613</v>
+        <v>813234</v>
       </c>
       <c r="AV73" s="15">
-        <v>813234</v>
+        <v>1167883</v>
       </c>
       <c r="AW73" s="15">
-        <v>1167883</v>
+        <v>1122958</v>
       </c>
       <c r="AX73" s="15">
-        <v>1122958</v>
+        <v>1118349</v>
       </c>
       <c r="AY73" s="15">
-        <v>1118349</v>
+        <v>1113482</v>
       </c>
       <c r="AZ73" s="15">
-        <v>1113482</v>
+        <v>1114764</v>
       </c>
       <c r="BA73" s="15">
-        <v>1114764</v>
+        <v>1348347</v>
       </c>
       <c r="BB73" s="15">
-        <v>1348347</v>
+        <v>1308884</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9497,7 +9532,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9552,7 +9587,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9607,7 +9642,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>88</v>
       </c>
@@ -9764,7 +9799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9819,7 +9854,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>89</v>
       </c>
@@ -9876,7 +9911,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>56</v>
       </c>
@@ -9944,98 +9979,98 @@
       <c r="X80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="11" t="s">
-        <v>58</v>
+      <c r="Y80" s="11">
+        <v>149918831</v>
       </c>
       <c r="Z80" s="11">
-        <v>149918831</v>
+        <v>162729358</v>
       </c>
       <c r="AA80" s="11">
-        <v>162729358</v>
+        <v>175974763</v>
       </c>
       <c r="AB80" s="11">
-        <v>175974763</v>
+        <v>193852174</v>
       </c>
       <c r="AC80" s="11">
-        <v>193852174</v>
+        <v>203229873</v>
       </c>
       <c r="AD80" s="11">
-        <v>203229873</v>
+        <v>211308779</v>
       </c>
       <c r="AE80" s="11">
-        <v>211308779</v>
+        <v>204544898</v>
       </c>
       <c r="AF80" s="11">
-        <v>204544898</v>
+        <v>207073395</v>
       </c>
       <c r="AG80" s="11">
-        <v>207073395</v>
+        <v>215275618</v>
       </c>
       <c r="AH80" s="11">
-        <v>215275618</v>
+        <v>215452893</v>
       </c>
       <c r="AI80" s="11">
-        <v>215452893</v>
+        <v>252734694</v>
       </c>
       <c r="AJ80" s="11">
-        <v>252734694</v>
+        <v>258374582</v>
       </c>
       <c r="AK80" s="11">
-        <v>258374582</v>
+        <v>258359184</v>
       </c>
       <c r="AL80" s="11">
-        <v>258359184</v>
+        <v>258490632</v>
       </c>
       <c r="AM80" s="11">
-        <v>258490632</v>
+        <v>263061846</v>
       </c>
       <c r="AN80" s="11">
-        <v>263061846</v>
+        <v>290769317</v>
       </c>
       <c r="AO80" s="11">
-        <v>290769317</v>
+        <v>290593097</v>
       </c>
       <c r="AP80" s="11">
-        <v>290593097</v>
+        <v>290770814</v>
       </c>
       <c r="AQ80" s="11">
-        <v>290770814</v>
+        <v>290533395</v>
       </c>
       <c r="AR80" s="11">
-        <v>290533395</v>
+        <v>295923295</v>
       </c>
       <c r="AS80" s="11">
-        <v>295923295</v>
+        <v>312724895</v>
       </c>
       <c r="AT80" s="11">
-        <v>312724895</v>
+        <v>321364686</v>
       </c>
       <c r="AU80" s="11">
-        <v>321364686</v>
+        <v>456229989</v>
       </c>
       <c r="AV80" s="11">
-        <v>456229989</v>
+        <v>519155515</v>
       </c>
       <c r="AW80" s="11">
-        <v>519155515</v>
+        <v>513434599</v>
       </c>
       <c r="AX80" s="11">
-        <v>513434599</v>
+        <v>541654717</v>
       </c>
       <c r="AY80" s="11">
-        <v>541654717</v>
+        <v>541626692</v>
       </c>
       <c r="AZ80" s="11">
-        <v>541626692</v>
+        <v>542124145</v>
       </c>
       <c r="BA80" s="11">
-        <v>542124145</v>
+        <v>576386282</v>
       </c>
       <c r="BB80" s="11">
-        <v>576386282</v>
+        <v>576214156</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>59</v>
       </c>
@@ -10103,48 +10138,48 @@
       <c r="X81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="13" t="s">
-        <v>58</v>
+      <c r="Y81" s="13">
+        <v>125265806</v>
       </c>
       <c r="Z81" s="13">
-        <v>125265806</v>
+        <v>133855244</v>
       </c>
       <c r="AA81" s="13">
-        <v>133855244</v>
+        <v>134317910</v>
       </c>
       <c r="AB81" s="13">
-        <v>134317910</v>
+        <v>165040214</v>
       </c>
       <c r="AC81" s="13">
-        <v>165040214</v>
+        <v>150108062</v>
       </c>
       <c r="AD81" s="13">
-        <v>150108062</v>
+        <v>143947368</v>
       </c>
       <c r="AE81" s="13">
-        <v>143947368</v>
+        <v>154664363</v>
       </c>
       <c r="AF81" s="13">
-        <v>154664363</v>
+        <v>163084778</v>
       </c>
       <c r="AG81" s="13">
-        <v>163084778</v>
+        <v>172743372</v>
       </c>
       <c r="AH81" s="13">
-        <v>172743372</v>
+        <v>159191057</v>
       </c>
       <c r="AI81" s="13">
-        <v>159191057</v>
+        <v>178202597</v>
       </c>
       <c r="AJ81" s="13">
-        <v>178202597</v>
+        <v>173775076</v>
       </c>
       <c r="AK81" s="13">
-        <v>173775076</v>
-      </c>
-      <c r="AL81" s="13">
         <v>183614824</v>
       </c>
+      <c r="AL81" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM81" s="13" t="s">
         <v>58</v>
       </c>
@@ -10194,7 +10229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>60</v>
       </c>
@@ -10277,83 +10312,83 @@
       <c r="AC82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD82" s="11" t="s">
-        <v>58</v>
+      <c r="AD82" s="11">
+        <v>139000000</v>
       </c>
       <c r="AE82" s="11">
-        <v>139000000</v>
+        <v>184309091</v>
       </c>
       <c r="AF82" s="11">
-        <v>184309091</v>
+        <v>184693878</v>
       </c>
       <c r="AG82" s="11">
-        <v>184693878</v>
+        <v>184517857</v>
       </c>
       <c r="AH82" s="11">
-        <v>184517857</v>
+        <v>199052632</v>
       </c>
       <c r="AI82" s="11">
-        <v>199052632</v>
+        <v>229701031</v>
       </c>
       <c r="AJ82" s="11">
-        <v>229701031</v>
+        <v>231200000</v>
       </c>
       <c r="AK82" s="11">
-        <v>231200000</v>
+        <v>225055556</v>
       </c>
       <c r="AL82" s="11">
-        <v>225055556</v>
+        <v>231959459</v>
       </c>
       <c r="AM82" s="11">
-        <v>231959459</v>
+        <v>243763636</v>
       </c>
       <c r="AN82" s="11">
-        <v>243763636</v>
+        <v>266363636</v>
       </c>
       <c r="AO82" s="11">
-        <v>266363636</v>
+        <v>273677419</v>
       </c>
       <c r="AP82" s="11">
-        <v>273677419</v>
+        <v>275418605</v>
       </c>
       <c r="AQ82" s="11">
-        <v>275418605</v>
+        <v>279564103</v>
       </c>
       <c r="AR82" s="11">
-        <v>279564103</v>
+        <v>275315789</v>
       </c>
       <c r="AS82" s="11">
-        <v>275315789</v>
+        <v>277581395</v>
       </c>
       <c r="AT82" s="11">
-        <v>277581395</v>
+        <v>278660377</v>
       </c>
       <c r="AU82" s="11">
-        <v>278660377</v>
+        <v>505317757</v>
       </c>
       <c r="AV82" s="11">
-        <v>505317757</v>
+        <v>645522059</v>
       </c>
       <c r="AW82" s="11">
-        <v>645522059</v>
+        <v>614948718</v>
       </c>
       <c r="AX82" s="11">
-        <v>614948718</v>
+        <v>605433962</v>
       </c>
       <c r="AY82" s="11">
-        <v>605433962</v>
+        <v>608016393</v>
       </c>
       <c r="AZ82" s="11">
-        <v>608016393</v>
+        <v>599011364</v>
       </c>
       <c r="BA82" s="11">
-        <v>599011364</v>
+        <v>605591304</v>
       </c>
       <c r="BB82" s="11">
-        <v>605591304</v>
+        <v>579816327</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>61</v>
       </c>
@@ -10421,98 +10456,98 @@
       <c r="X83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="13" t="s">
-        <v>58</v>
+      <c r="Y83" s="13">
+        <v>18000945</v>
       </c>
       <c r="Z83" s="13">
-        <v>18000945</v>
+        <v>18001720</v>
       </c>
       <c r="AA83" s="13">
-        <v>18001720</v>
+        <v>17996819</v>
       </c>
       <c r="AB83" s="13">
-        <v>17996819</v>
+        <v>18003145</v>
       </c>
       <c r="AC83" s="13">
-        <v>18003145</v>
+        <v>18004579</v>
       </c>
       <c r="AD83" s="13">
-        <v>18004579</v>
+        <v>17995064</v>
       </c>
       <c r="AE83" s="13">
-        <v>17995064</v>
+        <v>17995551</v>
       </c>
       <c r="AF83" s="13">
-        <v>17995551</v>
+        <v>17994914</v>
       </c>
       <c r="AG83" s="13">
-        <v>17994914</v>
+        <v>18018048</v>
       </c>
       <c r="AH83" s="13">
-        <v>18018048</v>
+        <v>27995249</v>
       </c>
       <c r="AI83" s="13">
-        <v>27995249</v>
+        <v>27997527</v>
       </c>
       <c r="AJ83" s="13">
-        <v>27997527</v>
+        <v>28006904</v>
       </c>
       <c r="AK83" s="13">
-        <v>28006904</v>
+        <v>28001813</v>
       </c>
       <c r="AL83" s="13">
-        <v>28001813</v>
+        <v>27988583</v>
       </c>
       <c r="AM83" s="13">
-        <v>27988583</v>
+        <v>28009341</v>
       </c>
       <c r="AN83" s="13">
-        <v>28009341</v>
+        <v>27991150</v>
       </c>
       <c r="AO83" s="13">
-        <v>27991150</v>
+        <v>28007581</v>
       </c>
       <c r="AP83" s="13">
-        <v>28007581</v>
+        <v>27996782</v>
       </c>
       <c r="AQ83" s="13">
-        <v>27996782</v>
+        <v>28006570</v>
       </c>
       <c r="AR83" s="13">
-        <v>28006570</v>
+        <v>27997907</v>
       </c>
       <c r="AS83" s="13">
-        <v>27997907</v>
+        <v>27994908</v>
       </c>
       <c r="AT83" s="13">
-        <v>27994908</v>
+        <v>41020243</v>
       </c>
       <c r="AU83" s="13">
-        <v>41020243</v>
+        <v>40994805</v>
       </c>
       <c r="AV83" s="13">
-        <v>40994805</v>
+        <v>40991995</v>
       </c>
       <c r="AW83" s="13">
-        <v>40991995</v>
+        <v>40997193</v>
       </c>
       <c r="AX83" s="13">
-        <v>40997193</v>
+        <v>41010638</v>
       </c>
       <c r="AY83" s="13">
-        <v>41010638</v>
+        <v>41009715</v>
       </c>
       <c r="AZ83" s="13">
-        <v>41009715</v>
+        <v>40976978</v>
       </c>
       <c r="BA83" s="13">
-        <v>40976978</v>
+        <v>41005693</v>
       </c>
       <c r="BB83" s="13">
-        <v>41005693</v>
+        <v>41030649</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>62</v>
       </c>
@@ -10619,59 +10654,59 @@
       <c r="AK84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL84" s="11" t="s">
-        <v>58</v>
+      <c r="AL84" s="11">
+        <v>162572727</v>
       </c>
       <c r="AM84" s="11">
-        <v>162572727</v>
+        <v>175571429</v>
       </c>
       <c r="AN84" s="11">
-        <v>175571429</v>
+        <v>184207048</v>
       </c>
       <c r="AO84" s="11">
-        <v>184207048</v>
+        <v>187982143</v>
       </c>
       <c r="AP84" s="11">
-        <v>187982143</v>
+        <v>181709030</v>
       </c>
       <c r="AQ84" s="11">
-        <v>181709030</v>
+        <v>179615142</v>
       </c>
       <c r="AR84" s="11">
-        <v>179615142</v>
+        <v>196371212</v>
       </c>
       <c r="AS84" s="11">
-        <v>196371212</v>
+        <v>186388235</v>
       </c>
       <c r="AT84" s="11">
-        <v>186388235</v>
+        <v>182708738</v>
       </c>
       <c r="AU84" s="11">
-        <v>182708738</v>
+        <v>350818182</v>
       </c>
       <c r="AV84" s="11">
-        <v>350818182</v>
+        <v>412710526</v>
       </c>
       <c r="AW84" s="11">
-        <v>412710526</v>
+        <v>444079137</v>
       </c>
       <c r="AX84" s="11">
-        <v>444079137</v>
+        <v>363837963</v>
       </c>
       <c r="AY84" s="11">
-        <v>363837963</v>
+        <v>390149068</v>
       </c>
       <c r="AZ84" s="11">
-        <v>390149068</v>
+        <v>403048077</v>
       </c>
       <c r="BA84" s="11">
-        <v>403048077</v>
+        <v>468412037</v>
       </c>
       <c r="BB84" s="11">
-        <v>468412037</v>
+        <v>469736111</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>63</v>
       </c>
@@ -10739,98 +10774,98 @@
       <c r="X85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="13" t="s">
-        <v>58</v>
+      <c r="Y85" s="13">
+        <v>223400000</v>
       </c>
       <c r="Z85" s="13">
-        <v>223400000</v>
+        <v>204375000</v>
       </c>
       <c r="AA85" s="13">
-        <v>204375000</v>
+        <v>246875000</v>
       </c>
       <c r="AB85" s="13">
-        <v>246875000</v>
+        <v>292857143</v>
       </c>
       <c r="AC85" s="13">
-        <v>292857143</v>
+        <v>327571429</v>
       </c>
       <c r="AD85" s="13">
-        <v>327571429</v>
+        <v>441200000</v>
       </c>
       <c r="AE85" s="13">
-        <v>441200000</v>
+        <v>394400000</v>
       </c>
       <c r="AF85" s="13">
-        <v>394400000</v>
+        <v>399250000</v>
       </c>
       <c r="AG85" s="13">
-        <v>399250000</v>
+        <v>297571429</v>
       </c>
       <c r="AH85" s="13">
-        <v>297571429</v>
+        <v>433250000</v>
       </c>
       <c r="AI85" s="13">
-        <v>433250000</v>
+        <v>370750000</v>
       </c>
       <c r="AJ85" s="13">
-        <v>370750000</v>
+        <v>480750000</v>
       </c>
       <c r="AK85" s="13">
-        <v>480750000</v>
+        <v>431000000</v>
       </c>
       <c r="AL85" s="13">
-        <v>431000000</v>
+        <v>461800000</v>
       </c>
       <c r="AM85" s="13">
-        <v>461800000</v>
+        <v>464333333</v>
       </c>
       <c r="AN85" s="13">
-        <v>464333333</v>
+        <v>478000000</v>
       </c>
       <c r="AO85" s="13">
-        <v>478000000</v>
+        <v>448000000</v>
       </c>
       <c r="AP85" s="13">
-        <v>448000000</v>
+        <v>445857143</v>
       </c>
       <c r="AQ85" s="13">
-        <v>445857143</v>
+        <v>480400000</v>
       </c>
       <c r="AR85" s="13">
-        <v>480400000</v>
+        <v>525750000</v>
       </c>
       <c r="AS85" s="13">
-        <v>525750000</v>
+        <v>621600000</v>
       </c>
       <c r="AT85" s="13">
-        <v>621600000</v>
+        <v>462500000</v>
       </c>
       <c r="AU85" s="13">
-        <v>462500000</v>
+        <v>682500000</v>
       </c>
       <c r="AV85" s="13">
-        <v>682500000</v>
+        <v>793416667</v>
       </c>
       <c r="AW85" s="13">
-        <v>793416667</v>
+        <v>873000000</v>
       </c>
       <c r="AX85" s="13">
-        <v>873000000</v>
+        <v>683400000</v>
       </c>
       <c r="AY85" s="13">
-        <v>683400000</v>
+        <v>880285714</v>
       </c>
       <c r="AZ85" s="13">
-        <v>880285714</v>
+        <v>861400000</v>
       </c>
       <c r="BA85" s="13">
-        <v>861400000</v>
+        <v>852555556</v>
       </c>
       <c r="BB85" s="13">
-        <v>852555556</v>
+        <v>864333333</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>64</v>
       </c>
@@ -10937,59 +10972,59 @@
       <c r="AK86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL86" s="11" t="s">
-        <v>58</v>
+      <c r="AL86" s="11">
+        <v>160691765</v>
       </c>
       <c r="AM86" s="11">
-        <v>160691765</v>
+        <v>183213675</v>
       </c>
       <c r="AN86" s="11">
-        <v>183213675</v>
+        <v>197549521</v>
       </c>
       <c r="AO86" s="11">
-        <v>197549521</v>
+        <v>203605536</v>
       </c>
       <c r="AP86" s="11">
-        <v>203605536</v>
+        <v>204370722</v>
       </c>
       <c r="AQ86" s="11">
-        <v>204370722</v>
+        <v>201089054</v>
       </c>
       <c r="AR86" s="11">
-        <v>201089054</v>
+        <v>202562874</v>
       </c>
       <c r="AS86" s="11">
-        <v>202562874</v>
+        <v>203483951</v>
       </c>
       <c r="AT86" s="11">
-        <v>203483951</v>
+        <v>210862944</v>
       </c>
       <c r="AU86" s="11">
-        <v>210862944</v>
+        <v>364757143</v>
       </c>
       <c r="AV86" s="11">
-        <v>364757143</v>
+        <v>469781955</v>
       </c>
       <c r="AW86" s="11">
-        <v>469781955</v>
+        <v>472473492</v>
       </c>
       <c r="AX86" s="11">
-        <v>472473492</v>
+        <v>461146947</v>
       </c>
       <c r="AY86" s="11">
-        <v>461146947</v>
+        <v>455791590</v>
       </c>
       <c r="AZ86" s="11">
-        <v>455791590</v>
+        <v>460926357</v>
       </c>
       <c r="BA86" s="11">
-        <v>460926357</v>
+        <v>548768482</v>
       </c>
       <c r="BB86" s="11">
-        <v>548768482</v>
+        <v>548442006</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>65</v>
       </c>
@@ -11102,53 +11137,53 @@
       <c r="AM87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN87" s="13" t="s">
-        <v>58</v>
+      <c r="AN87" s="13">
+        <v>187689655</v>
       </c>
       <c r="AO87" s="13">
-        <v>187689655</v>
+        <v>2000000</v>
       </c>
       <c r="AP87" s="13">
-        <v>2000000</v>
+        <v>207181818</v>
       </c>
       <c r="AQ87" s="13">
-        <v>207181818</v>
+        <v>194900000</v>
       </c>
       <c r="AR87" s="13">
-        <v>194900000</v>
+        <v>207400000</v>
       </c>
       <c r="AS87" s="13">
-        <v>207400000</v>
+        <v>193962963</v>
       </c>
       <c r="AT87" s="13">
-        <v>193962963</v>
-      </c>
-      <c r="AU87" s="13">
         <v>213000000</v>
       </c>
-      <c r="AV87" s="13" t="s">
-        <v>58</v>
+      <c r="AU87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV87" s="13">
+        <v>415065934</v>
       </c>
       <c r="AW87" s="13">
-        <v>415065934</v>
+        <v>406315789</v>
       </c>
       <c r="AX87" s="13">
-        <v>406315789</v>
+        <v>410530612</v>
       </c>
       <c r="AY87" s="13">
-        <v>410530612</v>
+        <v>395312500</v>
       </c>
       <c r="AZ87" s="13">
-        <v>395312500</v>
+        <v>402537037</v>
       </c>
       <c r="BA87" s="13">
-        <v>402537037</v>
+        <v>412312500</v>
       </c>
       <c r="BB87" s="13">
-        <v>412312500</v>
+        <v>419066667</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>66</v>
       </c>
@@ -11255,56 +11290,56 @@
       <c r="AK88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL88" s="11" t="s">
-        <v>58</v>
+      <c r="AL88" s="11">
+        <v>323702128</v>
       </c>
       <c r="AM88" s="11">
-        <v>323702128</v>
+        <v>397982759</v>
       </c>
       <c r="AN88" s="11">
-        <v>397982759</v>
+        <v>396340909</v>
       </c>
       <c r="AO88" s="11">
-        <v>396340909</v>
+        <v>418305556</v>
       </c>
       <c r="AP88" s="11">
-        <v>418305556</v>
-      </c>
-      <c r="AQ88" s="11">
         <v>413275362</v>
       </c>
-      <c r="AR88" s="11" t="s">
-        <v>58</v>
+      <c r="AQ88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR88" s="11">
+        <v>387112500</v>
       </c>
       <c r="AS88" s="11">
-        <v>387112500</v>
+        <v>413176471</v>
       </c>
       <c r="AT88" s="11">
-        <v>413176471</v>
+        <v>435444444</v>
       </c>
       <c r="AU88" s="11">
-        <v>435444444</v>
+        <v>570670968</v>
       </c>
       <c r="AV88" s="11">
-        <v>570670968</v>
+        <v>681311927</v>
       </c>
       <c r="AW88" s="11">
-        <v>681311927</v>
+        <v>675009901</v>
       </c>
       <c r="AX88" s="11">
-        <v>675009901</v>
+        <v>651013158</v>
       </c>
       <c r="AY88" s="11">
-        <v>651013158</v>
+        <v>648550505</v>
       </c>
       <c r="AZ88" s="11">
-        <v>648550505</v>
+        <v>649834532</v>
       </c>
       <c r="BA88" s="11">
-        <v>649834532</v>
+        <v>691302521</v>
       </c>
       <c r="BB88" s="11">
-        <v>691302521</v>
+        <v>691239726</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghesalem/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghesalem/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghesalem\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85FA3DA-49B2-4BB6-B570-8BF96A60D444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C3D0F2-BB42-4FF4-B912-B21254E4B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غسالم-سالمین‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -775,12 +775,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -835,7 +835,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1004,7 +1004,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1173,7 +1173,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1385,7 +1385,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1504,104 +1504,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>930</v>
+      </c>
+      <c r="X11" s="11">
+        <v>877</v>
       </c>
       <c r="Y11" s="11">
+        <v>946</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>821</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>928</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>1001</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>983</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>972</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>857</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>601</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>910</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>898</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>999</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>879</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>1041</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>904</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>1088</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>1078</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>1084</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>1051</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>956</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>556</v>
+      </c>
+      <c r="AS11" s="11">
         <v>930</v>
       </c>
-      <c r="Z11" s="11">
-        <v>877</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>946</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>821</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>928</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>1001</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>983</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>972</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>857</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>601</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>910</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>898</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>999</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>879</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>1041</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>904</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>1088</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>1078</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>1084</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>1051</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>956</v>
-      </c>
       <c r="AT11" s="11">
-        <v>556</v>
+        <v>1113</v>
       </c>
       <c r="AU11" s="11">
-        <v>930</v>
+        <v>1169</v>
       </c>
       <c r="AV11" s="11">
-        <v>1113</v>
+        <v>1056</v>
       </c>
       <c r="AW11" s="11">
-        <v>1169</v>
+        <v>1046</v>
       </c>
       <c r="AX11" s="11">
-        <v>1056</v>
+        <v>1011</v>
       </c>
       <c r="AY11" s="11">
-        <v>1046</v>
+        <v>1130</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1011</v>
+        <v>1096</v>
       </c>
       <c r="BA11" s="11">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="BB11" s="11">
-        <v>1096</v>
+        <v>1068</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1663,51 +1663,51 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>790</v>
+      </c>
+      <c r="X12" s="13">
+        <v>557</v>
       </c>
       <c r="Y12" s="13">
-        <v>790</v>
+        <v>749</v>
       </c>
       <c r="Z12" s="13">
-        <v>557</v>
+        <v>321</v>
       </c>
       <c r="AA12" s="13">
-        <v>749</v>
+        <v>612</v>
       </c>
       <c r="AB12" s="13">
-        <v>321</v>
+        <v>839</v>
       </c>
       <c r="AC12" s="13">
-        <v>612</v>
+        <v>1112</v>
       </c>
       <c r="AD12" s="13">
-        <v>839</v>
+        <v>1121</v>
       </c>
       <c r="AE12" s="13">
-        <v>1112</v>
+        <v>814</v>
       </c>
       <c r="AF12" s="13">
-        <v>1121</v>
+        <v>467</v>
       </c>
       <c r="AG12" s="13">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="AH12" s="13">
-        <v>467</v>
+        <v>629</v>
       </c>
       <c r="AI12" s="13">
-        <v>823</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>629</v>
-      </c>
-      <c r="AK12" s="13">
         <v>662</v>
       </c>
+      <c r="AJ12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1822,11 +1822,11 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
       </c>
       <c r="Y13" s="11">
         <v>0</v>
@@ -1838,88 +1838,88 @@
         <v>0</v>
       </c>
       <c r="AB13" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC13" s="11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AD13" s="11">
+        <v>117</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>109</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>83</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>100</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>61</v>
+      </c>
+      <c r="AI13" s="11">
         <v>7</v>
       </c>
-      <c r="AE13" s="11">
+      <c r="AJ13" s="11">
+        <v>87</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>130</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>103</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>46</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>47</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>74</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>90</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>43</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>122</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>202</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>73</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>84</v>
+      </c>
+      <c r="AX13" s="11">
         <v>110</v>
       </c>
-      <c r="AF13" s="11">
-        <v>117</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>109</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>83</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>100</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>61</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>7</v>
-      </c>
-      <c r="AL13" s="11">
+      <c r="AY13" s="11">
+        <v>115</v>
+      </c>
+      <c r="AZ13" s="11">
         <v>87</v>
       </c>
-      <c r="AM13" s="11">
-        <v>130</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>103</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>46</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>47</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>74</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>90</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>43</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>122</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>202</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>73</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>84</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>110</v>
-      </c>
       <c r="BA13" s="11">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1981,104 +1981,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>2150</v>
+      </c>
+      <c r="X14" s="13">
+        <v>1805</v>
       </c>
       <c r="Y14" s="13">
-        <v>2150</v>
+        <v>1566</v>
       </c>
       <c r="Z14" s="13">
-        <v>1805</v>
+        <v>544</v>
       </c>
       <c r="AA14" s="13">
-        <v>1566</v>
+        <v>1210</v>
       </c>
       <c r="AB14" s="13">
-        <v>544</v>
+        <v>2007</v>
       </c>
       <c r="AC14" s="13">
-        <v>1210</v>
+        <v>1870</v>
       </c>
       <c r="AD14" s="13">
-        <v>2007</v>
+        <v>1694</v>
       </c>
       <c r="AE14" s="13">
-        <v>1870</v>
+        <v>1474</v>
       </c>
       <c r="AF14" s="13">
-        <v>1694</v>
+        <v>1261</v>
       </c>
       <c r="AG14" s="13">
-        <v>1474</v>
+        <v>1249</v>
       </c>
       <c r="AH14" s="13">
-        <v>1261</v>
+        <v>1717</v>
       </c>
       <c r="AI14" s="13">
-        <v>1249</v>
+        <v>1804</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1717</v>
+        <v>1356</v>
       </c>
       <c r="AK14" s="13">
-        <v>1804</v>
+        <v>1757</v>
       </c>
       <c r="AL14" s="13">
-        <v>1356</v>
+        <v>1308</v>
       </c>
       <c r="AM14" s="13">
-        <v>1757</v>
+        <v>1651</v>
       </c>
       <c r="AN14" s="13">
-        <v>1308</v>
+        <v>1656</v>
       </c>
       <c r="AO14" s="13">
-        <v>1651</v>
+        <v>2623</v>
       </c>
       <c r="AP14" s="13">
+        <v>1931</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>1670</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>636</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>1692</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>1715</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>1742</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>1625</v>
+      </c>
+      <c r="AX14" s="13">
         <v>1656</v>
       </c>
-      <c r="AQ14" s="13">
-        <v>2623</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>1931</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>1670</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>636</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>1450</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>1692</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>1715</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>1742</v>
-      </c>
       <c r="AY14" s="13">
-        <v>1625</v>
+        <v>1652</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1656</v>
+        <v>1452</v>
       </c>
       <c r="BA14" s="13">
-        <v>1652</v>
+        <v>1493</v>
       </c>
       <c r="BB14" s="13">
-        <v>1452</v>
+        <v>1483</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2179,65 +2179,65 @@
       <c r="AI15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>58</v>
+      <c r="AJ15" s="11">
+        <v>191</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>220</v>
       </c>
       <c r="AL15" s="11">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AM15" s="11">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="AN15" s="11">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="AO15" s="11">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="AP15" s="11">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="AQ15" s="11">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="AR15" s="11">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="AS15" s="11">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AT15" s="11">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AU15" s="11">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="AV15" s="11">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="AW15" s="11">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="AX15" s="11">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AY15" s="11">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="AZ15" s="11">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="BA15" s="11">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="BB15" s="11">
-        <v>97</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2299,35 +2299,35 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>8</v>
       </c>
       <c r="Y16" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z16" s="13">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
         <v>8</v>
       </c>
-      <c r="AA16" s="13">
-        <v>9</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>14</v>
-      </c>
       <c r="AC16" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="13">
         <v>8</v>
       </c>
       <c r="AE16" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF16" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="13">
         <v>8</v>
@@ -2336,67 +2336,67 @@
         <v>0</v>
       </c>
       <c r="AI16" s="13">
+        <v>13</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>6</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>14</v>
+      </c>
+      <c r="AM16" s="13">
         <v>8</v>
       </c>
-      <c r="AJ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>13</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="13">
+      <c r="AN16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="13">
         <v>6</v>
       </c>
-      <c r="AN16" s="13">
-        <v>14</v>
-      </c>
-      <c r="AO16" s="13">
+      <c r="AP16" s="13">
+        <v>12</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>18</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>20</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>9</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>9</v>
+      </c>
+      <c r="AZ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="13">
         <v>8</v>
       </c>
-      <c r="AP16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>6</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>12</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>18</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>20</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="13">
-        <v>9</v>
-      </c>
-      <c r="BA16" s="13">
-        <v>9</v>
-      </c>
       <c r="BB16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2497,65 +2497,65 @@
       <c r="AI17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
+      <c r="AJ17" s="11">
+        <v>478</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>559</v>
       </c>
       <c r="AL17" s="11">
-        <v>478</v>
+        <v>696</v>
       </c>
       <c r="AM17" s="11">
-        <v>559</v>
+        <v>813</v>
       </c>
       <c r="AN17" s="11">
-        <v>696</v>
+        <v>1225</v>
       </c>
       <c r="AO17" s="11">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="11">
-        <v>1225</v>
+        <v>374</v>
       </c>
       <c r="AQ17" s="11">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="AR17" s="11">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="AS17" s="11">
-        <v>362</v>
+        <v>587</v>
       </c>
       <c r="AT17" s="11">
-        <v>129</v>
+        <v>693</v>
       </c>
       <c r="AU17" s="11">
-        <v>587</v>
+        <v>496</v>
       </c>
       <c r="AV17" s="11">
-        <v>693</v>
+        <v>524</v>
       </c>
       <c r="AW17" s="11">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="AX17" s="11">
+        <v>486</v>
+      </c>
+      <c r="AY17" s="11">
         <v>524</v>
       </c>
-      <c r="AY17" s="11">
-        <v>470</v>
-      </c>
       <c r="AZ17" s="11">
-        <v>486</v>
+        <v>755</v>
       </c>
       <c r="BA17" s="11">
-        <v>524</v>
+        <v>438</v>
       </c>
       <c r="BB17" s="11">
-        <v>755</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2656,65 +2656,65 @@
       <c r="AI18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
       </c>
       <c r="AL18" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM18" s="13">
         <v>0</v>
       </c>
       <c r="AN18" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="13">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AP18" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ18" s="13">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AR18" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AS18" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="13">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="AU18" s="13">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AV18" s="13">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AW18" s="13">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="AX18" s="13">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="AY18" s="13">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="AZ18" s="13">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BA18" s="13">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="BB18" s="13">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2815,65 +2815,65 @@
       <c r="AI19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>58</v>
+      <c r="AJ19" s="11">
+        <v>95</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>121</v>
       </c>
       <c r="AL19" s="11">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AM19" s="11">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="AN19" s="11">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="11">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="11">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AQ19" s="11">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AR19" s="11">
+        <v>57</v>
+      </c>
+      <c r="AS19" s="11">
         <v>161</v>
       </c>
-      <c r="AS19" s="11">
+      <c r="AT19" s="11">
+        <v>136</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>96</v>
+      </c>
+      <c r="AV19" s="11">
         <v>124</v>
       </c>
-      <c r="AT19" s="11">
-        <v>57</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>161</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>136</v>
-      </c>
       <c r="AW19" s="11">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="AX19" s="11">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AY19" s="11">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="AZ19" s="11">
         <v>146</v>
       </c>
       <c r="BA19" s="11">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="BB19" s="11">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>67</v>
       </c>
@@ -2934,103 +2934,103 @@
         <v>0</v>
       </c>
       <c r="W20" s="15">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="X20" s="15">
-        <v>0</v>
+        <v>3247</v>
       </c>
       <c r="Y20" s="15">
-        <v>3870</v>
+        <v>3270</v>
       </c>
       <c r="Z20" s="15">
-        <v>3247</v>
+        <v>1700</v>
       </c>
       <c r="AA20" s="15">
-        <v>3270</v>
+        <v>2750</v>
       </c>
       <c r="AB20" s="15">
-        <v>1700</v>
+        <v>3862</v>
       </c>
       <c r="AC20" s="15">
-        <v>2750</v>
+        <v>4077</v>
       </c>
       <c r="AD20" s="15">
-        <v>3862</v>
+        <v>3912</v>
       </c>
       <c r="AE20" s="15">
-        <v>4077</v>
+        <v>3262</v>
       </c>
       <c r="AF20" s="15">
-        <v>3912</v>
+        <v>2412</v>
       </c>
       <c r="AG20" s="15">
-        <v>3262</v>
+        <v>3090</v>
       </c>
       <c r="AH20" s="15">
-        <v>2412</v>
+        <v>3305</v>
       </c>
       <c r="AI20" s="15">
-        <v>3090</v>
+        <v>3485</v>
       </c>
       <c r="AJ20" s="15">
-        <v>3305</v>
+        <v>3086</v>
       </c>
       <c r="AK20" s="15">
-        <v>3485</v>
+        <v>3834</v>
       </c>
       <c r="AL20" s="15">
-        <v>3086</v>
+        <v>3361</v>
       </c>
       <c r="AM20" s="15">
-        <v>3834</v>
+        <v>4120</v>
       </c>
       <c r="AN20" s="15">
-        <v>3361</v>
+        <v>4320</v>
       </c>
       <c r="AO20" s="15">
-        <v>4120</v>
+        <v>3971</v>
       </c>
       <c r="AP20" s="15">
-        <v>4320</v>
+        <v>3892</v>
       </c>
       <c r="AQ20" s="15">
-        <v>3971</v>
+        <v>3298</v>
       </c>
       <c r="AR20" s="15">
-        <v>3892</v>
+        <v>1444</v>
       </c>
       <c r="AS20" s="15">
-        <v>3298</v>
+        <v>3352</v>
       </c>
       <c r="AT20" s="15">
-        <v>1444</v>
+        <v>4144</v>
       </c>
       <c r="AU20" s="15">
-        <v>3352</v>
+        <v>3754</v>
       </c>
       <c r="AV20" s="15">
-        <v>4144</v>
+        <v>3686</v>
       </c>
       <c r="AW20" s="15">
-        <v>3754</v>
+        <v>3643</v>
       </c>
       <c r="AX20" s="15">
-        <v>3686</v>
+        <v>3713</v>
       </c>
       <c r="AY20" s="15">
-        <v>3643</v>
+        <v>3968</v>
       </c>
       <c r="AZ20" s="15">
-        <v>3713</v>
+        <v>3693</v>
       </c>
       <c r="BA20" s="15">
-        <v>3968</v>
+        <v>3503</v>
       </c>
       <c r="BB20" s="15">
-        <v>3693</v>
+        <v>3236</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>68</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="BA21" s="17"/>
       <c r="BB21" s="17"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>69</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>70</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="BA23" s="17"/>
       <c r="BB23" s="17"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>71</v>
       </c>
@@ -3361,11 +3361,11 @@
       <c r="V24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X24" s="19" t="s">
-        <v>58</v>
+      <c r="W24" s="19">
+        <v>0</v>
+      </c>
+      <c r="X24" s="19">
+        <v>0</v>
       </c>
       <c r="Y24" s="19">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>72</v>
       </c>
@@ -3519,103 +3519,103 @@
         <v>0</v>
       </c>
       <c r="W25" s="15">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="X25" s="15">
-        <v>0</v>
+        <v>3247</v>
       </c>
       <c r="Y25" s="15">
-        <v>3870</v>
+        <v>3270</v>
       </c>
       <c r="Z25" s="15">
-        <v>3247</v>
+        <v>1700</v>
       </c>
       <c r="AA25" s="15">
-        <v>3270</v>
+        <v>2750</v>
       </c>
       <c r="AB25" s="15">
-        <v>1700</v>
+        <v>3862</v>
       </c>
       <c r="AC25" s="15">
-        <v>2750</v>
+        <v>4077</v>
       </c>
       <c r="AD25" s="15">
-        <v>3862</v>
+        <v>3912</v>
       </c>
       <c r="AE25" s="15">
-        <v>4077</v>
+        <v>3262</v>
       </c>
       <c r="AF25" s="15">
-        <v>3912</v>
+        <v>2412</v>
       </c>
       <c r="AG25" s="15">
-        <v>3262</v>
+        <v>3090</v>
       </c>
       <c r="AH25" s="15">
-        <v>2412</v>
+        <v>3305</v>
       </c>
       <c r="AI25" s="15">
-        <v>3090</v>
+        <v>3485</v>
       </c>
       <c r="AJ25" s="15">
-        <v>3305</v>
+        <v>3086</v>
       </c>
       <c r="AK25" s="15">
-        <v>3485</v>
+        <v>3834</v>
       </c>
       <c r="AL25" s="15">
-        <v>3086</v>
+        <v>3361</v>
       </c>
       <c r="AM25" s="15">
-        <v>3834</v>
+        <v>4120</v>
       </c>
       <c r="AN25" s="15">
-        <v>3361</v>
+        <v>4320</v>
       </c>
       <c r="AO25" s="15">
-        <v>4120</v>
+        <v>3971</v>
       </c>
       <c r="AP25" s="15">
-        <v>4320</v>
+        <v>3892</v>
       </c>
       <c r="AQ25" s="15">
-        <v>3971</v>
+        <v>3298</v>
       </c>
       <c r="AR25" s="15">
-        <v>3892</v>
+        <v>1444</v>
       </c>
       <c r="AS25" s="15">
-        <v>3298</v>
+        <v>3352</v>
       </c>
       <c r="AT25" s="15">
-        <v>1444</v>
+        <v>4144</v>
       </c>
       <c r="AU25" s="15">
-        <v>3352</v>
+        <v>3754</v>
       </c>
       <c r="AV25" s="15">
-        <v>4144</v>
+        <v>3686</v>
       </c>
       <c r="AW25" s="15">
-        <v>3754</v>
+        <v>3643</v>
       </c>
       <c r="AX25" s="15">
-        <v>3686</v>
+        <v>3713</v>
       </c>
       <c r="AY25" s="15">
-        <v>3643</v>
+        <v>3968</v>
       </c>
       <c r="AZ25" s="15">
-        <v>3713</v>
+        <v>3693</v>
       </c>
       <c r="BA25" s="15">
-        <v>3968</v>
+        <v>3503</v>
       </c>
       <c r="BB25" s="15">
-        <v>3693</v>
+        <v>3236</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3670,7 +3670,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3725,7 +3725,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3780,7 +3780,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>73</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3992,7 +3992,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>74</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
@@ -4111,104 +4111,104 @@
       <c r="V32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>58</v>
+      <c r="W32" s="11">
+        <v>924</v>
+      </c>
+      <c r="X32" s="11">
+        <v>872</v>
       </c>
       <c r="Y32" s="11">
-        <v>924</v>
+        <v>951</v>
       </c>
       <c r="Z32" s="11">
-        <v>872</v>
+        <v>805</v>
       </c>
       <c r="AA32" s="11">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="AB32" s="11">
-        <v>805</v>
+        <v>991</v>
       </c>
       <c r="AC32" s="11">
-        <v>944</v>
+        <v>980</v>
       </c>
       <c r="AD32" s="11">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="AE32" s="11">
+        <v>849</v>
+      </c>
+      <c r="AF32" s="11">
+        <v>605</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>931</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>897</v>
+      </c>
+      <c r="AI32" s="11">
         <v>980</v>
       </c>
-      <c r="AF32" s="11">
-        <v>981</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>849</v>
-      </c>
-      <c r="AH32" s="11">
-        <v>605</v>
-      </c>
-      <c r="AI32" s="11">
-        <v>931</v>
-      </c>
       <c r="AJ32" s="11">
-        <v>897</v>
+        <v>854</v>
       </c>
       <c r="AK32" s="11">
-        <v>980</v>
+        <v>1051</v>
       </c>
       <c r="AL32" s="11">
-        <v>854</v>
+        <v>893</v>
       </c>
       <c r="AM32" s="11">
-        <v>1051</v>
+        <v>1101</v>
       </c>
       <c r="AN32" s="11">
-        <v>893</v>
+        <v>1069</v>
       </c>
       <c r="AO32" s="11">
-        <v>1101</v>
+        <v>1078</v>
       </c>
       <c r="AP32" s="11">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="AQ32" s="11">
-        <v>1078</v>
+        <v>956</v>
       </c>
       <c r="AR32" s="11">
-        <v>1056</v>
+        <v>606</v>
       </c>
       <c r="AS32" s="11">
-        <v>956</v>
+        <v>887</v>
       </c>
       <c r="AT32" s="11">
-        <v>606</v>
+        <v>1106</v>
       </c>
       <c r="AU32" s="11">
-        <v>887</v>
+        <v>1185</v>
       </c>
       <c r="AV32" s="11">
-        <v>1106</v>
+        <v>1060</v>
       </c>
       <c r="AW32" s="11">
-        <v>1185</v>
+        <v>1034</v>
       </c>
       <c r="AX32" s="11">
-        <v>1060</v>
+        <v>1023</v>
       </c>
       <c r="AY32" s="11">
-        <v>1034</v>
+        <v>1108</v>
       </c>
       <c r="AZ32" s="11">
-        <v>1023</v>
+        <v>1102</v>
       </c>
       <c r="BA32" s="11">
-        <v>1108</v>
+        <v>1119</v>
       </c>
       <c r="BB32" s="11">
-        <v>1102</v>
+        <v>1059</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>59</v>
       </c>
@@ -4270,51 +4270,51 @@
       <c r="V33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="13" t="s">
-        <v>58</v>
+      <c r="W33" s="13">
+        <v>775</v>
+      </c>
+      <c r="X33" s="13">
+        <v>677</v>
       </c>
       <c r="Y33" s="13">
-        <v>775</v>
+        <v>670</v>
       </c>
       <c r="Z33" s="13">
-        <v>677</v>
+        <v>373</v>
       </c>
       <c r="AA33" s="13">
-        <v>670</v>
+        <v>583</v>
       </c>
       <c r="AB33" s="13">
-        <v>373</v>
+        <v>817</v>
       </c>
       <c r="AC33" s="13">
-        <v>583</v>
+        <v>1013</v>
       </c>
       <c r="AD33" s="13">
-        <v>817</v>
+        <v>1038</v>
       </c>
       <c r="AE33" s="13">
-        <v>1013</v>
+        <v>943</v>
       </c>
       <c r="AF33" s="13">
-        <v>1038</v>
+        <v>492</v>
       </c>
       <c r="AG33" s="13">
-        <v>943</v>
+        <v>770</v>
       </c>
       <c r="AH33" s="13">
-        <v>492</v>
+        <v>658</v>
       </c>
       <c r="AI33" s="13">
-        <v>770</v>
-      </c>
-      <c r="AJ33" s="13">
-        <v>658</v>
-      </c>
-      <c r="AK33" s="13">
         <v>823</v>
       </c>
+      <c r="AJ33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL33" s="13" t="s">
         <v>58</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
@@ -4429,11 +4429,11 @@
       <c r="V34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="11" t="s">
-        <v>58</v>
+      <c r="W34" s="11">
+        <v>0</v>
+      </c>
+      <c r="X34" s="11">
+        <v>0</v>
       </c>
       <c r="Y34" s="11">
         <v>0</v>
@@ -4445,88 +4445,88 @@
         <v>0</v>
       </c>
       <c r="AB34" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AD34" s="11">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="AE34" s="11">
+        <v>112</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>76</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>97</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>80</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>18</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>74</v>
+      </c>
+      <c r="AK34" s="11">
         <v>110</v>
       </c>
-      <c r="AF34" s="11">
+      <c r="AL34" s="11">
+        <v>77</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>62</v>
+      </c>
+      <c r="AN34" s="11">
+        <v>43</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>39</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>76</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>86</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>53</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>107</v>
+      </c>
+      <c r="AT34" s="11">
+        <v>136</v>
+      </c>
+      <c r="AU34" s="11">
+        <v>78</v>
+      </c>
+      <c r="AV34" s="11">
+        <v>53</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>61</v>
+      </c>
+      <c r="AX34" s="11">
+        <v>88</v>
+      </c>
+      <c r="AY34" s="11">
+        <v>115</v>
+      </c>
+      <c r="AZ34" s="11">
         <v>98</v>
       </c>
-      <c r="AG34" s="11">
-        <v>112</v>
-      </c>
-      <c r="AH34" s="11">
-        <v>76</v>
-      </c>
-      <c r="AI34" s="11">
-        <v>97</v>
-      </c>
-      <c r="AJ34" s="11">
-        <v>80</v>
-      </c>
-      <c r="AK34" s="11">
-        <v>18</v>
-      </c>
-      <c r="AL34" s="11">
-        <v>74</v>
-      </c>
-      <c r="AM34" s="11">
-        <v>110</v>
-      </c>
-      <c r="AN34" s="11">
-        <v>77</v>
-      </c>
-      <c r="AO34" s="11">
-        <v>62</v>
-      </c>
-      <c r="AP34" s="11">
-        <v>43</v>
-      </c>
-      <c r="AQ34" s="11">
-        <v>39</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>76</v>
-      </c>
-      <c r="AS34" s="11">
-        <v>86</v>
-      </c>
-      <c r="AT34" s="11">
+      <c r="BA34" s="11">
         <v>53</v>
       </c>
-      <c r="AU34" s="11">
-        <v>107</v>
-      </c>
-      <c r="AV34" s="11">
-        <v>136</v>
-      </c>
-      <c r="AW34" s="11">
-        <v>78</v>
-      </c>
-      <c r="AX34" s="11">
-        <v>53</v>
-      </c>
-      <c r="AY34" s="11">
-        <v>61</v>
-      </c>
-      <c r="AZ34" s="11">
-        <v>88</v>
-      </c>
-      <c r="BA34" s="11">
-        <v>115</v>
-      </c>
       <c r="BB34" s="11">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>61</v>
       </c>
@@ -4588,104 +4588,104 @@
       <c r="V35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>58</v>
+      <c r="W35" s="13">
+        <v>2116</v>
+      </c>
+      <c r="X35" s="13">
+        <v>1744</v>
       </c>
       <c r="Y35" s="13">
-        <v>2116</v>
+        <v>1886</v>
       </c>
       <c r="Z35" s="13">
-        <v>1744</v>
+        <v>636</v>
       </c>
       <c r="AA35" s="13">
-        <v>1886</v>
+        <v>1092</v>
       </c>
       <c r="AB35" s="13">
-        <v>636</v>
+        <v>2026</v>
       </c>
       <c r="AC35" s="13">
-        <v>1092</v>
+        <v>1798</v>
       </c>
       <c r="AD35" s="13">
-        <v>2026</v>
+        <v>1573</v>
       </c>
       <c r="AE35" s="13">
-        <v>1798</v>
+        <v>1496</v>
       </c>
       <c r="AF35" s="13">
-        <v>1573</v>
+        <v>1263</v>
       </c>
       <c r="AG35" s="13">
-        <v>1496</v>
+        <v>1213</v>
       </c>
       <c r="AH35" s="13">
-        <v>1263</v>
+        <v>1738</v>
       </c>
       <c r="AI35" s="13">
-        <v>1213</v>
+        <v>1655</v>
       </c>
       <c r="AJ35" s="13">
-        <v>1738</v>
+        <v>1489</v>
       </c>
       <c r="AK35" s="13">
-        <v>1655</v>
+        <v>1927</v>
       </c>
       <c r="AL35" s="13">
-        <v>1489</v>
+        <v>1356</v>
       </c>
       <c r="AM35" s="13">
-        <v>1927</v>
+        <v>1451</v>
       </c>
       <c r="AN35" s="13">
-        <v>1356</v>
+        <v>2175</v>
       </c>
       <c r="AO35" s="13">
-        <v>1451</v>
+        <v>2131</v>
       </c>
       <c r="AP35" s="13">
-        <v>2175</v>
+        <v>1911</v>
       </c>
       <c r="AQ35" s="13">
-        <v>2131</v>
+        <v>1571</v>
       </c>
       <c r="AR35" s="13">
-        <v>1911</v>
+        <v>988</v>
       </c>
       <c r="AS35" s="13">
-        <v>1571</v>
+        <v>1155</v>
       </c>
       <c r="AT35" s="13">
-        <v>988</v>
+        <v>1749</v>
       </c>
       <c r="AU35" s="13">
-        <v>1155</v>
+        <v>1425</v>
       </c>
       <c r="AV35" s="13">
-        <v>1749</v>
+        <v>1692</v>
       </c>
       <c r="AW35" s="13">
-        <v>1425</v>
+        <v>1544</v>
       </c>
       <c r="AX35" s="13">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AY35" s="13">
-        <v>1544</v>
+        <v>1581</v>
       </c>
       <c r="AZ35" s="13">
-        <v>1694</v>
+        <v>1664</v>
       </c>
       <c r="BA35" s="13">
-        <v>1581</v>
+        <v>1603</v>
       </c>
       <c r="BB35" s="13">
-        <v>1664</v>
+        <v>1222</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>62</v>
       </c>
@@ -4786,65 +4786,65 @@
       <c r="AI36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK36" s="11" t="s">
-        <v>58</v>
+      <c r="AJ36" s="11">
+        <v>110</v>
+      </c>
+      <c r="AK36" s="11">
+        <v>217</v>
       </c>
       <c r="AL36" s="11">
+        <v>227</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>224</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>299</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>317</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>132</v>
+      </c>
+      <c r="AQ36" s="11">
+        <v>170</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>103</v>
+      </c>
+      <c r="AS36" s="11">
         <v>110</v>
       </c>
-      <c r="AM36" s="11">
-        <v>217</v>
-      </c>
-      <c r="AN36" s="11">
-        <v>227</v>
-      </c>
-      <c r="AO36" s="11">
-        <v>224</v>
-      </c>
-      <c r="AP36" s="11">
-        <v>299</v>
-      </c>
-      <c r="AQ36" s="11">
-        <v>317</v>
-      </c>
-      <c r="AR36" s="11">
-        <v>132</v>
-      </c>
-      <c r="AS36" s="11">
-        <v>170</v>
-      </c>
       <c r="AT36" s="11">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="AU36" s="11">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="AV36" s="11">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="AW36" s="11">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AX36" s="11">
+        <v>208</v>
+      </c>
+      <c r="AY36" s="11">
         <v>216</v>
       </c>
-      <c r="AY36" s="11">
-        <v>161</v>
-      </c>
       <c r="AZ36" s="11">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="BA36" s="11">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="BB36" s="11">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>63</v>
       </c>
@@ -4906,104 +4906,104 @@
       <c r="V37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>58</v>
+      <c r="W37" s="13">
+        <v>5</v>
+      </c>
+      <c r="X37" s="13">
+        <v>8</v>
       </c>
       <c r="Y37" s="13">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>7</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="13">
         <v>5</v>
       </c>
-      <c r="Z37" s="13">
-        <v>8</v>
-      </c>
-      <c r="AA37" s="13">
-        <v>8</v>
-      </c>
-      <c r="AB37" s="13">
+      <c r="AC37" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD37" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE37" s="13">
         <v>7</v>
-      </c>
-      <c r="AC37" s="13">
-        <v>7</v>
-      </c>
-      <c r="AD37" s="13">
-        <v>5</v>
-      </c>
-      <c r="AE37" s="13">
-        <v>5</v>
       </c>
       <c r="AF37" s="13">
         <v>4</v>
       </c>
       <c r="AG37" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH37" s="13">
         <v>4</v>
       </c>
       <c r="AI37" s="13">
+        <v>8</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>10</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN37" s="13">
+        <v>14</v>
+      </c>
+      <c r="AO37" s="13">
+        <v>5</v>
+      </c>
+      <c r="AP37" s="13">
         <v>4</v>
-      </c>
-      <c r="AJ37" s="13">
-        <v>4</v>
-      </c>
-      <c r="AK37" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL37" s="13">
-        <v>5</v>
-      </c>
-      <c r="AM37" s="13">
-        <v>3</v>
-      </c>
-      <c r="AN37" s="13">
-        <v>10</v>
-      </c>
-      <c r="AO37" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP37" s="13">
-        <v>14</v>
       </c>
       <c r="AQ37" s="13">
         <v>5</v>
       </c>
       <c r="AR37" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS37" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT37" s="13">
+        <v>12</v>
+      </c>
+      <c r="AU37" s="13">
         <v>5</v>
       </c>
-      <c r="AT37" s="13">
-        <v>2</v>
-      </c>
-      <c r="AU37" s="13">
-        <v>2</v>
-      </c>
       <c r="AV37" s="13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AW37" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX37" s="13">
         <v>5</v>
       </c>
       <c r="AY37" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ37" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA37" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB37" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>64</v>
       </c>
@@ -5104,65 +5104,65 @@
       <c r="AI38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK38" s="11" t="s">
-        <v>58</v>
+      <c r="AJ38" s="11">
+        <v>425</v>
+      </c>
+      <c r="AK38" s="11">
+        <v>585</v>
       </c>
       <c r="AL38" s="11">
-        <v>425</v>
+        <v>626</v>
       </c>
       <c r="AM38" s="11">
-        <v>585</v>
+        <v>867</v>
       </c>
       <c r="AN38" s="11">
-        <v>626</v>
+        <v>526</v>
       </c>
       <c r="AO38" s="11">
-        <v>867</v>
+        <v>539</v>
       </c>
       <c r="AP38" s="11">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="AQ38" s="11">
-        <v>539</v>
+        <v>405</v>
       </c>
       <c r="AR38" s="11">
-        <v>501</v>
+        <v>197</v>
       </c>
       <c r="AS38" s="11">
-        <v>405</v>
+        <v>490</v>
       </c>
       <c r="AT38" s="11">
-        <v>197</v>
+        <v>532</v>
       </c>
       <c r="AU38" s="11">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="AV38" s="11">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AW38" s="11">
         <v>547</v>
       </c>
       <c r="AX38" s="11">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AY38" s="11">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="AZ38" s="11">
-        <v>516</v>
+        <v>638</v>
       </c>
       <c r="BA38" s="11">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="BB38" s="11">
-        <v>638</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>65</v>
       </c>
@@ -5263,65 +5263,65 @@
       <c r="AI39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK39" s="13" t="s">
-        <v>58</v>
+      <c r="AJ39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>0</v>
       </c>
       <c r="AL39" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM39" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN39" s="13">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AO39" s="13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AP39" s="13">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AQ39" s="13">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AR39" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AS39" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="13">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="AU39" s="13">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AV39" s="13">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AW39" s="13">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AX39" s="13">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AY39" s="13">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AZ39" s="13">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BA39" s="13">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="BB39" s="13">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>66</v>
       </c>
@@ -5422,65 +5422,65 @@
       <c r="AI40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK40" s="11" t="s">
-        <v>58</v>
+      <c r="AJ40" s="11">
+        <v>94</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>116</v>
       </c>
       <c r="AL40" s="11">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AM40" s="11">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="AN40" s="11">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="AO40" s="11">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="11">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="AQ40" s="11">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AR40" s="11">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="AS40" s="11">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="AT40" s="11">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="AU40" s="11">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="AV40" s="11">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AW40" s="11">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="AX40" s="11">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AY40" s="11">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="AZ40" s="11">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="BA40" s="11">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="BB40" s="11">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
@@ -5541,103 +5541,103 @@
         <v>0</v>
       </c>
       <c r="W41" s="15">
-        <v>0</v>
+        <v>3820</v>
       </c>
       <c r="X41" s="15">
-        <v>0</v>
+        <v>3301</v>
       </c>
       <c r="Y41" s="15">
-        <v>3820</v>
+        <v>3515</v>
       </c>
       <c r="Z41" s="15">
-        <v>3301</v>
+        <v>1821</v>
       </c>
       <c r="AA41" s="15">
-        <v>3515</v>
+        <v>2626</v>
       </c>
       <c r="AB41" s="15">
-        <v>1821</v>
+        <v>3840</v>
       </c>
       <c r="AC41" s="15">
-        <v>2626</v>
+        <v>3906</v>
       </c>
       <c r="AD41" s="15">
-        <v>3840</v>
+        <v>3694</v>
       </c>
       <c r="AE41" s="15">
-        <v>3906</v>
+        <v>3407</v>
       </c>
       <c r="AF41" s="15">
-        <v>3694</v>
+        <v>2440</v>
       </c>
       <c r="AG41" s="15">
-        <v>3407</v>
+        <v>3015</v>
       </c>
       <c r="AH41" s="15">
-        <v>2440</v>
+        <v>3377</v>
       </c>
       <c r="AI41" s="15">
-        <v>3015</v>
+        <v>3484</v>
       </c>
       <c r="AJ41" s="15">
-        <v>3377</v>
+        <v>3051</v>
       </c>
       <c r="AK41" s="15">
-        <v>3484</v>
+        <v>4009</v>
       </c>
       <c r="AL41" s="15">
-        <v>3051</v>
+        <v>3306</v>
       </c>
       <c r="AM41" s="15">
-        <v>4009</v>
+        <v>3852</v>
       </c>
       <c r="AN41" s="15">
-        <v>3306</v>
+        <v>4217</v>
       </c>
       <c r="AO41" s="15">
-        <v>3852</v>
+        <v>4129</v>
       </c>
       <c r="AP41" s="15">
-        <v>4217</v>
+        <v>3850</v>
       </c>
       <c r="AQ41" s="15">
-        <v>4129</v>
+        <v>3339</v>
       </c>
       <c r="AR41" s="15">
-        <v>3850</v>
+        <v>2016</v>
       </c>
       <c r="AS41" s="15">
-        <v>3339</v>
+        <v>2906</v>
       </c>
       <c r="AT41" s="15">
-        <v>2016</v>
+        <v>3887</v>
       </c>
       <c r="AU41" s="15">
-        <v>2906</v>
+        <v>3518</v>
       </c>
       <c r="AV41" s="15">
-        <v>3887</v>
+        <v>3751</v>
       </c>
       <c r="AW41" s="15">
-        <v>3518</v>
+        <v>3568</v>
       </c>
       <c r="AX41" s="15">
-        <v>3751</v>
+        <v>3727</v>
       </c>
       <c r="AY41" s="15">
-        <v>3568</v>
+        <v>3829</v>
       </c>
       <c r="AZ41" s="15">
-        <v>3727</v>
+        <v>3858</v>
       </c>
       <c r="BA41" s="15">
-        <v>3829</v>
+        <v>3810</v>
       </c>
       <c r="BB41" s="15">
-        <v>3858</v>
+        <v>2874</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>76</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>77</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>70</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>71</v>
       </c>
@@ -5968,11 +5968,11 @@
       <c r="V45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="19" t="s">
-        <v>58</v>
+      <c r="W45" s="19">
+        <v>0</v>
+      </c>
+      <c r="X45" s="19">
+        <v>0</v>
       </c>
       <c r="Y45" s="19">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>78</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="BA46" s="17"/>
       <c r="BB46" s="17"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>79</v>
       </c>
@@ -6182,11 +6182,11 @@
       <c r="V47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="19" t="s">
-        <v>58</v>
+      <c r="W47" s="19">
+        <v>0</v>
+      </c>
+      <c r="X47" s="19">
+        <v>0</v>
       </c>
       <c r="Y47" s="19">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>72</v>
       </c>
@@ -6340,103 +6340,103 @@
         <v>0</v>
       </c>
       <c r="W48" s="15">
-        <v>0</v>
+        <v>3820</v>
       </c>
       <c r="X48" s="15">
-        <v>0</v>
+        <v>3301</v>
       </c>
       <c r="Y48" s="15">
-        <v>3820</v>
+        <v>3515</v>
       </c>
       <c r="Z48" s="15">
-        <v>3301</v>
+        <v>1821</v>
       </c>
       <c r="AA48" s="15">
-        <v>3515</v>
+        <v>2626</v>
       </c>
       <c r="AB48" s="15">
-        <v>1821</v>
+        <v>3840</v>
       </c>
       <c r="AC48" s="15">
-        <v>2626</v>
+        <v>3906</v>
       </c>
       <c r="AD48" s="15">
-        <v>3840</v>
+        <v>3694</v>
       </c>
       <c r="AE48" s="15">
-        <v>3906</v>
+        <v>3407</v>
       </c>
       <c r="AF48" s="15">
-        <v>3694</v>
+        <v>2440</v>
       </c>
       <c r="AG48" s="15">
-        <v>3407</v>
+        <v>3015</v>
       </c>
       <c r="AH48" s="15">
-        <v>2440</v>
+        <v>3377</v>
       </c>
       <c r="AI48" s="15">
-        <v>3015</v>
+        <v>3484</v>
       </c>
       <c r="AJ48" s="15">
-        <v>3377</v>
+        <v>3051</v>
       </c>
       <c r="AK48" s="15">
-        <v>3484</v>
+        <v>4009</v>
       </c>
       <c r="AL48" s="15">
-        <v>3051</v>
+        <v>3306</v>
       </c>
       <c r="AM48" s="15">
-        <v>4009</v>
+        <v>3852</v>
       </c>
       <c r="AN48" s="15">
-        <v>3306</v>
+        <v>4217</v>
       </c>
       <c r="AO48" s="15">
-        <v>3852</v>
+        <v>4129</v>
       </c>
       <c r="AP48" s="15">
-        <v>4217</v>
+        <v>3850</v>
       </c>
       <c r="AQ48" s="15">
-        <v>4129</v>
+        <v>3339</v>
       </c>
       <c r="AR48" s="15">
-        <v>3850</v>
+        <v>2016</v>
       </c>
       <c r="AS48" s="15">
-        <v>3339</v>
+        <v>2906</v>
       </c>
       <c r="AT48" s="15">
-        <v>2016</v>
+        <v>3887</v>
       </c>
       <c r="AU48" s="15">
-        <v>2906</v>
+        <v>3518</v>
       </c>
       <c r="AV48" s="15">
-        <v>3887</v>
+        <v>3751</v>
       </c>
       <c r="AW48" s="15">
-        <v>3518</v>
+        <v>3568</v>
       </c>
       <c r="AX48" s="15">
-        <v>3751</v>
+        <v>3727</v>
       </c>
       <c r="AY48" s="15">
-        <v>3568</v>
+        <v>3829</v>
       </c>
       <c r="AZ48" s="15">
-        <v>3727</v>
+        <v>3858</v>
       </c>
       <c r="BA48" s="15">
-        <v>3829</v>
+        <v>3810</v>
       </c>
       <c r="BB48" s="15">
-        <v>3858</v>
+        <v>2874</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6491,7 +6491,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6546,7 +6546,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6601,7 +6601,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>80</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6813,7 +6813,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>81</v>
       </c>
@@ -6870,7 +6870,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
@@ -6932,104 +6932,104 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>138525</v>
+      </c>
+      <c r="X55" s="11">
+        <v>141900</v>
       </c>
       <c r="Y55" s="11">
-        <v>138525</v>
+        <v>167352</v>
       </c>
       <c r="Z55" s="11">
-        <v>141900</v>
+        <v>156051</v>
       </c>
       <c r="AA55" s="11">
-        <v>167352</v>
+        <v>191849</v>
       </c>
       <c r="AB55" s="11">
-        <v>156051</v>
+        <v>209407</v>
       </c>
       <c r="AC55" s="11">
-        <v>191849</v>
+        <v>200454</v>
       </c>
       <c r="AD55" s="11">
-        <v>209407</v>
+        <v>203139</v>
       </c>
       <c r="AE55" s="11">
-        <v>200454</v>
+        <v>182769</v>
       </c>
       <c r="AF55" s="11">
-        <v>203139</v>
+        <v>130349</v>
       </c>
       <c r="AG55" s="11">
-        <v>182769</v>
+        <v>235296</v>
       </c>
       <c r="AH55" s="11">
-        <v>130349</v>
+        <v>231762</v>
       </c>
       <c r="AI55" s="11">
-        <v>235296</v>
+        <v>253192</v>
       </c>
       <c r="AJ55" s="11">
-        <v>231762</v>
+        <v>220751</v>
       </c>
       <c r="AK55" s="11">
-        <v>253192</v>
+        <v>276478</v>
       </c>
       <c r="AL55" s="11">
-        <v>220751</v>
+        <v>259657</v>
       </c>
       <c r="AM55" s="11">
-        <v>276478</v>
+        <v>319943</v>
       </c>
       <c r="AN55" s="11">
-        <v>259657</v>
+        <v>310834</v>
       </c>
       <c r="AO55" s="11">
-        <v>319943</v>
+        <v>313195</v>
       </c>
       <c r="AP55" s="11">
-        <v>310834</v>
+        <v>312495</v>
       </c>
       <c r="AQ55" s="11">
-        <v>313195</v>
+        <v>298965</v>
       </c>
       <c r="AR55" s="11">
-        <v>312495</v>
+        <v>194747</v>
       </c>
       <c r="AS55" s="11">
-        <v>298965</v>
+        <v>404676</v>
       </c>
       <c r="AT55" s="11">
-        <v>194747</v>
+        <v>574186</v>
       </c>
       <c r="AU55" s="11">
-        <v>404676</v>
+        <v>608420</v>
       </c>
       <c r="AV55" s="11">
-        <v>574186</v>
+        <v>574154</v>
       </c>
       <c r="AW55" s="11">
-        <v>608420</v>
+        <v>560042</v>
       </c>
       <c r="AX55" s="11">
-        <v>574154</v>
+        <v>554593</v>
       </c>
       <c r="AY55" s="11">
-        <v>560042</v>
+        <v>638636</v>
       </c>
       <c r="AZ55" s="11">
-        <v>554593</v>
+        <v>634988</v>
       </c>
       <c r="BA55" s="11">
-        <v>638636</v>
+        <v>644506</v>
       </c>
       <c r="BB55" s="11">
-        <v>634988</v>
+        <v>610105</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
@@ -7091,51 +7091,51 @@
       <c r="V56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>58</v>
+      <c r="W56" s="13">
+        <v>97081</v>
+      </c>
+      <c r="X56" s="13">
+        <v>90620</v>
       </c>
       <c r="Y56" s="13">
-        <v>97081</v>
+        <v>89993</v>
       </c>
       <c r="Z56" s="13">
-        <v>90620</v>
+        <v>61560</v>
       </c>
       <c r="AA56" s="13">
-        <v>89993</v>
+        <v>87513</v>
       </c>
       <c r="AB56" s="13">
-        <v>61560</v>
+        <v>117605</v>
       </c>
       <c r="AC56" s="13">
-        <v>87513</v>
+        <v>156675</v>
       </c>
       <c r="AD56" s="13">
-        <v>117605</v>
+        <v>169282</v>
       </c>
       <c r="AE56" s="13">
-        <v>156675</v>
+        <v>162897</v>
       </c>
       <c r="AF56" s="13">
-        <v>169282</v>
+        <v>78322</v>
       </c>
       <c r="AG56" s="13">
-        <v>162897</v>
+        <v>137216</v>
       </c>
       <c r="AH56" s="13">
-        <v>78322</v>
+        <v>114344</v>
       </c>
       <c r="AI56" s="13">
-        <v>137216</v>
-      </c>
-      <c r="AJ56" s="13">
-        <v>114344</v>
-      </c>
-      <c r="AK56" s="13">
         <v>151115</v>
       </c>
+      <c r="AJ56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK56" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL56" s="13" t="s">
         <v>58</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
@@ -7250,11 +7250,11 @@
       <c r="V57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>58</v>
+      <c r="W57" s="11">
+        <v>0</v>
+      </c>
+      <c r="X57" s="11">
+        <v>0</v>
       </c>
       <c r="Y57" s="11">
         <v>0</v>
@@ -7266,88 +7266,88 @@
         <v>0</v>
       </c>
       <c r="AB57" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AC57" s="11">
-        <v>0</v>
+        <v>20274</v>
       </c>
       <c r="AD57" s="11">
-        <v>139</v>
+        <v>18100</v>
       </c>
       <c r="AE57" s="11">
-        <v>20274</v>
+        <v>20666</v>
       </c>
       <c r="AF57" s="11">
-        <v>18100</v>
+        <v>15128</v>
       </c>
       <c r="AG57" s="11">
-        <v>20666</v>
+        <v>22281</v>
       </c>
       <c r="AH57" s="11">
-        <v>15128</v>
+        <v>18496</v>
       </c>
       <c r="AI57" s="11">
-        <v>22281</v>
+        <v>4051</v>
       </c>
       <c r="AJ57" s="11">
-        <v>18496</v>
+        <v>17165</v>
       </c>
       <c r="AK57" s="11">
-        <v>4051</v>
+        <v>26814</v>
       </c>
       <c r="AL57" s="11">
-        <v>17165</v>
+        <v>20510</v>
       </c>
       <c r="AM57" s="11">
-        <v>26814</v>
+        <v>16968</v>
       </c>
       <c r="AN57" s="11">
-        <v>20510</v>
+        <v>11843</v>
       </c>
       <c r="AO57" s="11">
-        <v>16968</v>
+        <v>10903</v>
       </c>
       <c r="AP57" s="11">
-        <v>11843</v>
+        <v>20924</v>
       </c>
       <c r="AQ57" s="11">
-        <v>10903</v>
+        <v>23872</v>
       </c>
       <c r="AR57" s="11">
-        <v>20924</v>
+        <v>14769</v>
       </c>
       <c r="AS57" s="11">
-        <v>23872</v>
+        <v>54069</v>
       </c>
       <c r="AT57" s="11">
-        <v>14769</v>
+        <v>87791</v>
       </c>
       <c r="AU57" s="11">
-        <v>54069</v>
+        <v>47966</v>
       </c>
       <c r="AV57" s="11">
-        <v>87791</v>
+        <v>32088</v>
       </c>
       <c r="AW57" s="11">
-        <v>47966</v>
+        <v>37089</v>
       </c>
       <c r="AX57" s="11">
-        <v>32088</v>
+        <v>52713</v>
       </c>
       <c r="AY57" s="11">
-        <v>37089</v>
+        <v>69643</v>
       </c>
       <c r="AZ57" s="11">
-        <v>52713</v>
+        <v>56822</v>
       </c>
       <c r="BA57" s="11">
-        <v>69643</v>
+        <v>30733</v>
       </c>
       <c r="BB57" s="11">
-        <v>56822</v>
+        <v>31303</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -7409,104 +7409,104 @@
       <c r="V58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="13" t="s">
-        <v>58</v>
+      <c r="W58" s="13">
+        <v>38090</v>
+      </c>
+      <c r="X58" s="13">
+        <v>31395</v>
       </c>
       <c r="Y58" s="13">
-        <v>38090</v>
+        <v>33942</v>
       </c>
       <c r="Z58" s="13">
-        <v>31395</v>
+        <v>11450</v>
       </c>
       <c r="AA58" s="13">
-        <v>33942</v>
+        <v>19661</v>
       </c>
       <c r="AB58" s="13">
-        <v>11450</v>
+        <v>36458</v>
       </c>
       <c r="AC58" s="13">
-        <v>19661</v>
+        <v>32356</v>
       </c>
       <c r="AD58" s="13">
-        <v>36458</v>
+        <v>28306</v>
       </c>
       <c r="AE58" s="13">
-        <v>32356</v>
+        <v>26955</v>
       </c>
       <c r="AF58" s="13">
-        <v>28306</v>
+        <v>35358</v>
       </c>
       <c r="AG58" s="13">
-        <v>26955</v>
+        <v>33961</v>
       </c>
       <c r="AH58" s="13">
-        <v>35358</v>
+        <v>48676</v>
       </c>
       <c r="AI58" s="13">
-        <v>33961</v>
+        <v>46343</v>
       </c>
       <c r="AJ58" s="13">
-        <v>48676</v>
+        <v>41675</v>
       </c>
       <c r="AK58" s="13">
-        <v>46343</v>
+        <v>53974</v>
       </c>
       <c r="AL58" s="13">
-        <v>41675</v>
+        <v>37956</v>
       </c>
       <c r="AM58" s="13">
-        <v>53974</v>
+        <v>40639</v>
       </c>
       <c r="AN58" s="13">
-        <v>37956</v>
+        <v>60893</v>
       </c>
       <c r="AO58" s="13">
-        <v>40639</v>
+        <v>59682</v>
       </c>
       <c r="AP58" s="13">
-        <v>60893</v>
+        <v>53504</v>
       </c>
       <c r="AQ58" s="13">
-        <v>59682</v>
+        <v>43980</v>
       </c>
       <c r="AR58" s="13">
-        <v>53504</v>
+        <v>40528</v>
       </c>
       <c r="AS58" s="13">
-        <v>43980</v>
+        <v>47349</v>
       </c>
       <c r="AT58" s="13">
-        <v>40528</v>
+        <v>71695</v>
       </c>
       <c r="AU58" s="13">
-        <v>47349</v>
+        <v>58421</v>
       </c>
       <c r="AV58" s="13">
-        <v>71695</v>
+        <v>69390</v>
       </c>
       <c r="AW58" s="13">
-        <v>58421</v>
+        <v>63319</v>
       </c>
       <c r="AX58" s="13">
-        <v>69390</v>
+        <v>69415</v>
       </c>
       <c r="AY58" s="13">
-        <v>63319</v>
+        <v>64830</v>
       </c>
       <c r="AZ58" s="13">
-        <v>69415</v>
+        <v>68275</v>
       </c>
       <c r="BA58" s="13">
-        <v>64830</v>
+        <v>65698</v>
       </c>
       <c r="BB58" s="13">
-        <v>68275</v>
+        <v>50097</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>62</v>
       </c>
@@ -7607,65 +7607,65 @@
       <c r="AI59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK59" s="11" t="s">
-        <v>58</v>
+      <c r="AJ59" s="11">
+        <v>17883</v>
+      </c>
+      <c r="AK59" s="11">
+        <v>38099</v>
       </c>
       <c r="AL59" s="11">
-        <v>17883</v>
+        <v>41815</v>
       </c>
       <c r="AM59" s="11">
-        <v>38099</v>
+        <v>42108</v>
       </c>
       <c r="AN59" s="11">
-        <v>41815</v>
+        <v>54331</v>
       </c>
       <c r="AO59" s="11">
-        <v>42108</v>
+        <v>56938</v>
       </c>
       <c r="AP59" s="11">
-        <v>54331</v>
+        <v>25921</v>
       </c>
       <c r="AQ59" s="11">
-        <v>56938</v>
+        <v>31686</v>
       </c>
       <c r="AR59" s="11">
-        <v>25921</v>
+        <v>18819</v>
       </c>
       <c r="AS59" s="11">
-        <v>31686</v>
+        <v>38590</v>
       </c>
       <c r="AT59" s="11">
-        <v>18819</v>
+        <v>62732</v>
       </c>
       <c r="AU59" s="11">
-        <v>38590</v>
+        <v>61727</v>
       </c>
       <c r="AV59" s="11">
-        <v>62732</v>
+        <v>78589</v>
       </c>
       <c r="AW59" s="11">
-        <v>61727</v>
+        <v>62814</v>
       </c>
       <c r="AX59" s="11">
-        <v>78589</v>
+        <v>83834</v>
       </c>
       <c r="AY59" s="11">
-        <v>62814</v>
+        <v>101177</v>
       </c>
       <c r="AZ59" s="11">
-        <v>83834</v>
+        <v>67642</v>
       </c>
       <c r="BA59" s="11">
-        <v>101177</v>
+        <v>76052</v>
       </c>
       <c r="BB59" s="11">
-        <v>67642</v>
+        <v>82419</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>63</v>
       </c>
@@ -7727,104 +7727,104 @@
       <c r="V60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>58</v>
+      <c r="W60" s="13">
+        <v>1117</v>
+      </c>
+      <c r="X60" s="13">
+        <v>1635</v>
       </c>
       <c r="Y60" s="13">
-        <v>1117</v>
+        <v>1975</v>
       </c>
       <c r="Z60" s="13">
-        <v>1635</v>
+        <v>2050</v>
       </c>
       <c r="AA60" s="13">
-        <v>1975</v>
+        <v>2293</v>
       </c>
       <c r="AB60" s="13">
-        <v>2050</v>
+        <v>2206</v>
       </c>
       <c r="AC60" s="13">
-        <v>2293</v>
+        <v>1972</v>
       </c>
       <c r="AD60" s="13">
-        <v>2206</v>
+        <v>1597</v>
       </c>
       <c r="AE60" s="13">
-        <v>1972</v>
+        <v>2083</v>
       </c>
       <c r="AF60" s="13">
-        <v>1597</v>
+        <v>1733</v>
       </c>
       <c r="AG60" s="13">
-        <v>2083</v>
+        <v>1483</v>
       </c>
       <c r="AH60" s="13">
-        <v>1733</v>
+        <v>1923</v>
       </c>
       <c r="AI60" s="13">
-        <v>1483</v>
+        <v>3448</v>
       </c>
       <c r="AJ60" s="13">
-        <v>1923</v>
+        <v>2309</v>
       </c>
       <c r="AK60" s="13">
-        <v>3448</v>
+        <v>1393</v>
       </c>
       <c r="AL60" s="13">
-        <v>2309</v>
+        <v>4780</v>
       </c>
       <c r="AM60" s="13">
-        <v>1393</v>
+        <v>896</v>
       </c>
       <c r="AN60" s="13">
-        <v>4780</v>
+        <v>6242</v>
       </c>
       <c r="AO60" s="13">
-        <v>896</v>
+        <v>2402</v>
       </c>
       <c r="AP60" s="13">
-        <v>6242</v>
+        <v>2103</v>
       </c>
       <c r="AQ60" s="13">
-        <v>2402</v>
+        <v>3108</v>
       </c>
       <c r="AR60" s="13">
-        <v>2103</v>
+        <v>925</v>
       </c>
       <c r="AS60" s="13">
-        <v>3108</v>
+        <v>1365</v>
       </c>
       <c r="AT60" s="13">
-        <v>925</v>
+        <v>9521</v>
       </c>
       <c r="AU60" s="13">
-        <v>1365</v>
+        <v>4365</v>
       </c>
       <c r="AV60" s="13">
-        <v>9521</v>
+        <v>3417</v>
       </c>
       <c r="AW60" s="13">
-        <v>4365</v>
+        <v>6162</v>
       </c>
       <c r="AX60" s="13">
-        <v>3417</v>
+        <v>4307</v>
       </c>
       <c r="AY60" s="13">
-        <v>6162</v>
+        <v>7673</v>
       </c>
       <c r="AZ60" s="13">
-        <v>4307</v>
+        <v>5186</v>
       </c>
       <c r="BA60" s="13">
-        <v>7673</v>
+        <v>8550</v>
       </c>
       <c r="BB60" s="13">
-        <v>5186</v>
+        <v>3366</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>64</v>
       </c>
@@ -7925,65 +7925,65 @@
       <c r="AI61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK61" s="11" t="s">
-        <v>58</v>
+      <c r="AJ61" s="11">
+        <v>68294</v>
+      </c>
+      <c r="AK61" s="11">
+        <v>107180</v>
       </c>
       <c r="AL61" s="11">
-        <v>68294</v>
+        <v>123666</v>
       </c>
       <c r="AM61" s="11">
-        <v>107180</v>
+        <v>176526</v>
       </c>
       <c r="AN61" s="11">
-        <v>123666</v>
+        <v>107499</v>
       </c>
       <c r="AO61" s="11">
-        <v>176526</v>
+        <v>108387</v>
       </c>
       <c r="AP61" s="11">
-        <v>107499</v>
+        <v>101484</v>
       </c>
       <c r="AQ61" s="11">
-        <v>108387</v>
+        <v>82411</v>
       </c>
       <c r="AR61" s="11">
-        <v>101484</v>
+        <v>41540</v>
       </c>
       <c r="AS61" s="11">
-        <v>82411</v>
+        <v>178731</v>
       </c>
       <c r="AT61" s="11">
-        <v>41540</v>
+        <v>249924</v>
       </c>
       <c r="AU61" s="11">
-        <v>178731</v>
+        <v>258443</v>
       </c>
       <c r="AV61" s="11">
-        <v>249924</v>
+        <v>241641</v>
       </c>
       <c r="AW61" s="11">
-        <v>258443</v>
+        <v>249318</v>
       </c>
       <c r="AX61" s="11">
-        <v>241641</v>
+        <v>237838</v>
       </c>
       <c r="AY61" s="11">
-        <v>249318</v>
+        <v>282067</v>
       </c>
       <c r="AZ61" s="11">
-        <v>237838</v>
+        <v>349906</v>
       </c>
       <c r="BA61" s="11">
-        <v>282067</v>
+        <v>312494</v>
       </c>
       <c r="BB61" s="11">
-        <v>349906</v>
+        <v>89202</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>65</v>
       </c>
@@ -8084,65 +8084,65 @@
       <c r="AI62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK62" s="13" t="s">
-        <v>58</v>
+      <c r="AJ62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="13">
+        <v>0</v>
       </c>
       <c r="AL62" s="13">
-        <v>0</v>
+        <v>5443</v>
       </c>
       <c r="AM62" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN62" s="13">
-        <v>5443</v>
+        <v>4558</v>
       </c>
       <c r="AO62" s="13">
-        <v>2</v>
+        <v>3898</v>
       </c>
       <c r="AP62" s="13">
-        <v>4558</v>
+        <v>2074</v>
       </c>
       <c r="AQ62" s="13">
-        <v>3898</v>
+        <v>5237</v>
       </c>
       <c r="AR62" s="13">
-        <v>2074</v>
+        <v>852</v>
       </c>
       <c r="AS62" s="13">
-        <v>5237</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="13">
-        <v>852</v>
+        <v>37771</v>
       </c>
       <c r="AU62" s="13">
-        <v>0</v>
+        <v>15440</v>
       </c>
       <c r="AV62" s="13">
-        <v>37771</v>
+        <v>20116</v>
       </c>
       <c r="AW62" s="13">
-        <v>15440</v>
+        <v>6325</v>
       </c>
       <c r="AX62" s="13">
-        <v>20116</v>
+        <v>21737</v>
       </c>
       <c r="AY62" s="13">
-        <v>6325</v>
+        <v>19791</v>
       </c>
       <c r="AZ62" s="13">
-        <v>21737</v>
+        <v>25144</v>
       </c>
       <c r="BA62" s="13">
-        <v>19791</v>
+        <v>29009</v>
       </c>
       <c r="BB62" s="13">
-        <v>25144</v>
+        <v>12877</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>66</v>
       </c>
@@ -8243,65 +8243,65 @@
       <c r="AI63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK63" s="11" t="s">
-        <v>58</v>
+      <c r="AJ63" s="11">
+        <v>30428</v>
+      </c>
+      <c r="AK63" s="11">
+        <v>46166</v>
       </c>
       <c r="AL63" s="11">
-        <v>30428</v>
+        <v>34878</v>
       </c>
       <c r="AM63" s="11">
-        <v>46166</v>
+        <v>60236</v>
       </c>
       <c r="AN63" s="11">
-        <v>34878</v>
+        <v>28516</v>
       </c>
       <c r="AO63" s="11">
-        <v>60236</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="11">
-        <v>28516</v>
+        <v>61938</v>
       </c>
       <c r="AQ63" s="11">
-        <v>0</v>
+        <v>49168</v>
       </c>
       <c r="AR63" s="11">
-        <v>61938</v>
+        <v>27433</v>
       </c>
       <c r="AS63" s="11">
-        <v>49168</v>
+        <v>88454</v>
       </c>
       <c r="AT63" s="11">
-        <v>27433</v>
+        <v>74263</v>
       </c>
       <c r="AU63" s="11">
-        <v>88454</v>
+        <v>68176</v>
       </c>
       <c r="AV63" s="11">
-        <v>74263</v>
+        <v>98954</v>
       </c>
       <c r="AW63" s="11">
-        <v>68176</v>
+        <v>128413</v>
       </c>
       <c r="AX63" s="11">
-        <v>98954</v>
+        <v>90327</v>
       </c>
       <c r="AY63" s="11">
-        <v>128413</v>
+        <v>164530</v>
       </c>
       <c r="AZ63" s="11">
-        <v>90327</v>
+        <v>100921</v>
       </c>
       <c r="BA63" s="11">
-        <v>164530</v>
+        <v>152963</v>
       </c>
       <c r="BB63" s="11">
-        <v>100921</v>
+        <v>114120</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>75</v>
       </c>
@@ -8362,103 +8362,103 @@
         <v>0</v>
       </c>
       <c r="W64" s="15">
-        <v>0</v>
+        <v>274813</v>
       </c>
       <c r="X64" s="15">
-        <v>0</v>
+        <v>265550</v>
       </c>
       <c r="Y64" s="15">
-        <v>274813</v>
+        <v>293262</v>
       </c>
       <c r="Z64" s="15">
-        <v>265550</v>
+        <v>231111</v>
       </c>
       <c r="AA64" s="15">
-        <v>293262</v>
+        <v>301316</v>
       </c>
       <c r="AB64" s="15">
-        <v>231111</v>
+        <v>365815</v>
       </c>
       <c r="AC64" s="15">
-        <v>301316</v>
+        <v>411731</v>
       </c>
       <c r="AD64" s="15">
-        <v>365815</v>
+        <v>420424</v>
       </c>
       <c r="AE64" s="15">
-        <v>411731</v>
+        <v>395370</v>
       </c>
       <c r="AF64" s="15">
-        <v>420424</v>
+        <v>260890</v>
       </c>
       <c r="AG64" s="15">
-        <v>395370</v>
+        <v>430237</v>
       </c>
       <c r="AH64" s="15">
-        <v>260890</v>
+        <v>415201</v>
       </c>
       <c r="AI64" s="15">
-        <v>430237</v>
+        <v>458149</v>
       </c>
       <c r="AJ64" s="15">
-        <v>415201</v>
+        <v>398505</v>
       </c>
       <c r="AK64" s="15">
-        <v>458149</v>
+        <v>550104</v>
       </c>
       <c r="AL64" s="15">
-        <v>398505</v>
+        <v>528705</v>
       </c>
       <c r="AM64" s="15">
-        <v>550104</v>
+        <v>657318</v>
       </c>
       <c r="AN64" s="15">
-        <v>528705</v>
+        <v>584716</v>
       </c>
       <c r="AO64" s="15">
-        <v>657318</v>
+        <v>555405</v>
       </c>
       <c r="AP64" s="15">
-        <v>584716</v>
+        <v>580443</v>
       </c>
       <c r="AQ64" s="15">
-        <v>555405</v>
+        <v>538427</v>
       </c>
       <c r="AR64" s="15">
-        <v>580443</v>
+        <v>339613</v>
       </c>
       <c r="AS64" s="15">
-        <v>538427</v>
+        <v>813234</v>
       </c>
       <c r="AT64" s="15">
-        <v>339613</v>
+        <v>1167883</v>
       </c>
       <c r="AU64" s="15">
-        <v>813234</v>
+        <v>1122958</v>
       </c>
       <c r="AV64" s="15">
-        <v>1167883</v>
+        <v>1118349</v>
       </c>
       <c r="AW64" s="15">
-        <v>1122958</v>
+        <v>1113482</v>
       </c>
       <c r="AX64" s="15">
-        <v>1118349</v>
+        <v>1114764</v>
       </c>
       <c r="AY64" s="15">
-        <v>1113482</v>
+        <v>1348347</v>
       </c>
       <c r="AZ64" s="15">
-        <v>1114764</v>
+        <v>1308884</v>
       </c>
       <c r="BA64" s="15">
-        <v>1348347</v>
+        <v>1320005</v>
       </c>
       <c r="BB64" s="15">
-        <v>1308884</v>
+        <v>993489</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
         <v>83</v>
       </c>
@@ -8515,7 +8515,7 @@
       <c r="BA65" s="17"/>
       <c r="BB65" s="17"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>77</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>84</v>
       </c>
@@ -8729,7 +8729,7 @@
       <c r="BA67" s="17"/>
       <c r="BB67" s="17"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>71</v>
       </c>
@@ -8791,11 +8791,11 @@
       <c r="V68" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="19" t="s">
-        <v>58</v>
+      <c r="W68" s="19">
+        <v>0</v>
+      </c>
+      <c r="X68" s="19">
+        <v>0</v>
       </c>
       <c r="Y68" s="19">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
         <v>85</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="BA69" s="17"/>
       <c r="BB69" s="17"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>79</v>
       </c>
@@ -9007,11 +9007,11 @@
       <c r="V70" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="19" t="s">
-        <v>58</v>
+      <c r="W70" s="19">
+        <v>0</v>
+      </c>
+      <c r="X70" s="19">
+        <v>0</v>
       </c>
       <c r="Y70" s="19">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>86</v>
       </c>
@@ -9161,7 +9161,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>87</v>
       </c>
@@ -9223,11 +9223,11 @@
       <c r="V72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X72" s="11" t="s">
-        <v>58</v>
+      <c r="W72" s="11">
+        <v>0</v>
+      </c>
+      <c r="X72" s="11">
+        <v>0</v>
       </c>
       <c r="Y72" s="11">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>72</v>
       </c>
@@ -9381,103 +9381,103 @@
         <v>0</v>
       </c>
       <c r="W73" s="15">
-        <v>0</v>
+        <v>274813</v>
       </c>
       <c r="X73" s="15">
-        <v>0</v>
+        <v>265550</v>
       </c>
       <c r="Y73" s="15">
-        <v>274813</v>
+        <v>293262</v>
       </c>
       <c r="Z73" s="15">
-        <v>265550</v>
+        <v>231111</v>
       </c>
       <c r="AA73" s="15">
-        <v>293262</v>
+        <v>301316</v>
       </c>
       <c r="AB73" s="15">
-        <v>231111</v>
+        <v>365815</v>
       </c>
       <c r="AC73" s="15">
-        <v>301316</v>
+        <v>411731</v>
       </c>
       <c r="AD73" s="15">
-        <v>365815</v>
+        <v>420424</v>
       </c>
       <c r="AE73" s="15">
-        <v>411731</v>
+        <v>395370</v>
       </c>
       <c r="AF73" s="15">
-        <v>420424</v>
+        <v>260890</v>
       </c>
       <c r="AG73" s="15">
-        <v>395370</v>
+        <v>430237</v>
       </c>
       <c r="AH73" s="15">
-        <v>260890</v>
+        <v>415201</v>
       </c>
       <c r="AI73" s="15">
-        <v>430237</v>
+        <v>458149</v>
       </c>
       <c r="AJ73" s="15">
-        <v>415201</v>
+        <v>398505</v>
       </c>
       <c r="AK73" s="15">
-        <v>458149</v>
+        <v>550104</v>
       </c>
       <c r="AL73" s="15">
-        <v>398505</v>
+        <v>528705</v>
       </c>
       <c r="AM73" s="15">
-        <v>550104</v>
+        <v>657318</v>
       </c>
       <c r="AN73" s="15">
-        <v>528705</v>
+        <v>584716</v>
       </c>
       <c r="AO73" s="15">
-        <v>657318</v>
+        <v>555405</v>
       </c>
       <c r="AP73" s="15">
-        <v>584716</v>
+        <v>580443</v>
       </c>
       <c r="AQ73" s="15">
-        <v>555405</v>
+        <v>538427</v>
       </c>
       <c r="AR73" s="15">
-        <v>580443</v>
+        <v>339613</v>
       </c>
       <c r="AS73" s="15">
-        <v>538427</v>
+        <v>813234</v>
       </c>
       <c r="AT73" s="15">
-        <v>339613</v>
+        <v>1167883</v>
       </c>
       <c r="AU73" s="15">
-        <v>813234</v>
+        <v>1122958</v>
       </c>
       <c r="AV73" s="15">
-        <v>1167883</v>
+        <v>1118349</v>
       </c>
       <c r="AW73" s="15">
-        <v>1122958</v>
+        <v>1113482</v>
       </c>
       <c r="AX73" s="15">
-        <v>1118349</v>
+        <v>1114764</v>
       </c>
       <c r="AY73" s="15">
-        <v>1113482</v>
+        <v>1348347</v>
       </c>
       <c r="AZ73" s="15">
-        <v>1114764</v>
+        <v>1308884</v>
       </c>
       <c r="BA73" s="15">
-        <v>1348347</v>
+        <v>1320005</v>
       </c>
       <c r="BB73" s="15">
-        <v>1308884</v>
+        <v>993489</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9532,7 +9532,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9587,7 +9587,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9642,7 +9642,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>88</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9854,7 +9854,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>89</v>
       </c>
@@ -9911,7 +9911,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>56</v>
       </c>
@@ -9973,104 +9973,104 @@
       <c r="V80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="11" t="s">
-        <v>58</v>
+      <c r="W80" s="11">
+        <v>149918831</v>
+      </c>
+      <c r="X80" s="11">
+        <v>162729358</v>
       </c>
       <c r="Y80" s="11">
-        <v>149918831</v>
+        <v>175974763</v>
       </c>
       <c r="Z80" s="11">
-        <v>162729358</v>
+        <v>193852174</v>
       </c>
       <c r="AA80" s="11">
-        <v>175974763</v>
+        <v>203229873</v>
       </c>
       <c r="AB80" s="11">
-        <v>193852174</v>
+        <v>211308779</v>
       </c>
       <c r="AC80" s="11">
-        <v>203229873</v>
+        <v>204544898</v>
       </c>
       <c r="AD80" s="11">
-        <v>211308779</v>
+        <v>207073395</v>
       </c>
       <c r="AE80" s="11">
-        <v>204544898</v>
+        <v>215275618</v>
       </c>
       <c r="AF80" s="11">
-        <v>207073395</v>
+        <v>215452893</v>
       </c>
       <c r="AG80" s="11">
-        <v>215275618</v>
+        <v>252734694</v>
       </c>
       <c r="AH80" s="11">
-        <v>215452893</v>
+        <v>258374582</v>
       </c>
       <c r="AI80" s="11">
-        <v>252734694</v>
+        <v>258359184</v>
       </c>
       <c r="AJ80" s="11">
-        <v>258374582</v>
+        <v>258490632</v>
       </c>
       <c r="AK80" s="11">
-        <v>258359184</v>
+        <v>263061846</v>
       </c>
       <c r="AL80" s="11">
-        <v>258490632</v>
+        <v>290769317</v>
       </c>
       <c r="AM80" s="11">
-        <v>263061846</v>
+        <v>290593097</v>
       </c>
       <c r="AN80" s="11">
-        <v>290769317</v>
+        <v>290770814</v>
       </c>
       <c r="AO80" s="11">
-        <v>290593097</v>
+        <v>290533395</v>
       </c>
       <c r="AP80" s="11">
-        <v>290770814</v>
+        <v>295923295</v>
       </c>
       <c r="AQ80" s="11">
-        <v>290533395</v>
+        <v>312724895</v>
       </c>
       <c r="AR80" s="11">
-        <v>295923295</v>
+        <v>321364686</v>
       </c>
       <c r="AS80" s="11">
-        <v>312724895</v>
+        <v>456229989</v>
       </c>
       <c r="AT80" s="11">
-        <v>321364686</v>
+        <v>519155515</v>
       </c>
       <c r="AU80" s="11">
-        <v>456229989</v>
+        <v>513434599</v>
       </c>
       <c r="AV80" s="11">
-        <v>519155515</v>
+        <v>541654717</v>
       </c>
       <c r="AW80" s="11">
-        <v>513434599</v>
+        <v>541626692</v>
       </c>
       <c r="AX80" s="11">
-        <v>541654717</v>
+        <v>542124145</v>
       </c>
       <c r="AY80" s="11">
-        <v>541626692</v>
+        <v>576386282</v>
       </c>
       <c r="AZ80" s="11">
-        <v>542124145</v>
+        <v>576214156</v>
       </c>
       <c r="BA80" s="11">
-        <v>576386282</v>
+        <v>575966041</v>
       </c>
       <c r="BB80" s="11">
-        <v>576214156</v>
+        <v>576114259</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>59</v>
       </c>
@@ -10132,51 +10132,51 @@
       <c r="V81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="13" t="s">
-        <v>58</v>
+      <c r="W81" s="13">
+        <v>125265806</v>
+      </c>
+      <c r="X81" s="13">
+        <v>133855244</v>
       </c>
       <c r="Y81" s="13">
-        <v>125265806</v>
+        <v>134317910</v>
       </c>
       <c r="Z81" s="13">
-        <v>133855244</v>
+        <v>165040214</v>
       </c>
       <c r="AA81" s="13">
-        <v>134317910</v>
+        <v>150108062</v>
       </c>
       <c r="AB81" s="13">
-        <v>165040214</v>
+        <v>143947368</v>
       </c>
       <c r="AC81" s="13">
-        <v>150108062</v>
+        <v>154664363</v>
       </c>
       <c r="AD81" s="13">
-        <v>143947368</v>
+        <v>163084778</v>
       </c>
       <c r="AE81" s="13">
-        <v>154664363</v>
+        <v>172743372</v>
       </c>
       <c r="AF81" s="13">
-        <v>163084778</v>
+        <v>159191057</v>
       </c>
       <c r="AG81" s="13">
-        <v>172743372</v>
+        <v>178202597</v>
       </c>
       <c r="AH81" s="13">
-        <v>159191057</v>
+        <v>173775076</v>
       </c>
       <c r="AI81" s="13">
-        <v>178202597</v>
-      </c>
-      <c r="AJ81" s="13">
-        <v>173775076</v>
-      </c>
-      <c r="AK81" s="13">
         <v>183614824</v>
       </c>
+      <c r="AJ81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK81" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL81" s="13" t="s">
         <v>58</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>60</v>
       </c>
@@ -10306,89 +10306,89 @@
       <c r="AA82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC82" s="11" t="s">
-        <v>58</v>
+      <c r="AB82" s="11">
+        <v>139000000</v>
+      </c>
+      <c r="AC82" s="11">
+        <v>184309091</v>
       </c>
       <c r="AD82" s="11">
-        <v>139000000</v>
+        <v>184693878</v>
       </c>
       <c r="AE82" s="11">
-        <v>184309091</v>
+        <v>184517857</v>
       </c>
       <c r="AF82" s="11">
-        <v>184693878</v>
+        <v>199052632</v>
       </c>
       <c r="AG82" s="11">
-        <v>184517857</v>
+        <v>229701031</v>
       </c>
       <c r="AH82" s="11">
-        <v>199052632</v>
+        <v>231200000</v>
       </c>
       <c r="AI82" s="11">
-        <v>229701031</v>
+        <v>225055556</v>
       </c>
       <c r="AJ82" s="11">
-        <v>231200000</v>
+        <v>231959459</v>
       </c>
       <c r="AK82" s="11">
-        <v>225055556</v>
+        <v>243763636</v>
       </c>
       <c r="AL82" s="11">
-        <v>231959459</v>
+        <v>266363636</v>
       </c>
       <c r="AM82" s="11">
-        <v>243763636</v>
+        <v>273677419</v>
       </c>
       <c r="AN82" s="11">
-        <v>266363636</v>
+        <v>275418605</v>
       </c>
       <c r="AO82" s="11">
-        <v>273677419</v>
+        <v>279564103</v>
       </c>
       <c r="AP82" s="11">
-        <v>275418605</v>
+        <v>275315789</v>
       </c>
       <c r="AQ82" s="11">
-        <v>279564103</v>
+        <v>277581395</v>
       </c>
       <c r="AR82" s="11">
-        <v>275315789</v>
+        <v>278660377</v>
       </c>
       <c r="AS82" s="11">
-        <v>277581395</v>
+        <v>505317757</v>
       </c>
       <c r="AT82" s="11">
-        <v>278660377</v>
+        <v>645522059</v>
       </c>
       <c r="AU82" s="11">
-        <v>505317757</v>
+        <v>614948718</v>
       </c>
       <c r="AV82" s="11">
-        <v>645522059</v>
+        <v>605433962</v>
       </c>
       <c r="AW82" s="11">
-        <v>614948718</v>
+        <v>608016393</v>
       </c>
       <c r="AX82" s="11">
-        <v>605433962</v>
+        <v>599011364</v>
       </c>
       <c r="AY82" s="11">
-        <v>608016393</v>
+        <v>605591304</v>
       </c>
       <c r="AZ82" s="11">
-        <v>599011364</v>
+        <v>579816327</v>
       </c>
       <c r="BA82" s="11">
-        <v>605591304</v>
+        <v>579867925</v>
       </c>
       <c r="BB82" s="11">
-        <v>579816327</v>
+        <v>579685185</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>61</v>
       </c>
@@ -10450,104 +10450,104 @@
       <c r="V83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="13" t="s">
-        <v>58</v>
+      <c r="W83" s="13">
+        <v>18000945</v>
+      </c>
+      <c r="X83" s="13">
+        <v>18001720</v>
       </c>
       <c r="Y83" s="13">
-        <v>18000945</v>
+        <v>17996819</v>
       </c>
       <c r="Z83" s="13">
-        <v>18001720</v>
+        <v>18003145</v>
       </c>
       <c r="AA83" s="13">
-        <v>17996819</v>
+        <v>18004579</v>
       </c>
       <c r="AB83" s="13">
-        <v>18003145</v>
+        <v>17995064</v>
       </c>
       <c r="AC83" s="13">
-        <v>18004579</v>
+        <v>17995551</v>
       </c>
       <c r="AD83" s="13">
-        <v>17995064</v>
+        <v>17994914</v>
       </c>
       <c r="AE83" s="13">
-        <v>17995551</v>
+        <v>18018048</v>
       </c>
       <c r="AF83" s="13">
-        <v>17994914</v>
+        <v>27995249</v>
       </c>
       <c r="AG83" s="13">
-        <v>18018048</v>
+        <v>27997527</v>
       </c>
       <c r="AH83" s="13">
-        <v>27995249</v>
+        <v>28006904</v>
       </c>
       <c r="AI83" s="13">
-        <v>27997527</v>
+        <v>28001813</v>
       </c>
       <c r="AJ83" s="13">
-        <v>28006904</v>
+        <v>27988583</v>
       </c>
       <c r="AK83" s="13">
-        <v>28001813</v>
+        <v>28009341</v>
       </c>
       <c r="AL83" s="13">
-        <v>27988583</v>
+        <v>27991150</v>
       </c>
       <c r="AM83" s="13">
-        <v>28009341</v>
+        <v>28007581</v>
       </c>
       <c r="AN83" s="13">
-        <v>27991150</v>
+        <v>27996782</v>
       </c>
       <c r="AO83" s="13">
-        <v>28007581</v>
+        <v>28006570</v>
       </c>
       <c r="AP83" s="13">
-        <v>27996782</v>
+        <v>27997907</v>
       </c>
       <c r="AQ83" s="13">
-        <v>28006570</v>
+        <v>27994908</v>
       </c>
       <c r="AR83" s="13">
-        <v>27997907</v>
+        <v>41020243</v>
       </c>
       <c r="AS83" s="13">
-        <v>27994908</v>
+        <v>40994805</v>
       </c>
       <c r="AT83" s="13">
-        <v>41020243</v>
+        <v>40991995</v>
       </c>
       <c r="AU83" s="13">
-        <v>40994805</v>
+        <v>40997193</v>
       </c>
       <c r="AV83" s="13">
-        <v>40991995</v>
+        <v>41010638</v>
       </c>
       <c r="AW83" s="13">
-        <v>40997193</v>
+        <v>41009715</v>
       </c>
       <c r="AX83" s="13">
-        <v>41010638</v>
+        <v>40976978</v>
       </c>
       <c r="AY83" s="13">
-        <v>41009715</v>
+        <v>41005693</v>
       </c>
       <c r="AZ83" s="13">
-        <v>40976978</v>
+        <v>41030649</v>
       </c>
       <c r="BA83" s="13">
-        <v>41005693</v>
+        <v>40984404</v>
       </c>
       <c r="BB83" s="13">
-        <v>41030649</v>
+        <v>40995908</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>62</v>
       </c>
@@ -10648,65 +10648,65 @@
       <c r="AI84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK84" s="11" t="s">
-        <v>58</v>
+      <c r="AJ84" s="11">
+        <v>162572727</v>
+      </c>
+      <c r="AK84" s="11">
+        <v>175571429</v>
       </c>
       <c r="AL84" s="11">
-        <v>162572727</v>
+        <v>184207048</v>
       </c>
       <c r="AM84" s="11">
-        <v>175571429</v>
+        <v>187982143</v>
       </c>
       <c r="AN84" s="11">
-        <v>184207048</v>
+        <v>181709030</v>
       </c>
       <c r="AO84" s="11">
-        <v>187982143</v>
+        <v>179615142</v>
       </c>
       <c r="AP84" s="11">
-        <v>181709030</v>
+        <v>196371212</v>
       </c>
       <c r="AQ84" s="11">
-        <v>179615142</v>
+        <v>186388235</v>
       </c>
       <c r="AR84" s="11">
-        <v>196371212</v>
+        <v>182708738</v>
       </c>
       <c r="AS84" s="11">
-        <v>186388235</v>
+        <v>350818182</v>
       </c>
       <c r="AT84" s="11">
-        <v>182708738</v>
+        <v>412710526</v>
       </c>
       <c r="AU84" s="11">
-        <v>350818182</v>
+        <v>444079137</v>
       </c>
       <c r="AV84" s="11">
-        <v>412710526</v>
+        <v>363837963</v>
       </c>
       <c r="AW84" s="11">
-        <v>444079137</v>
+        <v>390149068</v>
       </c>
       <c r="AX84" s="11">
-        <v>363837963</v>
+        <v>403048077</v>
       </c>
       <c r="AY84" s="11">
-        <v>390149068</v>
+        <v>468412037</v>
       </c>
       <c r="AZ84" s="11">
-        <v>403048077</v>
+        <v>469736111</v>
       </c>
       <c r="BA84" s="11">
-        <v>468412037</v>
+        <v>478314465</v>
       </c>
       <c r="BB84" s="11">
-        <v>469736111</v>
+        <v>465644068</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>63</v>
       </c>
@@ -10768,104 +10768,104 @@
       <c r="V85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="13" t="s">
-        <v>58</v>
+      <c r="W85" s="13">
+        <v>223400000</v>
+      </c>
+      <c r="X85" s="13">
+        <v>204375000</v>
       </c>
       <c r="Y85" s="13">
-        <v>223400000</v>
+        <v>246875000</v>
       </c>
       <c r="Z85" s="13">
-        <v>204375000</v>
+        <v>292857143</v>
       </c>
       <c r="AA85" s="13">
-        <v>246875000</v>
+        <v>327571429</v>
       </c>
       <c r="AB85" s="13">
-        <v>292857143</v>
+        <v>441200000</v>
       </c>
       <c r="AC85" s="13">
-        <v>327571429</v>
+        <v>394400000</v>
       </c>
       <c r="AD85" s="13">
-        <v>441200000</v>
+        <v>399250000</v>
       </c>
       <c r="AE85" s="13">
-        <v>394400000</v>
+        <v>297571429</v>
       </c>
       <c r="AF85" s="13">
-        <v>399250000</v>
+        <v>433250000</v>
       </c>
       <c r="AG85" s="13">
-        <v>297571429</v>
+        <v>370750000</v>
       </c>
       <c r="AH85" s="13">
-        <v>433250000</v>
+        <v>480750000</v>
       </c>
       <c r="AI85" s="13">
-        <v>370750000</v>
+        <v>431000000</v>
       </c>
       <c r="AJ85" s="13">
-        <v>480750000</v>
+        <v>461800000</v>
       </c>
       <c r="AK85" s="13">
-        <v>431000000</v>
+        <v>464333333</v>
       </c>
       <c r="AL85" s="13">
-        <v>461800000</v>
+        <v>478000000</v>
       </c>
       <c r="AM85" s="13">
-        <v>464333333</v>
+        <v>448000000</v>
       </c>
       <c r="AN85" s="13">
-        <v>478000000</v>
+        <v>445857143</v>
       </c>
       <c r="AO85" s="13">
-        <v>448000000</v>
+        <v>480400000</v>
       </c>
       <c r="AP85" s="13">
-        <v>445857143</v>
+        <v>525750000</v>
       </c>
       <c r="AQ85" s="13">
-        <v>480400000</v>
+        <v>621600000</v>
       </c>
       <c r="AR85" s="13">
-        <v>525750000</v>
+        <v>462500000</v>
       </c>
       <c r="AS85" s="13">
-        <v>621600000</v>
+        <v>682500000</v>
       </c>
       <c r="AT85" s="13">
-        <v>462500000</v>
+        <v>793416667</v>
       </c>
       <c r="AU85" s="13">
-        <v>682500000</v>
+        <v>873000000</v>
       </c>
       <c r="AV85" s="13">
-        <v>793416667</v>
+        <v>683400000</v>
       </c>
       <c r="AW85" s="13">
-        <v>873000000</v>
+        <v>880285714</v>
       </c>
       <c r="AX85" s="13">
-        <v>683400000</v>
+        <v>861400000</v>
       </c>
       <c r="AY85" s="13">
-        <v>880285714</v>
+        <v>852555556</v>
       </c>
       <c r="AZ85" s="13">
-        <v>861400000</v>
+        <v>864333333</v>
       </c>
       <c r="BA85" s="13">
-        <v>852555556</v>
+        <v>855000000</v>
       </c>
       <c r="BB85" s="13">
-        <v>864333333</v>
+        <v>841500000</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>64</v>
       </c>
@@ -10966,65 +10966,65 @@
       <c r="AI86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK86" s="11" t="s">
-        <v>58</v>
+      <c r="AJ86" s="11">
+        <v>160691765</v>
+      </c>
+      <c r="AK86" s="11">
+        <v>183213675</v>
       </c>
       <c r="AL86" s="11">
-        <v>160691765</v>
+        <v>197549521</v>
       </c>
       <c r="AM86" s="11">
-        <v>183213675</v>
+        <v>203605536</v>
       </c>
       <c r="AN86" s="11">
-        <v>197549521</v>
+        <v>204370722</v>
       </c>
       <c r="AO86" s="11">
-        <v>203605536</v>
+        <v>201089054</v>
       </c>
       <c r="AP86" s="11">
-        <v>204370722</v>
+        <v>202562874</v>
       </c>
       <c r="AQ86" s="11">
-        <v>201089054</v>
+        <v>203483951</v>
       </c>
       <c r="AR86" s="11">
-        <v>202562874</v>
+        <v>210862944</v>
       </c>
       <c r="AS86" s="11">
-        <v>203483951</v>
+        <v>364757143</v>
       </c>
       <c r="AT86" s="11">
-        <v>210862944</v>
+        <v>469781955</v>
       </c>
       <c r="AU86" s="11">
-        <v>364757143</v>
+        <v>472473492</v>
       </c>
       <c r="AV86" s="11">
-        <v>469781955</v>
+        <v>461146947</v>
       </c>
       <c r="AW86" s="11">
-        <v>472473492</v>
+        <v>455791590</v>
       </c>
       <c r="AX86" s="11">
-        <v>461146947</v>
+        <v>460926357</v>
       </c>
       <c r="AY86" s="11">
-        <v>455791590</v>
+        <v>548768482</v>
       </c>
       <c r="AZ86" s="11">
-        <v>460926357</v>
+        <v>548442006</v>
       </c>
       <c r="BA86" s="11">
-        <v>548768482</v>
+        <v>544414634</v>
       </c>
       <c r="BB86" s="11">
-        <v>548442006</v>
+        <v>550629630</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>65</v>
       </c>
@@ -11131,59 +11131,59 @@
       <c r="AK87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM87" s="13" t="s">
-        <v>58</v>
+      <c r="AL87" s="13">
+        <v>187689655</v>
+      </c>
+      <c r="AM87" s="13">
+        <v>2000000</v>
       </c>
       <c r="AN87" s="13">
-        <v>187689655</v>
+        <v>207181818</v>
       </c>
       <c r="AO87" s="13">
-        <v>2000000</v>
+        <v>194900000</v>
       </c>
       <c r="AP87" s="13">
-        <v>207181818</v>
+        <v>207400000</v>
       </c>
       <c r="AQ87" s="13">
-        <v>194900000</v>
+        <v>193962963</v>
       </c>
       <c r="AR87" s="13">
-        <v>207400000</v>
-      </c>
-      <c r="AS87" s="13">
-        <v>193962963</v>
+        <v>213000000</v>
+      </c>
+      <c r="AS87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT87" s="13">
-        <v>213000000</v>
-      </c>
-      <c r="AU87" s="13" t="s">
-        <v>58</v>
+        <v>415065934</v>
+      </c>
+      <c r="AU87" s="13">
+        <v>406315789</v>
       </c>
       <c r="AV87" s="13">
-        <v>415065934</v>
+        <v>410530612</v>
       </c>
       <c r="AW87" s="13">
-        <v>406315789</v>
+        <v>395312500</v>
       </c>
       <c r="AX87" s="13">
-        <v>410530612</v>
+        <v>402537037</v>
       </c>
       <c r="AY87" s="13">
-        <v>395312500</v>
+        <v>412312500</v>
       </c>
       <c r="AZ87" s="13">
-        <v>402537037</v>
+        <v>419066667</v>
       </c>
       <c r="BA87" s="13">
-        <v>412312500</v>
+        <v>408577465</v>
       </c>
       <c r="BB87" s="13">
-        <v>419066667</v>
+        <v>415387097</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>66</v>
       </c>
@@ -11284,62 +11284,62 @@
       <c r="AI88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK88" s="11" t="s">
-        <v>58</v>
+      <c r="AJ88" s="11">
+        <v>323702128</v>
+      </c>
+      <c r="AK88" s="11">
+        <v>397982759</v>
       </c>
       <c r="AL88" s="11">
-        <v>323702128</v>
+        <v>396340909</v>
       </c>
       <c r="AM88" s="11">
-        <v>397982759</v>
+        <v>418305556</v>
       </c>
       <c r="AN88" s="11">
-        <v>396340909</v>
-      </c>
-      <c r="AO88" s="11">
-        <v>418305556</v>
+        <v>413275362</v>
+      </c>
+      <c r="AO88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP88" s="11">
-        <v>413275362</v>
-      </c>
-      <c r="AQ88" s="11" t="s">
-        <v>58</v>
+        <v>387112500</v>
+      </c>
+      <c r="AQ88" s="11">
+        <v>413176471</v>
       </c>
       <c r="AR88" s="11">
-        <v>387112500</v>
+        <v>435444444</v>
       </c>
       <c r="AS88" s="11">
-        <v>413176471</v>
+        <v>570670968</v>
       </c>
       <c r="AT88" s="11">
-        <v>435444444</v>
+        <v>681311927</v>
       </c>
       <c r="AU88" s="11">
-        <v>570670968</v>
+        <v>675009901</v>
       </c>
       <c r="AV88" s="11">
-        <v>681311927</v>
+        <v>651013158</v>
       </c>
       <c r="AW88" s="11">
-        <v>675009901</v>
+        <v>648550505</v>
       </c>
       <c r="AX88" s="11">
-        <v>651013158</v>
+        <v>649834532</v>
       </c>
       <c r="AY88" s="11">
-        <v>648550505</v>
+        <v>691302521</v>
       </c>
       <c r="AZ88" s="11">
-        <v>649834532</v>
+        <v>691239726</v>
       </c>
       <c r="BA88" s="11">
-        <v>691302521</v>
+        <v>692140271</v>
       </c>
       <c r="BB88" s="11">
-        <v>691239726</v>
+        <v>691636364</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghesalem/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghesalem/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="91">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3305,107 +3305,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>930</v>
       </c>
       <c r="V11" s="13" t="n">
+        <v>877</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>946</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>821</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>928</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>1001</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>983</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>972</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>857</v>
+      </c>
+      <c r="AD11" s="13" t="n">
+        <v>601</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>910</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>898</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>999</v>
+      </c>
+      <c r="AH11" s="13" t="n">
+        <v>879</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>1041</v>
+      </c>
+      <c r="AJ11" s="13" t="n">
+        <v>904</v>
+      </c>
+      <c r="AK11" s="13" t="n">
+        <v>1088</v>
+      </c>
+      <c r="AL11" s="13" t="n">
+        <v>1078</v>
+      </c>
+      <c r="AM11" s="13" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AN11" s="13" t="n">
+        <v>1051</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>956</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>556</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
         <v>930</v>
       </c>
-      <c r="W11" s="13" t="n">
-        <v>877</v>
-      </c>
-      <c r="X11" s="13" t="n">
-        <v>946</v>
-      </c>
-      <c r="Y11" s="13" t="n">
-        <v>821</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>928</v>
-      </c>
-      <c r="AA11" s="13" t="n">
-        <v>1001</v>
-      </c>
-      <c r="AB11" s="13" t="n">
-        <v>983</v>
-      </c>
-      <c r="AC11" s="13" t="n">
-        <v>972</v>
-      </c>
-      <c r="AD11" s="13" t="n">
-        <v>857</v>
-      </c>
-      <c r="AE11" s="13" t="n">
-        <v>601</v>
-      </c>
-      <c r="AF11" s="13" t="n">
-        <v>910</v>
-      </c>
-      <c r="AG11" s="13" t="n">
-        <v>898</v>
-      </c>
-      <c r="AH11" s="13" t="n">
-        <v>999</v>
-      </c>
-      <c r="AI11" s="13" t="n">
-        <v>879</v>
-      </c>
-      <c r="AJ11" s="13" t="n">
-        <v>1041</v>
-      </c>
-      <c r="AK11" s="13" t="n">
-        <v>904</v>
-      </c>
-      <c r="AL11" s="13" t="n">
-        <v>1088</v>
-      </c>
-      <c r="AM11" s="13" t="n">
-        <v>1078</v>
-      </c>
-      <c r="AN11" s="13" t="n">
-        <v>1084</v>
-      </c>
-      <c r="AO11" s="13" t="n">
-        <v>1051</v>
-      </c>
-      <c r="AP11" s="13" t="n">
-        <v>956</v>
-      </c>
-      <c r="AQ11" s="13" t="n">
-        <v>556</v>
-      </c>
       <c r="AR11" s="13" t="n">
-        <v>930</v>
+        <v>1113</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>1113</v>
+        <v>1169</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>1169</v>
+        <v>1056</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>1011</v>
+        <v>1130</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>1130</v>
+        <v>1096</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>1096</v>
+        <v>1139</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>1139</v>
+        <v>1068</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>1054</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,47 +3464,47 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>790</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>790</v>
+        <v>557</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>557</v>
+        <v>749</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>749</v>
+        <v>321</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>321</v>
+        <v>612</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>612</v>
+        <v>839</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>839</v>
+        <v>1112</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>1121</v>
+        <v>814</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>814</v>
+        <v>467</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>467</v>
+        <v>823</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>823</v>
+        <v>629</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>629</v>
-      </c>
-      <c r="AH12" s="16" t="n">
         <v>662</v>
+      </c>
+      <c r="AH12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AI12" s="16" t="s">
         <v>58</v>
@@ -3623,8 +3623,8 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V13" s="13" t="n">
         <v>0</v>
@@ -3639,91 +3639,91 @@
         <v>0</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA13" s="13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>117</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>109</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AG13" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="AB13" s="13" t="n">
+      <c r="AH13" s="13" t="n">
+        <v>87</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>103</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>47</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>74</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>122</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>202</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>73</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AV13" s="13" t="n">
         <v>110</v>
       </c>
-      <c r="AC13" s="13" t="n">
-        <v>117</v>
-      </c>
-      <c r="AD13" s="13" t="n">
-        <v>109</v>
-      </c>
-      <c r="AE13" s="13" t="n">
-        <v>83</v>
-      </c>
-      <c r="AF13" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG13" s="13" t="n">
-        <v>61</v>
-      </c>
-      <c r="AH13" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI13" s="13" t="n">
+      <c r="AW13" s="13" t="n">
+        <v>115</v>
+      </c>
+      <c r="AX13" s="13" t="n">
         <v>87</v>
       </c>
-      <c r="AJ13" s="13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK13" s="13" t="n">
-        <v>103</v>
-      </c>
-      <c r="AL13" s="13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="13" t="n">
-        <v>47</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>74</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>43</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>122</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>202</v>
-      </c>
-      <c r="AT13" s="13" t="n">
-        <v>73</v>
-      </c>
-      <c r="AU13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AX13" s="13" t="n">
-        <v>115</v>
-      </c>
       <c r="AY13" s="13" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,107 +3782,107 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>2150</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>2150</v>
+        <v>1805</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>1805</v>
+        <v>1566</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>1566</v>
+        <v>544</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>544</v>
+        <v>1210</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>1210</v>
+        <v>2007</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>2007</v>
+        <v>1870</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>1870</v>
+        <v>1694</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>1694</v>
+        <v>1474</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>1474</v>
+        <v>1261</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>1249</v>
+        <v>1717</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>1717</v>
+        <v>1804</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>1804</v>
+        <v>1356</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>1356</v>
+        <v>1757</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>1757</v>
+        <v>1308</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>1308</v>
+        <v>1651</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="AM14" s="16" t="n">
+        <v>2623</v>
+      </c>
+      <c r="AN14" s="16" t="n">
+        <v>1931</v>
+      </c>
+      <c r="AO14" s="16" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AP14" s="16" t="n">
+        <v>636</v>
+      </c>
+      <c r="AQ14" s="16" t="n">
+        <v>1450</v>
+      </c>
+      <c r="AR14" s="16" t="n">
+        <v>1692</v>
+      </c>
+      <c r="AS14" s="16" t="n">
+        <v>1715</v>
+      </c>
+      <c r="AT14" s="16" t="n">
+        <v>1742</v>
+      </c>
+      <c r="AU14" s="16" t="n">
+        <v>1625</v>
+      </c>
+      <c r="AV14" s="16" t="n">
         <v>1656</v>
       </c>
-      <c r="AN14" s="16" t="n">
-        <v>2623</v>
-      </c>
-      <c r="AO14" s="16" t="n">
-        <v>1931</v>
-      </c>
-      <c r="AP14" s="16" t="n">
-        <v>1670</v>
-      </c>
-      <c r="AQ14" s="16" t="n">
-        <v>636</v>
-      </c>
-      <c r="AR14" s="16" t="n">
-        <v>1450</v>
-      </c>
-      <c r="AS14" s="16" t="n">
-        <v>1692</v>
-      </c>
-      <c r="AT14" s="16" t="n">
-        <v>1715</v>
-      </c>
-      <c r="AU14" s="16" t="n">
-        <v>1742</v>
-      </c>
-      <c r="AV14" s="16" t="n">
-        <v>1625</v>
-      </c>
       <c r="AW14" s="16" t="n">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>1652</v>
+        <v>1452</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>1452</v>
+        <v>1493</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>1483</v>
+        <v>1780</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>1780</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,68 +3980,68 @@
       <c r="AG15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH15" s="13" t="s">
-        <v>58</v>
+      <c r="AH15" s="13" t="n">
+        <v>191</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>361</v>
+        <v>168</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="AP15" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>193</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>203</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>231</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>241</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>97</v>
+      </c>
+      <c r="AY15" s="13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AZ15" s="13" t="n">
+        <v>185</v>
+      </c>
+      <c r="BA15" s="13" t="n">
+        <v>142</v>
+      </c>
+      <c r="BB15" s="13" t="n">
         <v>68</v>
-      </c>
-      <c r="AQ15" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR15" s="13" t="n">
-        <v>102</v>
-      </c>
-      <c r="AS15" s="13" t="n">
-        <v>180</v>
-      </c>
-      <c r="AT15" s="13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AU15" s="13" t="n">
-        <v>193</v>
-      </c>
-      <c r="AV15" s="13" t="n">
-        <v>203</v>
-      </c>
-      <c r="AW15" s="13" t="n">
-        <v>231</v>
-      </c>
-      <c r="AX15" s="13" t="n">
-        <v>241</v>
-      </c>
-      <c r="AY15" s="13" t="n">
-        <v>97</v>
-      </c>
-      <c r="AZ15" s="13" t="n">
-        <v>160</v>
-      </c>
-      <c r="BA15" s="13" t="n">
-        <v>185</v>
-      </c>
-      <c r="BB15" s="13" t="n">
-        <v>142</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,68 +4100,68 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W16" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="X16" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="X16" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y16" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AA16" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="16" t="n">
         <v>8</v>
-      </c>
-      <c r="AB16" s="16" t="n">
-        <v>2</v>
       </c>
       <c r="AC16" s="16" t="n">
         <v>8</v>
       </c>
       <c r="AD16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="AE16" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AF16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK16" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="AG16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="16" t="n">
+      <c r="AL16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="AK16" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL16" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM16" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AN16" s="16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="16" t="n">
         <v>0</v>
@@ -4170,37 +4170,37 @@
         <v>0</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW16" s="16" t="n">
         <v>9</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,68 +4298,68 @@
       <c r="AG17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH17" s="13" t="s">
-        <v>58</v>
+      <c r="AH17" s="13" t="n">
+        <v>478</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>559</v>
+        <v>696</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>696</v>
+        <v>813</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>813</v>
+        <v>1225</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>129</v>
+        <v>587</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>693</v>
+        <v>496</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="AU17" s="13" t="n">
+        <v>470</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>486</v>
+      </c>
+      <c r="AW17" s="13" t="n">
         <v>524</v>
       </c>
-      <c r="AV17" s="13" t="n">
-        <v>470</v>
-      </c>
-      <c r="AW17" s="13" t="n">
-        <v>486</v>
-      </c>
       <c r="AX17" s="13" t="n">
-        <v>524</v>
+        <v>755</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>755</v>
+        <v>438</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>438</v>
+        <v>241</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4457,68 +4457,68 @@
       <c r="AG18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH18" s="16" t="s">
-        <v>58</v>
+      <c r="AH18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AI18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,68 +4616,68 @@
       <c r="AG19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH19" s="13" t="s">
-        <v>58</v>
+      <c r="AH19" s="13" t="n">
+        <v>95</v>
       </c>
       <c r="AI19" s="13" t="n">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="AJ19" s="13" t="n">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK19" s="13" t="n">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AL19" s="13" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AO19" s="13" t="n">
+        <v>124</v>
+      </c>
+      <c r="AP19" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
         <v>161</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AR19" s="13" t="n">
+        <v>136</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT19" s="13" t="n">
         <v>124</v>
       </c>
-      <c r="AQ19" s="13" t="n">
-        <v>57</v>
-      </c>
-      <c r="AR19" s="13" t="n">
-        <v>161</v>
-      </c>
-      <c r="AS19" s="13" t="n">
-        <v>136</v>
-      </c>
-      <c r="AT19" s="13" t="n">
-        <v>96</v>
-      </c>
       <c r="AU19" s="13" t="n">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="AV19" s="13" t="n">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="AW19" s="13" t="n">
+        <v>235</v>
+      </c>
+      <c r="AX19" s="13" t="n">
         <v>146</v>
       </c>
-      <c r="AX19" s="13" t="n">
-        <v>235</v>
-      </c>
       <c r="AY19" s="13" t="n">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="AZ19" s="13" t="n">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,106 +4735,106 @@
         <v>0</v>
       </c>
       <c r="U20" s="18" t="n">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="V20" s="18" t="n">
-        <v>3870</v>
+        <v>3247</v>
       </c>
       <c r="W20" s="18" t="n">
-        <v>3247</v>
+        <v>3270</v>
       </c>
       <c r="X20" s="18" t="n">
-        <v>3270</v>
+        <v>1700</v>
       </c>
       <c r="Y20" s="18" t="n">
-        <v>1700</v>
+        <v>2750</v>
       </c>
       <c r="Z20" s="18" t="n">
-        <v>2750</v>
+        <v>3862</v>
       </c>
       <c r="AA20" s="18" t="n">
-        <v>3862</v>
+        <v>4077</v>
       </c>
       <c r="AB20" s="18" t="n">
-        <v>4077</v>
+        <v>3912</v>
       </c>
       <c r="AC20" s="18" t="n">
-        <v>3912</v>
+        <v>3262</v>
       </c>
       <c r="AD20" s="18" t="n">
-        <v>3262</v>
+        <v>2412</v>
       </c>
       <c r="AE20" s="18" t="n">
-        <v>2412</v>
+        <v>3090</v>
       </c>
       <c r="AF20" s="18" t="n">
-        <v>3090</v>
+        <v>3305</v>
       </c>
       <c r="AG20" s="18" t="n">
-        <v>3305</v>
+        <v>3485</v>
       </c>
       <c r="AH20" s="18" t="n">
-        <v>3485</v>
+        <v>3086</v>
       </c>
       <c r="AI20" s="18" t="n">
-        <v>3086</v>
+        <v>3834</v>
       </c>
       <c r="AJ20" s="18" t="n">
-        <v>3834</v>
+        <v>3361</v>
       </c>
       <c r="AK20" s="18" t="n">
-        <v>3361</v>
+        <v>4120</v>
       </c>
       <c r="AL20" s="18" t="n">
-        <v>4120</v>
+        <v>4320</v>
       </c>
       <c r="AM20" s="18" t="n">
-        <v>4320</v>
+        <v>3971</v>
       </c>
       <c r="AN20" s="18" t="n">
-        <v>3971</v>
+        <v>3892</v>
       </c>
       <c r="AO20" s="18" t="n">
-        <v>3892</v>
+        <v>3298</v>
       </c>
       <c r="AP20" s="18" t="n">
-        <v>3298</v>
+        <v>1444</v>
       </c>
       <c r="AQ20" s="18" t="n">
-        <v>1444</v>
+        <v>3352</v>
       </c>
       <c r="AR20" s="18" t="n">
-        <v>3352</v>
+        <v>4144</v>
       </c>
       <c r="AS20" s="18" t="n">
-        <v>4144</v>
+        <v>3754</v>
       </c>
       <c r="AT20" s="18" t="n">
-        <v>3754</v>
+        <v>3686</v>
       </c>
       <c r="AU20" s="18" t="n">
-        <v>3686</v>
+        <v>3643</v>
       </c>
       <c r="AV20" s="18" t="n">
-        <v>3643</v>
+        <v>3713</v>
       </c>
       <c r="AW20" s="18" t="n">
-        <v>3713</v>
+        <v>3968</v>
       </c>
       <c r="AX20" s="18" t="n">
-        <v>3968</v>
+        <v>3693</v>
       </c>
       <c r="AY20" s="18" t="n">
-        <v>3693</v>
+        <v>3503</v>
       </c>
       <c r="AZ20" s="18" t="n">
-        <v>3503</v>
+        <v>3236</v>
       </c>
       <c r="BA20" s="18" t="n">
-        <v>3236</v>
+        <v>3570</v>
       </c>
       <c r="BB20" s="18" t="n">
-        <v>3570</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,8 +5162,8 @@
       <c r="T24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="22" t="s">
-        <v>58</v>
+      <c r="U24" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V24" s="22" t="n">
         <v>0</v>
@@ -5320,106 +5320,106 @@
         <v>0</v>
       </c>
       <c r="U25" s="18" t="n">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="V25" s="18" t="n">
-        <v>3870</v>
+        <v>3247</v>
       </c>
       <c r="W25" s="18" t="n">
-        <v>3247</v>
+        <v>3270</v>
       </c>
       <c r="X25" s="18" t="n">
-        <v>3270</v>
+        <v>1700</v>
       </c>
       <c r="Y25" s="18" t="n">
-        <v>1700</v>
+        <v>2750</v>
       </c>
       <c r="Z25" s="18" t="n">
-        <v>2750</v>
+        <v>3862</v>
       </c>
       <c r="AA25" s="18" t="n">
-        <v>3862</v>
+        <v>4077</v>
       </c>
       <c r="AB25" s="18" t="n">
-        <v>4077</v>
+        <v>3912</v>
       </c>
       <c r="AC25" s="18" t="n">
-        <v>3912</v>
+        <v>3262</v>
       </c>
       <c r="AD25" s="18" t="n">
-        <v>3262</v>
+        <v>2412</v>
       </c>
       <c r="AE25" s="18" t="n">
-        <v>2412</v>
+        <v>3090</v>
       </c>
       <c r="AF25" s="18" t="n">
-        <v>3090</v>
+        <v>3305</v>
       </c>
       <c r="AG25" s="18" t="n">
-        <v>3305</v>
+        <v>3485</v>
       </c>
       <c r="AH25" s="18" t="n">
-        <v>3485</v>
+        <v>3086</v>
       </c>
       <c r="AI25" s="18" t="n">
-        <v>3086</v>
+        <v>3834</v>
       </c>
       <c r="AJ25" s="18" t="n">
-        <v>3834</v>
+        <v>3361</v>
       </c>
       <c r="AK25" s="18" t="n">
-        <v>3361</v>
+        <v>4120</v>
       </c>
       <c r="AL25" s="18" t="n">
-        <v>4120</v>
+        <v>4320</v>
       </c>
       <c r="AM25" s="18" t="n">
-        <v>4320</v>
+        <v>3971</v>
       </c>
       <c r="AN25" s="18" t="n">
-        <v>3971</v>
+        <v>3892</v>
       </c>
       <c r="AO25" s="18" t="n">
-        <v>3892</v>
+        <v>3298</v>
       </c>
       <c r="AP25" s="18" t="n">
-        <v>3298</v>
+        <v>1444</v>
       </c>
       <c r="AQ25" s="18" t="n">
-        <v>1444</v>
+        <v>3352</v>
       </c>
       <c r="AR25" s="18" t="n">
-        <v>3352</v>
+        <v>4144</v>
       </c>
       <c r="AS25" s="18" t="n">
-        <v>4144</v>
+        <v>3754</v>
       </c>
       <c r="AT25" s="18" t="n">
-        <v>3754</v>
+        <v>3686</v>
       </c>
       <c r="AU25" s="18" t="n">
-        <v>3686</v>
+        <v>3643</v>
       </c>
       <c r="AV25" s="18" t="n">
-        <v>3643</v>
+        <v>3713</v>
       </c>
       <c r="AW25" s="18" t="n">
-        <v>3713</v>
+        <v>3968</v>
       </c>
       <c r="AX25" s="18" t="n">
-        <v>3968</v>
+        <v>3693</v>
       </c>
       <c r="AY25" s="18" t="n">
-        <v>3693</v>
+        <v>3503</v>
       </c>
       <c r="AZ25" s="18" t="n">
-        <v>3503</v>
+        <v>3236</v>
       </c>
       <c r="BA25" s="18" t="n">
-        <v>3236</v>
+        <v>3570</v>
       </c>
       <c r="BB25" s="18" t="n">
-        <v>3570</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5912,107 +5912,107 @@
       <c r="T32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="13" t="s">
-        <v>58</v>
+      <c r="U32" s="13" t="n">
+        <v>924</v>
       </c>
       <c r="V32" s="13" t="n">
-        <v>924</v>
+        <v>872</v>
       </c>
       <c r="W32" s="13" t="n">
-        <v>872</v>
+        <v>951</v>
       </c>
       <c r="X32" s="13" t="n">
-        <v>951</v>
+        <v>805</v>
       </c>
       <c r="Y32" s="13" t="n">
-        <v>805</v>
+        <v>944</v>
       </c>
       <c r="Z32" s="13" t="n">
-        <v>944</v>
+        <v>991</v>
       </c>
       <c r="AA32" s="13" t="n">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="AB32" s="13" t="n">
+        <v>981</v>
+      </c>
+      <c r="AC32" s="13" t="n">
+        <v>849</v>
+      </c>
+      <c r="AD32" s="13" t="n">
+        <v>605</v>
+      </c>
+      <c r="AE32" s="13" t="n">
+        <v>931</v>
+      </c>
+      <c r="AF32" s="13" t="n">
+        <v>897</v>
+      </c>
+      <c r="AG32" s="13" t="n">
         <v>980</v>
       </c>
-      <c r="AC32" s="13" t="n">
-        <v>981</v>
-      </c>
-      <c r="AD32" s="13" t="n">
-        <v>849</v>
-      </c>
-      <c r="AE32" s="13" t="n">
-        <v>605</v>
-      </c>
-      <c r="AF32" s="13" t="n">
-        <v>931</v>
-      </c>
-      <c r="AG32" s="13" t="n">
-        <v>897</v>
-      </c>
       <c r="AH32" s="13" t="n">
-        <v>980</v>
+        <v>854</v>
       </c>
       <c r="AI32" s="13" t="n">
-        <v>854</v>
+        <v>1051</v>
       </c>
       <c r="AJ32" s="13" t="n">
-        <v>1051</v>
+        <v>893</v>
       </c>
       <c r="AK32" s="13" t="n">
-        <v>893</v>
+        <v>1101</v>
       </c>
       <c r="AL32" s="13" t="n">
-        <v>1101</v>
+        <v>1069</v>
       </c>
       <c r="AM32" s="13" t="n">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="AN32" s="13" t="n">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="AO32" s="13" t="n">
-        <v>1056</v>
+        <v>956</v>
       </c>
       <c r="AP32" s="13" t="n">
-        <v>956</v>
+        <v>606</v>
       </c>
       <c r="AQ32" s="13" t="n">
-        <v>606</v>
+        <v>887</v>
       </c>
       <c r="AR32" s="13" t="n">
-        <v>887</v>
+        <v>1106</v>
       </c>
       <c r="AS32" s="13" t="n">
-        <v>1106</v>
+        <v>1185</v>
       </c>
       <c r="AT32" s="13" t="n">
-        <v>1185</v>
+        <v>1060</v>
       </c>
       <c r="AU32" s="13" t="n">
-        <v>1060</v>
+        <v>1034</v>
       </c>
       <c r="AV32" s="13" t="n">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="AW32" s="13" t="n">
-        <v>1023</v>
+        <v>1108</v>
       </c>
       <c r="AX32" s="13" t="n">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="AY32" s="13" t="n">
-        <v>1102</v>
+        <v>1119</v>
       </c>
       <c r="AZ32" s="13" t="n">
-        <v>1119</v>
+        <v>1059</v>
       </c>
       <c r="BA32" s="13" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="BB32" s="13" t="n">
-        <v>1061</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,47 +6071,47 @@
       <c r="T33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="16" t="s">
-        <v>58</v>
+      <c r="U33" s="16" t="n">
+        <v>775</v>
       </c>
       <c r="V33" s="16" t="n">
-        <v>775</v>
+        <v>677</v>
       </c>
       <c r="W33" s="16" t="n">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="X33" s="16" t="n">
-        <v>670</v>
+        <v>373</v>
       </c>
       <c r="Y33" s="16" t="n">
-        <v>373</v>
+        <v>583</v>
       </c>
       <c r="Z33" s="16" t="n">
-        <v>583</v>
+        <v>817</v>
       </c>
       <c r="AA33" s="16" t="n">
-        <v>817</v>
+        <v>1013</v>
       </c>
       <c r="AB33" s="16" t="n">
-        <v>1013</v>
+        <v>1038</v>
       </c>
       <c r="AC33" s="16" t="n">
-        <v>1038</v>
+        <v>943</v>
       </c>
       <c r="AD33" s="16" t="n">
-        <v>943</v>
+        <v>492</v>
       </c>
       <c r="AE33" s="16" t="n">
-        <v>492</v>
+        <v>770</v>
       </c>
       <c r="AF33" s="16" t="n">
-        <v>770</v>
+        <v>658</v>
       </c>
       <c r="AG33" s="16" t="n">
-        <v>658</v>
-      </c>
-      <c r="AH33" s="16" t="n">
         <v>823</v>
+      </c>
+      <c r="AH33" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AI33" s="16" t="s">
         <v>58</v>
@@ -6230,8 +6230,8 @@
       <c r="T34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="13" t="s">
-        <v>58</v>
+      <c r="U34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V34" s="13" t="n">
         <v>0</v>
@@ -6246,91 +6246,91 @@
         <v>0</v>
       </c>
       <c r="Z34" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="13" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="AB34" s="13" t="n">
+        <v>98</v>
+      </c>
+      <c r="AC34" s="13" t="n">
+        <v>112</v>
+      </c>
+      <c r="AD34" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AE34" s="13" t="n">
+        <v>97</v>
+      </c>
+      <c r="AF34" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG34" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH34" s="13" t="n">
+        <v>74</v>
+      </c>
+      <c r="AI34" s="13" t="n">
         <v>110</v>
       </c>
-      <c r="AC34" s="13" t="n">
+      <c r="AJ34" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="AK34" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="AL34" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="AM34" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN34" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AO34" s="13" t="n">
+        <v>86</v>
+      </c>
+      <c r="AP34" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="AQ34" s="13" t="n">
+        <v>107</v>
+      </c>
+      <c r="AR34" s="13" t="n">
+        <v>136</v>
+      </c>
+      <c r="AS34" s="13" t="n">
+        <v>78</v>
+      </c>
+      <c r="AT34" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="AU34" s="13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AV34" s="13" t="n">
+        <v>88</v>
+      </c>
+      <c r="AW34" s="13" t="n">
+        <v>115</v>
+      </c>
+      <c r="AX34" s="13" t="n">
         <v>98</v>
       </c>
-      <c r="AD34" s="13" t="n">
-        <v>112</v>
-      </c>
-      <c r="AE34" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="AF34" s="13" t="n">
-        <v>97</v>
-      </c>
-      <c r="AG34" s="13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH34" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI34" s="13" t="n">
-        <v>74</v>
-      </c>
-      <c r="AJ34" s="13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK34" s="13" t="n">
-        <v>77</v>
-      </c>
-      <c r="AL34" s="13" t="n">
-        <v>62</v>
-      </c>
-      <c r="AM34" s="13" t="n">
-        <v>43</v>
-      </c>
-      <c r="AN34" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="AO34" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="AP34" s="13" t="n">
-        <v>86</v>
-      </c>
-      <c r="AQ34" s="13" t="n">
+      <c r="AY34" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="AR34" s="13" t="n">
+      <c r="AZ34" s="13" t="n">
+        <v>54</v>
+      </c>
+      <c r="BA34" s="13" t="n">
         <v>107</v>
       </c>
-      <c r="AS34" s="13" t="n">
-        <v>136</v>
-      </c>
-      <c r="AT34" s="13" t="n">
-        <v>78</v>
-      </c>
-      <c r="AU34" s="13" t="n">
-        <v>53</v>
-      </c>
-      <c r="AV34" s="13" t="n">
-        <v>61</v>
-      </c>
-      <c r="AW34" s="13" t="n">
-        <v>88</v>
-      </c>
-      <c r="AX34" s="13" t="n">
-        <v>115</v>
-      </c>
-      <c r="AY34" s="13" t="n">
-        <v>98</v>
-      </c>
-      <c r="AZ34" s="13" t="n">
-        <v>53</v>
-      </c>
-      <c r="BA34" s="13" t="n">
-        <v>54</v>
-      </c>
       <c r="BB34" s="13" t="n">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6389,107 +6389,107 @@
       <c r="T35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="16" t="s">
-        <v>58</v>
+      <c r="U35" s="16" t="n">
+        <v>2116</v>
       </c>
       <c r="V35" s="16" t="n">
-        <v>2116</v>
+        <v>1744</v>
       </c>
       <c r="W35" s="16" t="n">
-        <v>1744</v>
+        <v>1886</v>
       </c>
       <c r="X35" s="16" t="n">
-        <v>1886</v>
+        <v>636</v>
       </c>
       <c r="Y35" s="16" t="n">
-        <v>636</v>
+        <v>1092</v>
       </c>
       <c r="Z35" s="16" t="n">
-        <v>1092</v>
+        <v>2026</v>
       </c>
       <c r="AA35" s="16" t="n">
-        <v>2026</v>
+        <v>1798</v>
       </c>
       <c r="AB35" s="16" t="n">
-        <v>1798</v>
+        <v>1573</v>
       </c>
       <c r="AC35" s="16" t="n">
-        <v>1573</v>
+        <v>1496</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>1496</v>
+        <v>1263</v>
       </c>
       <c r="AE35" s="16" t="n">
-        <v>1263</v>
+        <v>1213</v>
       </c>
       <c r="AF35" s="16" t="n">
-        <v>1213</v>
+        <v>1738</v>
       </c>
       <c r="AG35" s="16" t="n">
-        <v>1738</v>
+        <v>1655</v>
       </c>
       <c r="AH35" s="16" t="n">
-        <v>1655</v>
+        <v>1489</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>1489</v>
+        <v>1927</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>1927</v>
+        <v>1356</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>1356</v>
+        <v>1451</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>1451</v>
+        <v>2175</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>2175</v>
+        <v>2131</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>2131</v>
+        <v>1911</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>1911</v>
+        <v>1571</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>1571</v>
+        <v>988</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>988</v>
+        <v>1155</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>1155</v>
+        <v>1749</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>1749</v>
+        <v>1425</v>
       </c>
       <c r="AT35" s="16" t="n">
-        <v>1425</v>
+        <v>1692</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>1692</v>
+        <v>1544</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>1544</v>
+        <v>1694</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>1694</v>
+        <v>1581</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>1581</v>
+        <v>1664</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>1664</v>
+        <v>1603</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>1603</v>
+        <v>1222</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>1222</v>
+        <v>1621</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>1621</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,68 +6587,68 @@
       <c r="AG36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH36" s="13" t="s">
-        <v>58</v>
+      <c r="AH36" s="13" t="n">
+        <v>110</v>
       </c>
       <c r="AI36" s="13" t="n">
+        <v>217</v>
+      </c>
+      <c r="AJ36" s="13" t="n">
+        <v>227</v>
+      </c>
+      <c r="AK36" s="13" t="n">
+        <v>224</v>
+      </c>
+      <c r="AL36" s="13" t="n">
+        <v>299</v>
+      </c>
+      <c r="AM36" s="13" t="n">
+        <v>317</v>
+      </c>
+      <c r="AN36" s="13" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO36" s="13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AP36" s="13" t="n">
+        <v>103</v>
+      </c>
+      <c r="AQ36" s="13" t="n">
         <v>110</v>
       </c>
-      <c r="AJ36" s="13" t="n">
-        <v>217</v>
-      </c>
-      <c r="AK36" s="13" t="n">
-        <v>227</v>
-      </c>
-      <c r="AL36" s="13" t="n">
-        <v>224</v>
-      </c>
-      <c r="AM36" s="13" t="n">
-        <v>299</v>
-      </c>
-      <c r="AN36" s="13" t="n">
-        <v>317</v>
-      </c>
-      <c r="AO36" s="13" t="n">
-        <v>132</v>
-      </c>
-      <c r="AP36" s="13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AQ36" s="13" t="n">
-        <v>103</v>
-      </c>
       <c r="AR36" s="13" t="n">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="AS36" s="13" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AT36" s="13" t="n">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="AU36" s="13" t="n">
+        <v>161</v>
+      </c>
+      <c r="AV36" s="13" t="n">
+        <v>208</v>
+      </c>
+      <c r="AW36" s="13" t="n">
         <v>216</v>
       </c>
-      <c r="AV36" s="13" t="n">
-        <v>161</v>
-      </c>
-      <c r="AW36" s="13" t="n">
-        <v>208</v>
-      </c>
       <c r="AX36" s="13" t="n">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="AY36" s="13" t="n">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="AZ36" s="13" t="n">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,35 +6707,35 @@
       <c r="T37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="16" t="s">
-        <v>58</v>
+      <c r="U37" s="16" t="n">
+        <v>5</v>
       </c>
       <c r="V37" s="16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W37" s="16" t="n">
         <v>8</v>
       </c>
       <c r="X37" s="16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y37" s="16" t="n">
         <v>7</v>
       </c>
       <c r="Z37" s="16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA37" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AB37" s="16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC37" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD37" s="16" t="n">
         <v>4</v>
-      </c>
-      <c r="AD37" s="16" t="n">
-        <v>7</v>
       </c>
       <c r="AE37" s="16" t="n">
         <v>4</v>
@@ -6744,70 +6744,70 @@
         <v>4</v>
       </c>
       <c r="AG37" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH37" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI37" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ37" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK37" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL37" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM37" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN37" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AH37" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI37" s="16" t="n">
+      <c r="AO37" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AJ37" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK37" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL37" s="16" t="n">
+      <c r="AP37" s="16" t="n">
         <v>2</v>
-      </c>
-      <c r="AM37" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN37" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO37" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP37" s="16" t="n">
-        <v>5</v>
       </c>
       <c r="AQ37" s="16" t="n">
         <v>2</v>
       </c>
       <c r="AR37" s="16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AS37" s="16" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AT37" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AU37" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV37" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AV37" s="16" t="n">
-        <v>7</v>
-      </c>
       <c r="AW37" s="16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX37" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY37" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ37" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA37" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB37" s="16" t="n">
         <v>9</v>
-      </c>
-      <c r="AY37" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ37" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA37" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB37" s="16" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,68 +6905,68 @@
       <c r="AG38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH38" s="13" t="s">
-        <v>58</v>
+      <c r="AH38" s="13" t="n">
+        <v>425</v>
       </c>
       <c r="AI38" s="13" t="n">
-        <v>425</v>
+        <v>585</v>
       </c>
       <c r="AJ38" s="13" t="n">
-        <v>585</v>
+        <v>626</v>
       </c>
       <c r="AK38" s="13" t="n">
-        <v>626</v>
+        <v>867</v>
       </c>
       <c r="AL38" s="13" t="n">
-        <v>867</v>
+        <v>526</v>
       </c>
       <c r="AM38" s="13" t="n">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="AN38" s="13" t="n">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="AO38" s="13" t="n">
-        <v>501</v>
+        <v>405</v>
       </c>
       <c r="AP38" s="13" t="n">
-        <v>405</v>
+        <v>197</v>
       </c>
       <c r="AQ38" s="13" t="n">
-        <v>197</v>
+        <v>490</v>
       </c>
       <c r="AR38" s="13" t="n">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="AS38" s="13" t="n">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AT38" s="13" t="n">
+        <v>524</v>
+      </c>
+      <c r="AU38" s="13" t="n">
         <v>547</v>
       </c>
-      <c r="AU38" s="13" t="n">
-        <v>524</v>
-      </c>
       <c r="AV38" s="13" t="n">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="AW38" s="13" t="n">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AX38" s="13" t="n">
-        <v>514</v>
+        <v>638</v>
       </c>
       <c r="AY38" s="13" t="n">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="AZ38" s="13" t="n">
-        <v>574</v>
+        <v>162</v>
       </c>
       <c r="BA38" s="13" t="n">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="BB38" s="13" t="n">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7064,68 +7064,68 @@
       <c r="AG39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH39" s="16" t="s">
-        <v>58</v>
+      <c r="AH39" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AI39" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AJ39" s="16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK39" s="16" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="16" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AM39" s="16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN39" s="16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AO39" s="16" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AP39" s="16" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AQ39" s="16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="16" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AS39" s="16" t="n">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AT39" s="16" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AU39" s="16" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="AV39" s="16" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="AW39" s="16" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AX39" s="16" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AY39" s="16" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AZ39" s="16" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="BA39" s="16" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="BB39" s="16" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7223,68 +7223,68 @@
       <c r="AG40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH40" s="13" t="s">
-        <v>58</v>
+      <c r="AH40" s="13" t="n">
+        <v>94</v>
       </c>
       <c r="AI40" s="13" t="n">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AJ40" s="13" t="n">
+        <v>88</v>
+      </c>
+      <c r="AK40" s="13" t="n">
+        <v>144</v>
+      </c>
+      <c r="AL40" s="13" t="n">
+        <v>69</v>
+      </c>
+      <c r="AM40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO40" s="13" t="n">
+        <v>119</v>
+      </c>
+      <c r="AP40" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AQ40" s="13" t="n">
+        <v>155</v>
+      </c>
+      <c r="AR40" s="13" t="n">
+        <v>109</v>
+      </c>
+      <c r="AS40" s="13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT40" s="13" t="n">
+        <v>152</v>
+      </c>
+      <c r="AU40" s="13" t="n">
+        <v>198</v>
+      </c>
+      <c r="AV40" s="13" t="n">
+        <v>139</v>
+      </c>
+      <c r="AW40" s="13" t="n">
+        <v>238</v>
+      </c>
+      <c r="AX40" s="13" t="n">
+        <v>146</v>
+      </c>
+      <c r="AY40" s="13" t="n">
+        <v>221</v>
+      </c>
+      <c r="AZ40" s="13" t="n">
+        <v>165</v>
+      </c>
+      <c r="BA40" s="13" t="n">
+        <v>118</v>
+      </c>
+      <c r="BB40" s="13" t="n">
         <v>116</v>
-      </c>
-      <c r="AK40" s="13" t="n">
-        <v>88</v>
-      </c>
-      <c r="AL40" s="13" t="n">
-        <v>144</v>
-      </c>
-      <c r="AM40" s="13" t="n">
-        <v>69</v>
-      </c>
-      <c r="AN40" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="13" t="n">
-        <v>160</v>
-      </c>
-      <c r="AP40" s="13" t="n">
-        <v>119</v>
-      </c>
-      <c r="AQ40" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="AR40" s="13" t="n">
-        <v>155</v>
-      </c>
-      <c r="AS40" s="13" t="n">
-        <v>109</v>
-      </c>
-      <c r="AT40" s="13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AU40" s="13" t="n">
-        <v>152</v>
-      </c>
-      <c r="AV40" s="13" t="n">
-        <v>198</v>
-      </c>
-      <c r="AW40" s="13" t="n">
-        <v>139</v>
-      </c>
-      <c r="AX40" s="13" t="n">
-        <v>238</v>
-      </c>
-      <c r="AY40" s="13" t="n">
-        <v>146</v>
-      </c>
-      <c r="AZ40" s="13" t="n">
-        <v>221</v>
-      </c>
-      <c r="BA40" s="13" t="n">
-        <v>165</v>
-      </c>
-      <c r="BB40" s="13" t="n">
-        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,106 +7342,106 @@
         <v>0</v>
       </c>
       <c r="U41" s="18" t="n">
-        <v>0</v>
+        <v>3820</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>3820</v>
+        <v>3301</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>3301</v>
+        <v>3515</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>3515</v>
+        <v>1821</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>1821</v>
+        <v>2626</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>2626</v>
+        <v>3840</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>3840</v>
+        <v>3906</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>3906</v>
+        <v>3694</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>3694</v>
+        <v>3407</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>3407</v>
+        <v>2440</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>2440</v>
+        <v>3015</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>3015</v>
+        <v>3377</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>3377</v>
+        <v>3484</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>3484</v>
+        <v>3051</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>3051</v>
+        <v>4009</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>4009</v>
+        <v>3306</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>3306</v>
+        <v>3852</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>3852</v>
+        <v>4217</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>4217</v>
+        <v>4129</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>4129</v>
+        <v>3850</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>3850</v>
+        <v>3339</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>3339</v>
+        <v>2016</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>2016</v>
+        <v>2906</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>2906</v>
+        <v>3887</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>3887</v>
+        <v>3518</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>3518</v>
+        <v>3751</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>3751</v>
+        <v>3568</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>3568</v>
+        <v>3727</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>3727</v>
+        <v>3829</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>3829</v>
+        <v>3858</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>3858</v>
+        <v>3810</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>3810</v>
+        <v>2874</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>2874</v>
+        <v>3357</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>3357</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,8 +7769,8 @@
       <c r="T45" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="22" t="s">
-        <v>58</v>
+      <c r="U45" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="22" t="n">
         <v>0</v>
@@ -7983,8 +7983,8 @@
       <c r="T47" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="22" t="s">
-        <v>58</v>
+      <c r="U47" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="22" t="n">
         <v>0</v>
@@ -8141,106 +8141,106 @@
         <v>0</v>
       </c>
       <c r="U48" s="18" t="n">
-        <v>0</v>
+        <v>3820</v>
       </c>
       <c r="V48" s="18" t="n">
-        <v>3820</v>
+        <v>3301</v>
       </c>
       <c r="W48" s="18" t="n">
-        <v>3301</v>
+        <v>3515</v>
       </c>
       <c r="X48" s="18" t="n">
-        <v>3515</v>
+        <v>1821</v>
       </c>
       <c r="Y48" s="18" t="n">
-        <v>1821</v>
+        <v>2626</v>
       </c>
       <c r="Z48" s="18" t="n">
-        <v>2626</v>
+        <v>3840</v>
       </c>
       <c r="AA48" s="18" t="n">
-        <v>3840</v>
+        <v>3906</v>
       </c>
       <c r="AB48" s="18" t="n">
-        <v>3906</v>
+        <v>3694</v>
       </c>
       <c r="AC48" s="18" t="n">
-        <v>3694</v>
+        <v>3407</v>
       </c>
       <c r="AD48" s="18" t="n">
-        <v>3407</v>
+        <v>2440</v>
       </c>
       <c r="AE48" s="18" t="n">
-        <v>2440</v>
+        <v>3015</v>
       </c>
       <c r="AF48" s="18" t="n">
-        <v>3015</v>
+        <v>3377</v>
       </c>
       <c r="AG48" s="18" t="n">
-        <v>3377</v>
+        <v>3484</v>
       </c>
       <c r="AH48" s="18" t="n">
-        <v>3484</v>
+        <v>3051</v>
       </c>
       <c r="AI48" s="18" t="n">
-        <v>3051</v>
+        <v>4009</v>
       </c>
       <c r="AJ48" s="18" t="n">
-        <v>4009</v>
+        <v>3306</v>
       </c>
       <c r="AK48" s="18" t="n">
-        <v>3306</v>
+        <v>3852</v>
       </c>
       <c r="AL48" s="18" t="n">
-        <v>3852</v>
+        <v>4217</v>
       </c>
       <c r="AM48" s="18" t="n">
-        <v>4217</v>
+        <v>4129</v>
       </c>
       <c r="AN48" s="18" t="n">
-        <v>4129</v>
+        <v>3850</v>
       </c>
       <c r="AO48" s="18" t="n">
-        <v>3850</v>
+        <v>3339</v>
       </c>
       <c r="AP48" s="18" t="n">
-        <v>3339</v>
+        <v>2016</v>
       </c>
       <c r="AQ48" s="18" t="n">
-        <v>2016</v>
+        <v>2906</v>
       </c>
       <c r="AR48" s="18" t="n">
-        <v>2906</v>
+        <v>3887</v>
       </c>
       <c r="AS48" s="18" t="n">
-        <v>3887</v>
+        <v>3518</v>
       </c>
       <c r="AT48" s="18" t="n">
-        <v>3518</v>
+        <v>3751</v>
       </c>
       <c r="AU48" s="18" t="n">
-        <v>3751</v>
+        <v>3568</v>
       </c>
       <c r="AV48" s="18" t="n">
-        <v>3568</v>
+        <v>3727</v>
       </c>
       <c r="AW48" s="18" t="n">
-        <v>3727</v>
+        <v>3829</v>
       </c>
       <c r="AX48" s="18" t="n">
-        <v>3829</v>
+        <v>3858</v>
       </c>
       <c r="AY48" s="18" t="n">
-        <v>3858</v>
+        <v>3810</v>
       </c>
       <c r="AZ48" s="18" t="n">
-        <v>3810</v>
+        <v>2874</v>
       </c>
       <c r="BA48" s="18" t="n">
-        <v>2874</v>
+        <v>3357</v>
       </c>
       <c r="BB48" s="18" t="n">
-        <v>3357</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8733,107 +8733,107 @@
       <c r="T55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="13" t="s">
-        <v>58</v>
+      <c r="U55" s="13" t="n">
+        <v>138525</v>
       </c>
       <c r="V55" s="13" t="n">
-        <v>138525</v>
+        <v>141900</v>
       </c>
       <c r="W55" s="13" t="n">
-        <v>141900</v>
+        <v>167352</v>
       </c>
       <c r="X55" s="13" t="n">
-        <v>167352</v>
+        <v>156051</v>
       </c>
       <c r="Y55" s="13" t="n">
-        <v>156051</v>
+        <v>191849</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>191849</v>
+        <v>209407</v>
       </c>
       <c r="AA55" s="13" t="n">
-        <v>209407</v>
+        <v>200454</v>
       </c>
       <c r="AB55" s="13" t="n">
-        <v>200454</v>
+        <v>203139</v>
       </c>
       <c r="AC55" s="13" t="n">
-        <v>203139</v>
+        <v>182769</v>
       </c>
       <c r="AD55" s="13" t="n">
-        <v>182769</v>
+        <v>130349</v>
       </c>
       <c r="AE55" s="13" t="n">
-        <v>130349</v>
+        <v>235296</v>
       </c>
       <c r="AF55" s="13" t="n">
-        <v>235296</v>
+        <v>231762</v>
       </c>
       <c r="AG55" s="13" t="n">
-        <v>231762</v>
+        <v>253192</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>253192</v>
+        <v>220751</v>
       </c>
       <c r="AI55" s="13" t="n">
-        <v>220751</v>
+        <v>276478</v>
       </c>
       <c r="AJ55" s="13" t="n">
-        <v>276478</v>
+        <v>259657</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>259657</v>
+        <v>319943</v>
       </c>
       <c r="AL55" s="13" t="n">
-        <v>319943</v>
+        <v>310834</v>
       </c>
       <c r="AM55" s="13" t="n">
-        <v>310834</v>
+        <v>313195</v>
       </c>
       <c r="AN55" s="13" t="n">
-        <v>313195</v>
+        <v>312495</v>
       </c>
       <c r="AO55" s="13" t="n">
-        <v>312495</v>
+        <v>298965</v>
       </c>
       <c r="AP55" s="13" t="n">
-        <v>298965</v>
+        <v>194747</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>194747</v>
+        <v>404676</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>404676</v>
+        <v>574186</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>574186</v>
+        <v>608420</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>608420</v>
+        <v>574154</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>574154</v>
+        <v>560042</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>560042</v>
+        <v>554593</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>554593</v>
+        <v>638636</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>638636</v>
+        <v>634988</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>634988</v>
+        <v>644506</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>644506</v>
+        <v>610105</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>610105</v>
+        <v>611416</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>611416</v>
+        <v>420061</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8892,47 +8892,47 @@
       <c r="T56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>58</v>
+      <c r="U56" s="16" t="n">
+        <v>97081</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>97081</v>
+        <v>90620</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>90620</v>
+        <v>89993</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>89993</v>
+        <v>61560</v>
       </c>
       <c r="Y56" s="16" t="n">
-        <v>61560</v>
+        <v>87513</v>
       </c>
       <c r="Z56" s="16" t="n">
-        <v>87513</v>
+        <v>117605</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>117605</v>
+        <v>156675</v>
       </c>
       <c r="AB56" s="16" t="n">
-        <v>156675</v>
+        <v>169282</v>
       </c>
       <c r="AC56" s="16" t="n">
-        <v>169282</v>
+        <v>162897</v>
       </c>
       <c r="AD56" s="16" t="n">
-        <v>162897</v>
+        <v>78322</v>
       </c>
       <c r="AE56" s="16" t="n">
-        <v>78322</v>
+        <v>137216</v>
       </c>
       <c r="AF56" s="16" t="n">
-        <v>137216</v>
+        <v>114344</v>
       </c>
       <c r="AG56" s="16" t="n">
-        <v>114344</v>
-      </c>
-      <c r="AH56" s="16" t="n">
         <v>151115</v>
+      </c>
+      <c r="AH56" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AI56" s="16" t="s">
         <v>58</v>
@@ -9051,8 +9051,8 @@
       <c r="T57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="13" t="s">
-        <v>58</v>
+      <c r="U57" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="13" t="n">
         <v>0</v>
@@ -9067,91 +9067,91 @@
         <v>0</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>139</v>
+        <v>20274</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>20274</v>
+        <v>18100</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>18100</v>
+        <v>20666</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>20666</v>
+        <v>15128</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>15128</v>
+        <v>22281</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>22281</v>
+        <v>18496</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>18496</v>
+        <v>4051</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>4051</v>
+        <v>17165</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>17165</v>
+        <v>26814</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>26814</v>
+        <v>20510</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>20510</v>
+        <v>16968</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>16968</v>
+        <v>11843</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>11843</v>
+        <v>10903</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>10903</v>
+        <v>20924</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>20924</v>
+        <v>23872</v>
       </c>
       <c r="AP57" s="13" t="n">
-        <v>23872</v>
+        <v>14769</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>14769</v>
+        <v>54069</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>54069</v>
+        <v>87791</v>
       </c>
       <c r="AS57" s="13" t="n">
-        <v>87791</v>
+        <v>47966</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>47966</v>
+        <v>32088</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>32088</v>
+        <v>37089</v>
       </c>
       <c r="AV57" s="13" t="n">
-        <v>37089</v>
+        <v>52713</v>
       </c>
       <c r="AW57" s="13" t="n">
-        <v>52713</v>
+        <v>69643</v>
       </c>
       <c r="AX57" s="13" t="n">
-        <v>69643</v>
+        <v>56822</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>56822</v>
+        <v>30733</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>30733</v>
+        <v>31303</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>31303</v>
+        <v>61549</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>61549</v>
+        <v>20187</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9210,107 +9210,107 @@
       <c r="T58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U58" s="16" t="s">
-        <v>58</v>
+      <c r="U58" s="16" t="n">
+        <v>38090</v>
       </c>
       <c r="V58" s="16" t="n">
-        <v>38090</v>
+        <v>31395</v>
       </c>
       <c r="W58" s="16" t="n">
-        <v>31395</v>
+        <v>33942</v>
       </c>
       <c r="X58" s="16" t="n">
-        <v>33942</v>
+        <v>11450</v>
       </c>
       <c r="Y58" s="16" t="n">
-        <v>11450</v>
+        <v>19661</v>
       </c>
       <c r="Z58" s="16" t="n">
-        <v>19661</v>
+        <v>36458</v>
       </c>
       <c r="AA58" s="16" t="n">
-        <v>36458</v>
+        <v>32356</v>
       </c>
       <c r="AB58" s="16" t="n">
-        <v>32356</v>
+        <v>28306</v>
       </c>
       <c r="AC58" s="16" t="n">
-        <v>28306</v>
+        <v>26955</v>
       </c>
       <c r="AD58" s="16" t="n">
-        <v>26955</v>
+        <v>35358</v>
       </c>
       <c r="AE58" s="16" t="n">
-        <v>35358</v>
+        <v>33961</v>
       </c>
       <c r="AF58" s="16" t="n">
-        <v>33961</v>
+        <v>48676</v>
       </c>
       <c r="AG58" s="16" t="n">
-        <v>48676</v>
+        <v>46343</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>46343</v>
+        <v>41675</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>41675</v>
+        <v>53974</v>
       </c>
       <c r="AJ58" s="16" t="n">
-        <v>53974</v>
+        <v>37956</v>
       </c>
       <c r="AK58" s="16" t="n">
-        <v>37956</v>
+        <v>40639</v>
       </c>
       <c r="AL58" s="16" t="n">
-        <v>40639</v>
+        <v>60893</v>
       </c>
       <c r="AM58" s="16" t="n">
-        <v>60893</v>
+        <v>59682</v>
       </c>
       <c r="AN58" s="16" t="n">
-        <v>59682</v>
+        <v>53504</v>
       </c>
       <c r="AO58" s="16" t="n">
-        <v>53504</v>
+        <v>43980</v>
       </c>
       <c r="AP58" s="16" t="n">
-        <v>43980</v>
+        <v>40528</v>
       </c>
       <c r="AQ58" s="16" t="n">
-        <v>40528</v>
+        <v>47349</v>
       </c>
       <c r="AR58" s="16" t="n">
-        <v>47349</v>
+        <v>71695</v>
       </c>
       <c r="AS58" s="16" t="n">
-        <v>71695</v>
+        <v>58421</v>
       </c>
       <c r="AT58" s="16" t="n">
-        <v>58421</v>
+        <v>69390</v>
       </c>
       <c r="AU58" s="16" t="n">
-        <v>69390</v>
+        <v>63319</v>
       </c>
       <c r="AV58" s="16" t="n">
-        <v>63319</v>
+        <v>69415</v>
       </c>
       <c r="AW58" s="16" t="n">
-        <v>69415</v>
+        <v>64830</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>64830</v>
+        <v>68275</v>
       </c>
       <c r="AY58" s="16" t="n">
-        <v>68275</v>
+        <v>65698</v>
       </c>
       <c r="AZ58" s="16" t="n">
-        <v>65698</v>
+        <v>50097</v>
       </c>
       <c r="BA58" s="16" t="n">
-        <v>50097</v>
+        <v>66467</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>66467</v>
+        <v>70124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9408,68 +9408,68 @@
       <c r="AG59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH59" s="13" t="s">
-        <v>58</v>
+      <c r="AH59" s="13" t="n">
+        <v>17883</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>17883</v>
+        <v>38099</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>38099</v>
+        <v>41815</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>41815</v>
+        <v>42108</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>42108</v>
+        <v>54331</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>54331</v>
+        <v>56938</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>56938</v>
+        <v>25921</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>25921</v>
+        <v>31686</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>31686</v>
+        <v>18819</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>18819</v>
+        <v>38590</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>38590</v>
+        <v>62732</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>62732</v>
+        <v>61727</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>61727</v>
+        <v>78589</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>78589</v>
+        <v>62814</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>62814</v>
+        <v>83834</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>83834</v>
+        <v>101177</v>
       </c>
       <c r="AX59" s="13" t="n">
-        <v>101177</v>
+        <v>67642</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>67642</v>
+        <v>76052</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>76052</v>
+        <v>82419</v>
       </c>
       <c r="BA59" s="13" t="n">
-        <v>82419</v>
+        <v>56970</v>
       </c>
       <c r="BB59" s="13" t="n">
-        <v>56970</v>
+        <v>40616</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9528,107 +9528,107 @@
       <c r="T60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>58</v>
+      <c r="U60" s="16" t="n">
+        <v>1117</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>1117</v>
+        <v>1635</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>1635</v>
+        <v>1975</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>1975</v>
+        <v>2050</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>2050</v>
+        <v>2293</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>2293</v>
+        <v>2206</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>2206</v>
+        <v>1972</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>1972</v>
+        <v>1597</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>1597</v>
+        <v>2083</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>2083</v>
+        <v>1733</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>1733</v>
+        <v>1483</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>1483</v>
+        <v>1923</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>1923</v>
+        <v>3448</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>3448</v>
+        <v>2309</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>2309</v>
+        <v>1393</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>1393</v>
+        <v>4780</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>4780</v>
+        <v>896</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>896</v>
+        <v>6242</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>6242</v>
+        <v>2402</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>2402</v>
+        <v>2103</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>2103</v>
+        <v>3108</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>3108</v>
+        <v>925</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>925</v>
+        <v>1365</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>1365</v>
+        <v>9521</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>9521</v>
+        <v>4365</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>4365</v>
+        <v>3417</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>3417</v>
+        <v>6162</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>6162</v>
+        <v>4307</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>4307</v>
+        <v>7673</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>7673</v>
+        <v>5186</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>5186</v>
+        <v>8550</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>8550</v>
+        <v>3366</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>3366</v>
+        <v>1948</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>1948</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9726,68 +9726,68 @@
       <c r="AG61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH61" s="13" t="s">
-        <v>58</v>
+      <c r="AH61" s="13" t="n">
+        <v>68294</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>68294</v>
+        <v>107180</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>107180</v>
+        <v>123666</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>123666</v>
+        <v>176526</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>176526</v>
+        <v>107499</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>107499</v>
+        <v>108387</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>108387</v>
+        <v>101484</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>101484</v>
+        <v>82411</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>82411</v>
+        <v>41540</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>41540</v>
+        <v>178731</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>178731</v>
+        <v>249924</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>249924</v>
+        <v>258443</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>258443</v>
+        <v>241641</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>241641</v>
+        <v>249318</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>249318</v>
+        <v>237838</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>237838</v>
+        <v>282067</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>282067</v>
+        <v>349906</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>349906</v>
+        <v>312494</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>312494</v>
+        <v>89202</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>89202</v>
+        <v>156820</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>156820</v>
+        <v>140462</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9885,68 +9885,68 @@
       <c r="AG62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH62" s="16" t="s">
-        <v>58</v>
+      <c r="AH62" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AI62" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AJ62" s="16" t="n">
-        <v>0</v>
+        <v>5443</v>
       </c>
       <c r="AK62" s="16" t="n">
-        <v>5443</v>
+        <v>2</v>
       </c>
       <c r="AL62" s="16" t="n">
-        <v>2</v>
+        <v>4558</v>
       </c>
       <c r="AM62" s="16" t="n">
-        <v>4558</v>
+        <v>3898</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>3898</v>
+        <v>2074</v>
       </c>
       <c r="AO62" s="16" t="n">
-        <v>2074</v>
+        <v>5237</v>
       </c>
       <c r="AP62" s="16" t="n">
-        <v>5237</v>
+        <v>852</v>
       </c>
       <c r="AQ62" s="16" t="n">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="AR62" s="16" t="n">
-        <v>0</v>
+        <v>37771</v>
       </c>
       <c r="AS62" s="16" t="n">
-        <v>37771</v>
+        <v>15440</v>
       </c>
       <c r="AT62" s="16" t="n">
-        <v>15440</v>
+        <v>20116</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>20116</v>
+        <v>6325</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>6325</v>
+        <v>21737</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>21737</v>
+        <v>19791</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>19791</v>
+        <v>25144</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>25144</v>
+        <v>29009</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>29009</v>
+        <v>12877</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>12877</v>
+        <v>16563</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>16563</v>
+        <v>10141</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10044,68 +10044,68 @@
       <c r="AG63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH63" s="13" t="s">
-        <v>58</v>
+      <c r="AH63" s="13" t="n">
+        <v>30428</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>30428</v>
+        <v>46166</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>46166</v>
+        <v>34878</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>34878</v>
+        <v>60236</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>60236</v>
+        <v>28516</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>28516</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>0</v>
+        <v>61938</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>61938</v>
+        <v>49168</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>49168</v>
+        <v>27433</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>27433</v>
+        <v>88454</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>88454</v>
+        <v>74263</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>74263</v>
+        <v>68176</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>68176</v>
+        <v>98954</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>98954</v>
+        <v>128413</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>128413</v>
+        <v>90327</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>90327</v>
+        <v>164530</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>164530</v>
+        <v>100921</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>100921</v>
+        <v>152963</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>152963</v>
+        <v>114120</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>114120</v>
+        <v>80898</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>80898</v>
+        <v>79921</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10163,106 +10163,106 @@
         <v>0</v>
       </c>
       <c r="U64" s="18" t="n">
-        <v>0</v>
+        <v>274813</v>
       </c>
       <c r="V64" s="18" t="n">
-        <v>274813</v>
+        <v>265550</v>
       </c>
       <c r="W64" s="18" t="n">
-        <v>265550</v>
+        <v>293262</v>
       </c>
       <c r="X64" s="18" t="n">
-        <v>293262</v>
+        <v>231111</v>
       </c>
       <c r="Y64" s="18" t="n">
-        <v>231111</v>
+        <v>301316</v>
       </c>
       <c r="Z64" s="18" t="n">
-        <v>301316</v>
+        <v>365815</v>
       </c>
       <c r="AA64" s="18" t="n">
-        <v>365815</v>
+        <v>411731</v>
       </c>
       <c r="AB64" s="18" t="n">
-        <v>411731</v>
+        <v>420424</v>
       </c>
       <c r="AC64" s="18" t="n">
-        <v>420424</v>
+        <v>395370</v>
       </c>
       <c r="AD64" s="18" t="n">
-        <v>395370</v>
+        <v>260890</v>
       </c>
       <c r="AE64" s="18" t="n">
-        <v>260890</v>
+        <v>430237</v>
       </c>
       <c r="AF64" s="18" t="n">
-        <v>430237</v>
+        <v>415201</v>
       </c>
       <c r="AG64" s="18" t="n">
-        <v>415201</v>
+        <v>458149</v>
       </c>
       <c r="AH64" s="18" t="n">
-        <v>458149</v>
+        <v>398505</v>
       </c>
       <c r="AI64" s="18" t="n">
-        <v>398505</v>
+        <v>550104</v>
       </c>
       <c r="AJ64" s="18" t="n">
-        <v>550104</v>
+        <v>528705</v>
       </c>
       <c r="AK64" s="18" t="n">
-        <v>528705</v>
+        <v>657318</v>
       </c>
       <c r="AL64" s="18" t="n">
-        <v>657318</v>
+        <v>584716</v>
       </c>
       <c r="AM64" s="18" t="n">
-        <v>584716</v>
+        <v>555405</v>
       </c>
       <c r="AN64" s="18" t="n">
-        <v>555405</v>
+        <v>580443</v>
       </c>
       <c r="AO64" s="18" t="n">
-        <v>580443</v>
+        <v>538427</v>
       </c>
       <c r="AP64" s="18" t="n">
-        <v>538427</v>
+        <v>339613</v>
       </c>
       <c r="AQ64" s="18" t="n">
-        <v>339613</v>
+        <v>813234</v>
       </c>
       <c r="AR64" s="18" t="n">
-        <v>813234</v>
+        <v>1167883</v>
       </c>
       <c r="AS64" s="18" t="n">
-        <v>1167883</v>
+        <v>1122958</v>
       </c>
       <c r="AT64" s="18" t="n">
-        <v>1122958</v>
+        <v>1118349</v>
       </c>
       <c r="AU64" s="18" t="n">
-        <v>1118349</v>
+        <v>1113482</v>
       </c>
       <c r="AV64" s="18" t="n">
-        <v>1113482</v>
+        <v>1114764</v>
       </c>
       <c r="AW64" s="18" t="n">
-        <v>1114764</v>
+        <v>1348347</v>
       </c>
       <c r="AX64" s="18" t="n">
-        <v>1348347</v>
+        <v>1308884</v>
       </c>
       <c r="AY64" s="18" t="n">
-        <v>1308884</v>
+        <v>1320005</v>
       </c>
       <c r="AZ64" s="18" t="n">
-        <v>1320005</v>
+        <v>993489</v>
       </c>
       <c r="BA64" s="18" t="n">
-        <v>993489</v>
+        <v>1052631</v>
       </c>
       <c r="BB64" s="18" t="n">
-        <v>1052631</v>
+        <v>788957</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10592,8 +10592,8 @@
       <c r="T68" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U68" s="22" t="s">
-        <v>58</v>
+      <c r="U68" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V68" s="23" t="n">
         <v>0</v>
@@ -10808,8 +10808,8 @@
       <c r="T70" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U70" s="22" t="s">
-        <v>58</v>
+      <c r="U70" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V70" s="23" t="n">
         <v>0</v>
@@ -11024,8 +11024,8 @@
       <c r="T72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="13" t="s">
-        <v>58</v>
+      <c r="U72" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V72" s="13" t="n">
         <v>0</v>
@@ -11182,106 +11182,106 @@
         <v>0</v>
       </c>
       <c r="U73" s="18" t="n">
-        <v>0</v>
+        <v>274813</v>
       </c>
       <c r="V73" s="18" t="n">
-        <v>274813</v>
+        <v>265550</v>
       </c>
       <c r="W73" s="18" t="n">
-        <v>265550</v>
+        <v>293262</v>
       </c>
       <c r="X73" s="18" t="n">
-        <v>293262</v>
+        <v>231111</v>
       </c>
       <c r="Y73" s="18" t="n">
-        <v>231111</v>
+        <v>301316</v>
       </c>
       <c r="Z73" s="18" t="n">
-        <v>301316</v>
+        <v>365815</v>
       </c>
       <c r="AA73" s="18" t="n">
-        <v>365815</v>
+        <v>411731</v>
       </c>
       <c r="AB73" s="18" t="n">
-        <v>411731</v>
+        <v>420424</v>
       </c>
       <c r="AC73" s="18" t="n">
-        <v>420424</v>
+        <v>395370</v>
       </c>
       <c r="AD73" s="18" t="n">
-        <v>395370</v>
+        <v>260890</v>
       </c>
       <c r="AE73" s="18" t="n">
-        <v>260890</v>
+        <v>430237</v>
       </c>
       <c r="AF73" s="18" t="n">
-        <v>430237</v>
+        <v>415201</v>
       </c>
       <c r="AG73" s="18" t="n">
-        <v>415201</v>
+        <v>458149</v>
       </c>
       <c r="AH73" s="18" t="n">
-        <v>458149</v>
+        <v>398505</v>
       </c>
       <c r="AI73" s="18" t="n">
-        <v>398505</v>
+        <v>550104</v>
       </c>
       <c r="AJ73" s="18" t="n">
-        <v>550104</v>
+        <v>528705</v>
       </c>
       <c r="AK73" s="18" t="n">
-        <v>528705</v>
+        <v>657318</v>
       </c>
       <c r="AL73" s="18" t="n">
-        <v>657318</v>
+        <v>584716</v>
       </c>
       <c r="AM73" s="18" t="n">
-        <v>584716</v>
+        <v>555405</v>
       </c>
       <c r="AN73" s="18" t="n">
-        <v>555405</v>
+        <v>580443</v>
       </c>
       <c r="AO73" s="18" t="n">
-        <v>580443</v>
+        <v>538427</v>
       </c>
       <c r="AP73" s="18" t="n">
-        <v>538427</v>
+        <v>339613</v>
       </c>
       <c r="AQ73" s="18" t="n">
-        <v>339613</v>
+        <v>813234</v>
       </c>
       <c r="AR73" s="18" t="n">
-        <v>813234</v>
+        <v>1167883</v>
       </c>
       <c r="AS73" s="18" t="n">
-        <v>1167883</v>
+        <v>1122958</v>
       </c>
       <c r="AT73" s="18" t="n">
-        <v>1122958</v>
+        <v>1118349</v>
       </c>
       <c r="AU73" s="18" t="n">
-        <v>1118349</v>
+        <v>1113482</v>
       </c>
       <c r="AV73" s="18" t="n">
-        <v>1113482</v>
+        <v>1114764</v>
       </c>
       <c r="AW73" s="18" t="n">
-        <v>1114764</v>
+        <v>1348347</v>
       </c>
       <c r="AX73" s="18" t="n">
-        <v>1348347</v>
+        <v>1308884</v>
       </c>
       <c r="AY73" s="18" t="n">
-        <v>1308884</v>
+        <v>1320005</v>
       </c>
       <c r="AZ73" s="18" t="n">
-        <v>1320005</v>
+        <v>993489</v>
       </c>
       <c r="BA73" s="18" t="n">
-        <v>993489</v>
+        <v>1052631</v>
       </c>
       <c r="BB73" s="18" t="n">
-        <v>1052631</v>
+        <v>788957</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11774,107 +11774,107 @@
       <c r="T80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U80" s="13" t="s">
-        <v>58</v>
+      <c r="U80" s="13" t="n">
+        <v>149918831</v>
       </c>
       <c r="V80" s="13" t="n">
-        <v>149918831</v>
+        <v>162729358</v>
       </c>
       <c r="W80" s="13" t="n">
-        <v>162729358</v>
+        <v>175974763</v>
       </c>
       <c r="X80" s="13" t="n">
-        <v>175974763</v>
+        <v>193852174</v>
       </c>
       <c r="Y80" s="13" t="n">
-        <v>193852174</v>
+        <v>203229873</v>
       </c>
       <c r="Z80" s="13" t="n">
-        <v>203229873</v>
+        <v>211308779</v>
       </c>
       <c r="AA80" s="13" t="n">
-        <v>211308779</v>
+        <v>204544898</v>
       </c>
       <c r="AB80" s="13" t="n">
-        <v>204544898</v>
+        <v>207073395</v>
       </c>
       <c r="AC80" s="13" t="n">
-        <v>207073395</v>
+        <v>215275618</v>
       </c>
       <c r="AD80" s="13" t="n">
-        <v>215275618</v>
+        <v>215452893</v>
       </c>
       <c r="AE80" s="13" t="n">
-        <v>215452893</v>
+        <v>252734694</v>
       </c>
       <c r="AF80" s="13" t="n">
-        <v>252734694</v>
+        <v>258374582</v>
       </c>
       <c r="AG80" s="13" t="n">
-        <v>258374582</v>
+        <v>258359184</v>
       </c>
       <c r="AH80" s="13" t="n">
-        <v>258359184</v>
+        <v>258490632</v>
       </c>
       <c r="AI80" s="13" t="n">
-        <v>258490632</v>
+        <v>263061846</v>
       </c>
       <c r="AJ80" s="13" t="n">
-        <v>263061846</v>
+        <v>290769317</v>
       </c>
       <c r="AK80" s="13" t="n">
-        <v>290769317</v>
+        <v>290593097</v>
       </c>
       <c r="AL80" s="13" t="n">
-        <v>290593097</v>
+        <v>290770814</v>
       </c>
       <c r="AM80" s="13" t="n">
-        <v>290770814</v>
+        <v>290533395</v>
       </c>
       <c r="AN80" s="13" t="n">
-        <v>290533395</v>
+        <v>295923295</v>
       </c>
       <c r="AO80" s="13" t="n">
-        <v>295923295</v>
+        <v>312724895</v>
       </c>
       <c r="AP80" s="13" t="n">
-        <v>312724895</v>
+        <v>321364686</v>
       </c>
       <c r="AQ80" s="13" t="n">
-        <v>321364686</v>
+        <v>456229989</v>
       </c>
       <c r="AR80" s="13" t="n">
-        <v>456229989</v>
+        <v>519155515</v>
       </c>
       <c r="AS80" s="13" t="n">
-        <v>519155515</v>
+        <v>513434599</v>
       </c>
       <c r="AT80" s="13" t="n">
-        <v>513434599</v>
+        <v>541654717</v>
       </c>
       <c r="AU80" s="13" t="n">
-        <v>541654717</v>
+        <v>541626692</v>
       </c>
       <c r="AV80" s="13" t="n">
-        <v>541626692</v>
+        <v>542124145</v>
       </c>
       <c r="AW80" s="13" t="n">
-        <v>542124145</v>
+        <v>576386282</v>
       </c>
       <c r="AX80" s="13" t="n">
-        <v>576386282</v>
+        <v>576214156</v>
       </c>
       <c r="AY80" s="13" t="n">
-        <v>576214156</v>
+        <v>575966041</v>
       </c>
       <c r="AZ80" s="13" t="n">
-        <v>575966041</v>
+        <v>576114259</v>
       </c>
       <c r="BA80" s="13" t="n">
-        <v>576114259</v>
+        <v>576263902</v>
       </c>
       <c r="BB80" s="13" t="n">
-        <v>576263902</v>
+        <v>576215364</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11933,47 +11933,47 @@
       <c r="T81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="16" t="s">
-        <v>58</v>
+      <c r="U81" s="16" t="n">
+        <v>125265806</v>
       </c>
       <c r="V81" s="16" t="n">
-        <v>125265806</v>
+        <v>133855244</v>
       </c>
       <c r="W81" s="16" t="n">
-        <v>133855244</v>
+        <v>134317910</v>
       </c>
       <c r="X81" s="16" t="n">
-        <v>134317910</v>
+        <v>165040214</v>
       </c>
       <c r="Y81" s="16" t="n">
-        <v>165040214</v>
+        <v>150108062</v>
       </c>
       <c r="Z81" s="16" t="n">
-        <v>150108062</v>
+        <v>143947368</v>
       </c>
       <c r="AA81" s="16" t="n">
-        <v>143947368</v>
+        <v>154664363</v>
       </c>
       <c r="AB81" s="16" t="n">
-        <v>154664363</v>
+        <v>163084778</v>
       </c>
       <c r="AC81" s="16" t="n">
-        <v>163084778</v>
+        <v>172743372</v>
       </c>
       <c r="AD81" s="16" t="n">
-        <v>172743372</v>
+        <v>159191057</v>
       </c>
       <c r="AE81" s="16" t="n">
-        <v>159191057</v>
+        <v>178202597</v>
       </c>
       <c r="AF81" s="16" t="n">
-        <v>178202597</v>
+        <v>173775076</v>
       </c>
       <c r="AG81" s="16" t="n">
-        <v>173775076</v>
-      </c>
-      <c r="AH81" s="16" t="n">
         <v>183614824</v>
+      </c>
+      <c r="AH81" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AI81" s="16" t="s">
         <v>58</v>
@@ -12107,92 +12107,92 @@
       <c r="Y82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="13" t="s">
-        <v>58</v>
+      <c r="Z82" s="13" t="n">
+        <v>139000000</v>
       </c>
       <c r="AA82" s="13" t="n">
-        <v>139000000</v>
+        <v>184309091</v>
       </c>
       <c r="AB82" s="13" t="n">
-        <v>184309091</v>
+        <v>184693878</v>
       </c>
       <c r="AC82" s="13" t="n">
-        <v>184693878</v>
+        <v>184517857</v>
       </c>
       <c r="AD82" s="13" t="n">
-        <v>184517857</v>
+        <v>199052632</v>
       </c>
       <c r="AE82" s="13" t="n">
-        <v>199052632</v>
+        <v>229701031</v>
       </c>
       <c r="AF82" s="13" t="n">
-        <v>229701031</v>
+        <v>231200000</v>
       </c>
       <c r="AG82" s="13" t="n">
-        <v>231200000</v>
+        <v>225055556</v>
       </c>
       <c r="AH82" s="13" t="n">
-        <v>225055556</v>
+        <v>231959459</v>
       </c>
       <c r="AI82" s="13" t="n">
-        <v>231959459</v>
+        <v>243763636</v>
       </c>
       <c r="AJ82" s="13" t="n">
-        <v>243763636</v>
+        <v>266363636</v>
       </c>
       <c r="AK82" s="13" t="n">
-        <v>266363636</v>
+        <v>273677419</v>
       </c>
       <c r="AL82" s="13" t="n">
-        <v>273677419</v>
+        <v>275418605</v>
       </c>
       <c r="AM82" s="13" t="n">
-        <v>275418605</v>
+        <v>279564103</v>
       </c>
       <c r="AN82" s="13" t="n">
-        <v>279564103</v>
+        <v>275315789</v>
       </c>
       <c r="AO82" s="13" t="n">
-        <v>275315789</v>
+        <v>277581395</v>
       </c>
       <c r="AP82" s="13" t="n">
-        <v>277581395</v>
+        <v>278660377</v>
       </c>
       <c r="AQ82" s="13" t="n">
-        <v>278660377</v>
+        <v>505317757</v>
       </c>
       <c r="AR82" s="13" t="n">
-        <v>505317757</v>
+        <v>645522059</v>
       </c>
       <c r="AS82" s="13" t="n">
-        <v>645522059</v>
+        <v>614948718</v>
       </c>
       <c r="AT82" s="13" t="n">
-        <v>614948718</v>
+        <v>605433962</v>
       </c>
       <c r="AU82" s="13" t="n">
-        <v>605433962</v>
+        <v>608016393</v>
       </c>
       <c r="AV82" s="13" t="n">
-        <v>608016393</v>
+        <v>599011364</v>
       </c>
       <c r="AW82" s="13" t="n">
-        <v>599011364</v>
+        <v>605591304</v>
       </c>
       <c r="AX82" s="13" t="n">
-        <v>605591304</v>
+        <v>579816327</v>
       </c>
       <c r="AY82" s="13" t="n">
-        <v>579816327</v>
+        <v>579867925</v>
       </c>
       <c r="AZ82" s="13" t="n">
-        <v>579867925</v>
+        <v>579685185</v>
       </c>
       <c r="BA82" s="13" t="n">
-        <v>579685185</v>
+        <v>575224299</v>
       </c>
       <c r="BB82" s="13" t="n">
-        <v>575224299</v>
+        <v>576771429</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12251,107 +12251,107 @@
       <c r="T83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="16" t="s">
-        <v>58</v>
+      <c r="U83" s="16" t="n">
+        <v>18000945</v>
       </c>
       <c r="V83" s="16" t="n">
-        <v>18000945</v>
+        <v>18001720</v>
       </c>
       <c r="W83" s="16" t="n">
-        <v>18001720</v>
+        <v>17996819</v>
       </c>
       <c r="X83" s="16" t="n">
-        <v>17996819</v>
+        <v>18003145</v>
       </c>
       <c r="Y83" s="16" t="n">
-        <v>18003145</v>
+        <v>18004579</v>
       </c>
       <c r="Z83" s="16" t="n">
-        <v>18004579</v>
+        <v>17995064</v>
       </c>
       <c r="AA83" s="16" t="n">
-        <v>17995064</v>
+        <v>17995551</v>
       </c>
       <c r="AB83" s="16" t="n">
-        <v>17995551</v>
+        <v>17994914</v>
       </c>
       <c r="AC83" s="16" t="n">
-        <v>17994914</v>
+        <v>18018048</v>
       </c>
       <c r="AD83" s="16" t="n">
-        <v>18018048</v>
+        <v>27995249</v>
       </c>
       <c r="AE83" s="16" t="n">
-        <v>27995249</v>
+        <v>27997527</v>
       </c>
       <c r="AF83" s="16" t="n">
-        <v>27997527</v>
+        <v>28006904</v>
       </c>
       <c r="AG83" s="16" t="n">
-        <v>28006904</v>
+        <v>28001813</v>
       </c>
       <c r="AH83" s="16" t="n">
-        <v>28001813</v>
+        <v>27988583</v>
       </c>
       <c r="AI83" s="16" t="n">
-        <v>27988583</v>
+        <v>28009341</v>
       </c>
       <c r="AJ83" s="16" t="n">
-        <v>28009341</v>
+        <v>27991150</v>
       </c>
       <c r="AK83" s="16" t="n">
-        <v>27991150</v>
+        <v>28007581</v>
       </c>
       <c r="AL83" s="16" t="n">
-        <v>28007581</v>
+        <v>27996782</v>
       </c>
       <c r="AM83" s="16" t="n">
-        <v>27996782</v>
+        <v>28006570</v>
       </c>
       <c r="AN83" s="16" t="n">
-        <v>28006570</v>
+        <v>27997907</v>
       </c>
       <c r="AO83" s="16" t="n">
-        <v>27997907</v>
+        <v>27994908</v>
       </c>
       <c r="AP83" s="16" t="n">
-        <v>27994908</v>
+        <v>41020243</v>
       </c>
       <c r="AQ83" s="16" t="n">
-        <v>41020243</v>
+        <v>40994805</v>
       </c>
       <c r="AR83" s="16" t="n">
-        <v>40994805</v>
+        <v>40991995</v>
       </c>
       <c r="AS83" s="16" t="n">
-        <v>40991995</v>
+        <v>40997193</v>
       </c>
       <c r="AT83" s="16" t="n">
-        <v>40997193</v>
+        <v>41010638</v>
       </c>
       <c r="AU83" s="16" t="n">
-        <v>41010638</v>
+        <v>41009715</v>
       </c>
       <c r="AV83" s="16" t="n">
-        <v>41009715</v>
+        <v>40976978</v>
       </c>
       <c r="AW83" s="16" t="n">
-        <v>40976978</v>
+        <v>41005693</v>
       </c>
       <c r="AX83" s="16" t="n">
-        <v>41005693</v>
+        <v>41030649</v>
       </c>
       <c r="AY83" s="16" t="n">
-        <v>41030649</v>
+        <v>40984404</v>
       </c>
       <c r="AZ83" s="16" t="n">
-        <v>40984404</v>
+        <v>40995908</v>
       </c>
       <c r="BA83" s="16" t="n">
-        <v>40995908</v>
+        <v>41003701</v>
       </c>
       <c r="BB83" s="16" t="n">
-        <v>41003701</v>
+        <v>51982209</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12449,68 +12449,68 @@
       <c r="AG84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH84" s="13" t="s">
-        <v>58</v>
+      <c r="AH84" s="13" t="n">
+        <v>162572727</v>
       </c>
       <c r="AI84" s="13" t="n">
-        <v>162572727</v>
+        <v>175571429</v>
       </c>
       <c r="AJ84" s="13" t="n">
-        <v>175571429</v>
+        <v>184207048</v>
       </c>
       <c r="AK84" s="13" t="n">
-        <v>184207048</v>
+        <v>187982143</v>
       </c>
       <c r="AL84" s="13" t="n">
-        <v>187982143</v>
+        <v>181709030</v>
       </c>
       <c r="AM84" s="13" t="n">
-        <v>181709030</v>
+        <v>179615142</v>
       </c>
       <c r="AN84" s="13" t="n">
-        <v>179615142</v>
+        <v>196371212</v>
       </c>
       <c r="AO84" s="13" t="n">
-        <v>196371212</v>
+        <v>186388235</v>
       </c>
       <c r="AP84" s="13" t="n">
-        <v>186388235</v>
+        <v>182708738</v>
       </c>
       <c r="AQ84" s="13" t="n">
-        <v>182708738</v>
+        <v>350818182</v>
       </c>
       <c r="AR84" s="13" t="n">
-        <v>350818182</v>
+        <v>412710526</v>
       </c>
       <c r="AS84" s="13" t="n">
-        <v>412710526</v>
+        <v>444079137</v>
       </c>
       <c r="AT84" s="13" t="n">
-        <v>444079137</v>
+        <v>363837963</v>
       </c>
       <c r="AU84" s="13" t="n">
-        <v>363837963</v>
+        <v>390149068</v>
       </c>
       <c r="AV84" s="13" t="n">
-        <v>390149068</v>
+        <v>403048077</v>
       </c>
       <c r="AW84" s="13" t="n">
-        <v>403048077</v>
+        <v>468412037</v>
       </c>
       <c r="AX84" s="13" t="n">
-        <v>468412037</v>
+        <v>469736111</v>
       </c>
       <c r="AY84" s="13" t="n">
-        <v>469736111</v>
+        <v>478314465</v>
       </c>
       <c r="AZ84" s="13" t="n">
-        <v>478314465</v>
+        <v>465644068</v>
       </c>
       <c r="BA84" s="13" t="n">
-        <v>465644068</v>
+        <v>466967213</v>
       </c>
       <c r="BB84" s="13" t="n">
-        <v>466967213</v>
+        <v>483523810</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12569,107 +12569,107 @@
       <c r="T85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U85" s="16" t="s">
-        <v>58</v>
+      <c r="U85" s="16" t="n">
+        <v>223400000</v>
       </c>
       <c r="V85" s="16" t="n">
-        <v>223400000</v>
+        <v>204375000</v>
       </c>
       <c r="W85" s="16" t="n">
-        <v>204375000</v>
+        <v>246875000</v>
       </c>
       <c r="X85" s="16" t="n">
-        <v>246875000</v>
+        <v>292857143</v>
       </c>
       <c r="Y85" s="16" t="n">
-        <v>292857143</v>
+        <v>327571429</v>
       </c>
       <c r="Z85" s="16" t="n">
-        <v>327571429</v>
+        <v>441200000</v>
       </c>
       <c r="AA85" s="16" t="n">
-        <v>441200000</v>
+        <v>394400000</v>
       </c>
       <c r="AB85" s="16" t="n">
-        <v>394400000</v>
+        <v>399250000</v>
       </c>
       <c r="AC85" s="16" t="n">
-        <v>399250000</v>
+        <v>297571429</v>
       </c>
       <c r="AD85" s="16" t="n">
-        <v>297571429</v>
+        <v>433250000</v>
       </c>
       <c r="AE85" s="16" t="n">
-        <v>433250000</v>
+        <v>370750000</v>
       </c>
       <c r="AF85" s="16" t="n">
-        <v>370750000</v>
+        <v>480750000</v>
       </c>
       <c r="AG85" s="16" t="n">
-        <v>480750000</v>
+        <v>431000000</v>
       </c>
       <c r="AH85" s="16" t="n">
-        <v>431000000</v>
+        <v>461800000</v>
       </c>
       <c r="AI85" s="16" t="n">
-        <v>461800000</v>
+        <v>464333333</v>
       </c>
       <c r="AJ85" s="16" t="n">
-        <v>464333333</v>
+        <v>478000000</v>
       </c>
       <c r="AK85" s="16" t="n">
-        <v>478000000</v>
+        <v>448000000</v>
       </c>
       <c r="AL85" s="16" t="n">
-        <v>448000000</v>
+        <v>445857143</v>
       </c>
       <c r="AM85" s="16" t="n">
-        <v>445857143</v>
+        <v>480400000</v>
       </c>
       <c r="AN85" s="16" t="n">
-        <v>480400000</v>
+        <v>525750000</v>
       </c>
       <c r="AO85" s="16" t="n">
-        <v>525750000</v>
+        <v>621600000</v>
       </c>
       <c r="AP85" s="16" t="n">
-        <v>621600000</v>
+        <v>462500000</v>
       </c>
       <c r="AQ85" s="16" t="n">
-        <v>462500000</v>
+        <v>682500000</v>
       </c>
       <c r="AR85" s="16" t="n">
-        <v>682500000</v>
+        <v>793416667</v>
       </c>
       <c r="AS85" s="16" t="n">
-        <v>793416667</v>
+        <v>873000000</v>
       </c>
       <c r="AT85" s="16" t="n">
-        <v>873000000</v>
+        <v>683400000</v>
       </c>
       <c r="AU85" s="16" t="n">
-        <v>683400000</v>
+        <v>880285714</v>
       </c>
       <c r="AV85" s="16" t="n">
-        <v>880285714</v>
+        <v>861400000</v>
       </c>
       <c r="AW85" s="16" t="n">
-        <v>861400000</v>
+        <v>852555556</v>
       </c>
       <c r="AX85" s="16" t="n">
-        <v>852555556</v>
+        <v>864333333</v>
       </c>
       <c r="AY85" s="16" t="n">
-        <v>864333333</v>
+        <v>855000000</v>
       </c>
       <c r="AZ85" s="16" t="n">
-        <v>855000000</v>
+        <v>841500000</v>
       </c>
       <c r="BA85" s="16" t="n">
-        <v>841500000</v>
+        <v>974000000</v>
       </c>
       <c r="BB85" s="16" t="n">
-        <v>974000000</v>
+        <v>827222222</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12767,68 +12767,68 @@
       <c r="AG86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH86" s="13" t="s">
-        <v>58</v>
+      <c r="AH86" s="13" t="n">
+        <v>160691765</v>
       </c>
       <c r="AI86" s="13" t="n">
-        <v>160691765</v>
+        <v>183213675</v>
       </c>
       <c r="AJ86" s="13" t="n">
-        <v>183213675</v>
+        <v>197549521</v>
       </c>
       <c r="AK86" s="13" t="n">
-        <v>197549521</v>
+        <v>203605536</v>
       </c>
       <c r="AL86" s="13" t="n">
-        <v>203605536</v>
+        <v>204370722</v>
       </c>
       <c r="AM86" s="13" t="n">
-        <v>204370722</v>
+        <v>201089054</v>
       </c>
       <c r="AN86" s="13" t="n">
-        <v>201089054</v>
+        <v>202562874</v>
       </c>
       <c r="AO86" s="13" t="n">
-        <v>202562874</v>
+        <v>203483951</v>
       </c>
       <c r="AP86" s="13" t="n">
-        <v>203483951</v>
+        <v>210862944</v>
       </c>
       <c r="AQ86" s="13" t="n">
-        <v>210862944</v>
+        <v>364757143</v>
       </c>
       <c r="AR86" s="13" t="n">
-        <v>364757143</v>
+        <v>469781955</v>
       </c>
       <c r="AS86" s="13" t="n">
-        <v>469781955</v>
+        <v>472473492</v>
       </c>
       <c r="AT86" s="13" t="n">
-        <v>472473492</v>
+        <v>461146947</v>
       </c>
       <c r="AU86" s="13" t="n">
-        <v>461146947</v>
+        <v>455791590</v>
       </c>
       <c r="AV86" s="13" t="n">
-        <v>455791590</v>
+        <v>460926357</v>
       </c>
       <c r="AW86" s="13" t="n">
-        <v>460926357</v>
+        <v>548768482</v>
       </c>
       <c r="AX86" s="13" t="n">
-        <v>548768482</v>
+        <v>548442006</v>
       </c>
       <c r="AY86" s="13" t="n">
-        <v>548442006</v>
+        <v>544414634</v>
       </c>
       <c r="AZ86" s="13" t="n">
-        <v>544414634</v>
+        <v>550629630</v>
       </c>
       <c r="BA86" s="13" t="n">
-        <v>550629630</v>
+        <v>548321678</v>
       </c>
       <c r="BB86" s="13" t="n">
-        <v>548321678</v>
+        <v>548679688</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12932,62 +12932,62 @@
       <c r="AI87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ87" s="16" t="s">
-        <v>58</v>
+      <c r="AJ87" s="16" t="n">
+        <v>187689655</v>
       </c>
       <c r="AK87" s="16" t="n">
-        <v>187689655</v>
+        <v>2000000</v>
       </c>
       <c r="AL87" s="16" t="n">
-        <v>2000000</v>
+        <v>207181818</v>
       </c>
       <c r="AM87" s="16" t="n">
-        <v>207181818</v>
+        <v>194900000</v>
       </c>
       <c r="AN87" s="16" t="n">
-        <v>194900000</v>
+        <v>207400000</v>
       </c>
       <c r="AO87" s="16" t="n">
-        <v>207400000</v>
+        <v>193962963</v>
       </c>
       <c r="AP87" s="16" t="n">
-        <v>193962963</v>
-      </c>
-      <c r="AQ87" s="16" t="n">
         <v>213000000</v>
       </c>
-      <c r="AR87" s="16" t="s">
-        <v>58</v>
+      <c r="AQ87" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR87" s="16" t="n">
+        <v>415065934</v>
       </c>
       <c r="AS87" s="16" t="n">
-        <v>415065934</v>
+        <v>406315789</v>
       </c>
       <c r="AT87" s="16" t="n">
-        <v>406315789</v>
+        <v>410530612</v>
       </c>
       <c r="AU87" s="16" t="n">
-        <v>410530612</v>
+        <v>395312500</v>
       </c>
       <c r="AV87" s="16" t="n">
-        <v>395312500</v>
+        <v>402537037</v>
       </c>
       <c r="AW87" s="16" t="n">
-        <v>402537037</v>
+        <v>412312500</v>
       </c>
       <c r="AX87" s="16" t="n">
-        <v>412312500</v>
+        <v>419066667</v>
       </c>
       <c r="AY87" s="16" t="n">
-        <v>419066667</v>
+        <v>408577465</v>
       </c>
       <c r="AZ87" s="16" t="n">
-        <v>408577465</v>
+        <v>415387097</v>
       </c>
       <c r="BA87" s="16" t="n">
-        <v>415387097</v>
+        <v>414075000</v>
       </c>
       <c r="BB87" s="16" t="n">
-        <v>414075000</v>
+        <v>422541667</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13085,68 +13085,68 @@
       <c r="AG88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH88" s="13" t="s">
-        <v>58</v>
+      <c r="AH88" s="13" t="n">
+        <v>323702128</v>
       </c>
       <c r="AI88" s="13" t="n">
-        <v>323702128</v>
+        <v>397982759</v>
       </c>
       <c r="AJ88" s="13" t="n">
-        <v>397982759</v>
+        <v>396340909</v>
       </c>
       <c r="AK88" s="13" t="n">
-        <v>396340909</v>
+        <v>418305556</v>
       </c>
       <c r="AL88" s="13" t="n">
-        <v>418305556</v>
-      </c>
-      <c r="AM88" s="13" t="n">
         <v>413275362</v>
       </c>
-      <c r="AN88" s="13" t="s">
-        <v>58</v>
+      <c r="AM88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN88" s="13" t="n">
+        <v>387112500</v>
       </c>
       <c r="AO88" s="13" t="n">
-        <v>387112500</v>
+        <v>413176471</v>
       </c>
       <c r="AP88" s="13" t="n">
-        <v>413176471</v>
+        <v>435444444</v>
       </c>
       <c r="AQ88" s="13" t="n">
-        <v>435444444</v>
+        <v>570670968</v>
       </c>
       <c r="AR88" s="13" t="n">
-        <v>570670968</v>
+        <v>681311927</v>
       </c>
       <c r="AS88" s="13" t="n">
-        <v>681311927</v>
+        <v>675009901</v>
       </c>
       <c r="AT88" s="13" t="n">
-        <v>675009901</v>
+        <v>651013158</v>
       </c>
       <c r="AU88" s="13" t="n">
-        <v>651013158</v>
+        <v>648550505</v>
       </c>
       <c r="AV88" s="13" t="n">
-        <v>648550505</v>
+        <v>649834532</v>
       </c>
       <c r="AW88" s="13" t="n">
-        <v>649834532</v>
+        <v>691302521</v>
       </c>
       <c r="AX88" s="13" t="n">
-        <v>691302521</v>
+        <v>691239726</v>
       </c>
       <c r="AY88" s="13" t="n">
-        <v>691239726</v>
+        <v>692140271</v>
       </c>
       <c r="AZ88" s="13" t="n">
-        <v>692140271</v>
+        <v>691636364</v>
       </c>
       <c r="BA88" s="13" t="n">
-        <v>691636364</v>
+        <v>685576271</v>
       </c>
       <c r="BB88" s="13" t="n">
-        <v>685576271</v>
+        <v>688974138</v>
       </c>
     </row>
   </sheetData>
